--- a/static/documents/eshn/perehod-eshn.xlsx
+++ b/static/documents/eshn/perehod-eshn.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E5CDF9-BCE6-4B24-A380-A8E60A573CC3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F0AD43-089C-42B6-BCB9-4EA566A199EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5748"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="стр.1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -754,9 +754,153 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -765,150 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,7 +952,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED27FAA8-AFA8-4D6B-826B-934A60496EDF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9661487E-9703-4D97-B1CC-8C97444689F5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -970,7 +970,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -988,15 +987,6 @@
                   <a:headEnd/>
                   <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -1356,14 +1346,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:DP78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BV37" sqref="BV37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1372,9 +1362,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1393,54 +1383,54 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AD1" s="104" t="s">
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AD1" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="77"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="77"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="78"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="77"/>
-      <c r="BP1" s="78"/>
-      <c r="BQ1" s="79"/>
-      <c r="BR1" s="77"/>
-      <c r="BS1" s="78"/>
-      <c r="BT1" s="79"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="121"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="80"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="80"/>
+      <c r="BH1" s="81"/>
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="79"/>
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="81"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="80"/>
+      <c r="BQ1" s="81"/>
+      <c r="BR1" s="79"/>
+      <c r="BS1" s="80"/>
+      <c r="BT1" s="81"/>
       <c r="BW1" s="2"/>
       <c r="BX1" s="2"/>
       <c r="BY1" s="2"/>
@@ -1454,40 +1444,40 @@
       <c r="CH1" s="18"/>
       <c r="CI1" s="18"/>
       <c r="CJ1" s="18"/>
-      <c r="CK1" s="124" t="s">
+      <c r="CK1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="CL1" s="124"/>
-      <c r="CM1" s="124"/>
-      <c r="CN1" s="124"/>
-      <c r="CO1" s="124"/>
-      <c r="CP1" s="124"/>
-      <c r="CQ1" s="124"/>
-      <c r="CR1" s="124"/>
-      <c r="CS1" s="124"/>
-      <c r="CT1" s="124"/>
-      <c r="CU1" s="124"/>
-      <c r="CV1" s="124"/>
-      <c r="CW1" s="124"/>
-      <c r="CX1" s="124"/>
-      <c r="CY1" s="124"/>
-      <c r="CZ1" s="124"/>
-      <c r="DA1" s="124"/>
-      <c r="DB1" s="124"/>
-      <c r="DC1" s="124"/>
-      <c r="DD1" s="124"/>
-      <c r="DE1" s="124"/>
-      <c r="DF1" s="124"/>
-      <c r="DG1" s="124"/>
-      <c r="DH1" s="124"/>
-      <c r="DI1" s="124"/>
-      <c r="DJ1" s="124"/>
-      <c r="DK1" s="124"/>
-      <c r="DL1" s="124"/>
-      <c r="DM1" s="124"/>
-      <c r="DN1" s="124"/>
-      <c r="DO1" s="124"/>
-      <c r="DP1" s="124"/>
+      <c r="CL1" s="75"/>
+      <c r="CM1" s="75"/>
+      <c r="CN1" s="75"/>
+      <c r="CO1" s="75"/>
+      <c r="CP1" s="75"/>
+      <c r="CQ1" s="75"/>
+      <c r="CR1" s="75"/>
+      <c r="CS1" s="75"/>
+      <c r="CT1" s="75"/>
+      <c r="CU1" s="75"/>
+      <c r="CV1" s="75"/>
+      <c r="CW1" s="75"/>
+      <c r="CX1" s="75"/>
+      <c r="CY1" s="75"/>
+      <c r="CZ1" s="75"/>
+      <c r="DA1" s="75"/>
+      <c r="DB1" s="75"/>
+      <c r="DC1" s="75"/>
+      <c r="DD1" s="75"/>
+      <c r="DE1" s="75"/>
+      <c r="DF1" s="75"/>
+      <c r="DG1" s="75"/>
+      <c r="DH1" s="75"/>
+      <c r="DI1" s="75"/>
+      <c r="DJ1" s="75"/>
+      <c r="DK1" s="75"/>
+      <c r="DL1" s="75"/>
+      <c r="DM1" s="75"/>
+      <c r="DN1" s="75"/>
+      <c r="DO1" s="75"/>
+      <c r="DP1" s="75"/>
     </row>
     <row r="2" spans="1:120" s="3" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -1515,49 +1505,49 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AC2" s="12"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="81"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="80"/>
-      <c r="BA2" s="81"/>
-      <c r="BB2" s="82"/>
-      <c r="BC2" s="80"/>
-      <c r="BD2" s="81"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="80"/>
-      <c r="BG2" s="81"/>
-      <c r="BH2" s="82"/>
-      <c r="BI2" s="80"/>
-      <c r="BJ2" s="81"/>
-      <c r="BK2" s="82"/>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="81"/>
-      <c r="BN2" s="82"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="81"/>
-      <c r="BQ2" s="82"/>
-      <c r="BR2" s="80"/>
-      <c r="BS2" s="81"/>
-      <c r="BT2" s="82"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="121"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="82"/>
+      <c r="BM2" s="83"/>
+      <c r="BN2" s="84"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="83"/>
+      <c r="BQ2" s="84"/>
+      <c r="BR2" s="82"/>
+      <c r="BS2" s="83"/>
+      <c r="BT2" s="84"/>
       <c r="BU2" s="2"/>
       <c r="BV2" s="2"/>
       <c r="BW2" s="2"/>
@@ -1574,38 +1564,38 @@
       <c r="CH2" s="18"/>
       <c r="CI2" s="18"/>
       <c r="CJ2" s="18"/>
-      <c r="CK2" s="124"/>
-      <c r="CL2" s="124"/>
-      <c r="CM2" s="124"/>
-      <c r="CN2" s="124"/>
-      <c r="CO2" s="124"/>
-      <c r="CP2" s="124"/>
-      <c r="CQ2" s="124"/>
-      <c r="CR2" s="124"/>
-      <c r="CS2" s="124"/>
-      <c r="CT2" s="124"/>
-      <c r="CU2" s="124"/>
-      <c r="CV2" s="124"/>
-      <c r="CW2" s="124"/>
-      <c r="CX2" s="124"/>
-      <c r="CY2" s="124"/>
-      <c r="CZ2" s="124"/>
-      <c r="DA2" s="124"/>
-      <c r="DB2" s="124"/>
-      <c r="DC2" s="124"/>
-      <c r="DD2" s="124"/>
-      <c r="DE2" s="124"/>
-      <c r="DF2" s="124"/>
-      <c r="DG2" s="124"/>
-      <c r="DH2" s="124"/>
-      <c r="DI2" s="124"/>
-      <c r="DJ2" s="124"/>
-      <c r="DK2" s="124"/>
-      <c r="DL2" s="124"/>
-      <c r="DM2" s="124"/>
-      <c r="DN2" s="124"/>
-      <c r="DO2" s="124"/>
-      <c r="DP2" s="124"/>
+      <c r="CK2" s="75"/>
+      <c r="CL2" s="75"/>
+      <c r="CM2" s="75"/>
+      <c r="CN2" s="75"/>
+      <c r="CO2" s="75"/>
+      <c r="CP2" s="75"/>
+      <c r="CQ2" s="75"/>
+      <c r="CR2" s="75"/>
+      <c r="CS2" s="75"/>
+      <c r="CT2" s="75"/>
+      <c r="CU2" s="75"/>
+      <c r="CV2" s="75"/>
+      <c r="CW2" s="75"/>
+      <c r="CX2" s="75"/>
+      <c r="CY2" s="75"/>
+      <c r="CZ2" s="75"/>
+      <c r="DA2" s="75"/>
+      <c r="DB2" s="75"/>
+      <c r="DC2" s="75"/>
+      <c r="DD2" s="75"/>
+      <c r="DE2" s="75"/>
+      <c r="DF2" s="75"/>
+      <c r="DG2" s="75"/>
+      <c r="DH2" s="75"/>
+      <c r="DI2" s="75"/>
+      <c r="DJ2" s="75"/>
+      <c r="DK2" s="75"/>
+      <c r="DL2" s="75"/>
+      <c r="DM2" s="75"/>
+      <c r="DN2" s="75"/>
+      <c r="DO2" s="75"/>
+      <c r="DP2" s="75"/>
     </row>
     <row r="3" spans="1:120" s="3" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -1690,38 +1680,38 @@
       <c r="CH3" s="18"/>
       <c r="CI3" s="18"/>
       <c r="CJ3" s="18"/>
-      <c r="CK3" s="124"/>
-      <c r="CL3" s="124"/>
-      <c r="CM3" s="124"/>
-      <c r="CN3" s="124"/>
-      <c r="CO3" s="124"/>
-      <c r="CP3" s="124"/>
-      <c r="CQ3" s="124"/>
-      <c r="CR3" s="124"/>
-      <c r="CS3" s="124"/>
-      <c r="CT3" s="124"/>
-      <c r="CU3" s="124"/>
-      <c r="CV3" s="124"/>
-      <c r="CW3" s="124"/>
-      <c r="CX3" s="124"/>
-      <c r="CY3" s="124"/>
-      <c r="CZ3" s="124"/>
-      <c r="DA3" s="124"/>
-      <c r="DB3" s="124"/>
-      <c r="DC3" s="124"/>
-      <c r="DD3" s="124"/>
-      <c r="DE3" s="124"/>
-      <c r="DF3" s="124"/>
-      <c r="DG3" s="124"/>
-      <c r="DH3" s="124"/>
-      <c r="DI3" s="124"/>
-      <c r="DJ3" s="124"/>
-      <c r="DK3" s="124"/>
-      <c r="DL3" s="124"/>
-      <c r="DM3" s="124"/>
-      <c r="DN3" s="124"/>
-      <c r="DO3" s="124"/>
-      <c r="DP3" s="124"/>
+      <c r="CK3" s="75"/>
+      <c r="CL3" s="75"/>
+      <c r="CM3" s="75"/>
+      <c r="CN3" s="75"/>
+      <c r="CO3" s="75"/>
+      <c r="CP3" s="75"/>
+      <c r="CQ3" s="75"/>
+      <c r="CR3" s="75"/>
+      <c r="CS3" s="75"/>
+      <c r="CT3" s="75"/>
+      <c r="CU3" s="75"/>
+      <c r="CV3" s="75"/>
+      <c r="CW3" s="75"/>
+      <c r="CX3" s="75"/>
+      <c r="CY3" s="75"/>
+      <c r="CZ3" s="75"/>
+      <c r="DA3" s="75"/>
+      <c r="DB3" s="75"/>
+      <c r="DC3" s="75"/>
+      <c r="DD3" s="75"/>
+      <c r="DE3" s="75"/>
+      <c r="DF3" s="75"/>
+      <c r="DG3" s="75"/>
+      <c r="DH3" s="75"/>
+      <c r="DI3" s="75"/>
+      <c r="DJ3" s="75"/>
+      <c r="DK3" s="75"/>
+      <c r="DL3" s="75"/>
+      <c r="DM3" s="75"/>
+      <c r="DN3" s="75"/>
+      <c r="DO3" s="75"/>
+      <c r="DP3" s="75"/>
     </row>
     <row r="4" spans="1:120" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -1748,65 +1738,65 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AD4" s="104" t="s">
+      <c r="AD4" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="73"/>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="73"/>
-      <c r="BG4" s="73"/>
-      <c r="BH4" s="73"/>
-      <c r="BI4" s="73"/>
-      <c r="BJ4" s="73"/>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="85" t="s">
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="120"/>
+      <c r="AH4" s="120"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="77"/>
+      <c r="AL4" s="77"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="77"/>
+      <c r="AQ4" s="77"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="77"/>
+      <c r="AV4" s="77"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="77"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="BM4" s="85"/>
-      <c r="BN4" s="85"/>
-      <c r="BO4" s="85"/>
-      <c r="BP4" s="85"/>
-      <c r="BQ4" s="86"/>
-      <c r="BR4" s="83" t="s">
+      <c r="BM4" s="86"/>
+      <c r="BN4" s="86"/>
+      <c r="BO4" s="86"/>
+      <c r="BP4" s="86"/>
+      <c r="BQ4" s="87"/>
+      <c r="BR4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="BS4" s="83"/>
-      <c r="BT4" s="83"/>
-      <c r="BU4" s="83" t="s">
+      <c r="BS4" s="88"/>
+      <c r="BT4" s="88"/>
+      <c r="BU4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="BV4" s="83"/>
-      <c r="BW4" s="83"/>
-      <c r="BX4" s="83" t="s">
+      <c r="BV4" s="88"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="BY4" s="83"/>
-      <c r="BZ4" s="83"/>
+      <c r="BY4" s="88"/>
+      <c r="BZ4" s="88"/>
       <c r="CA4" s="16"/>
       <c r="CB4" s="17"/>
       <c r="CC4" s="17"/>
@@ -1817,38 +1807,38 @@
       <c r="CH4" s="18"/>
       <c r="CI4" s="18"/>
       <c r="CJ4" s="18"/>
-      <c r="CK4" s="124"/>
-      <c r="CL4" s="124"/>
-      <c r="CM4" s="124"/>
-      <c r="CN4" s="124"/>
-      <c r="CO4" s="124"/>
-      <c r="CP4" s="124"/>
-      <c r="CQ4" s="124"/>
-      <c r="CR4" s="124"/>
-      <c r="CS4" s="124"/>
-      <c r="CT4" s="124"/>
-      <c r="CU4" s="124"/>
-      <c r="CV4" s="124"/>
-      <c r="CW4" s="124"/>
-      <c r="CX4" s="124"/>
-      <c r="CY4" s="124"/>
-      <c r="CZ4" s="124"/>
-      <c r="DA4" s="124"/>
-      <c r="DB4" s="124"/>
-      <c r="DC4" s="124"/>
-      <c r="DD4" s="124"/>
-      <c r="DE4" s="124"/>
-      <c r="DF4" s="124"/>
-      <c r="DG4" s="124"/>
-      <c r="DH4" s="124"/>
-      <c r="DI4" s="124"/>
-      <c r="DJ4" s="124"/>
-      <c r="DK4" s="124"/>
-      <c r="DL4" s="124"/>
-      <c r="DM4" s="124"/>
-      <c r="DN4" s="124"/>
-      <c r="DO4" s="124"/>
-      <c r="DP4" s="124"/>
+      <c r="CK4" s="75"/>
+      <c r="CL4" s="75"/>
+      <c r="CM4" s="75"/>
+      <c r="CN4" s="75"/>
+      <c r="CO4" s="75"/>
+      <c r="CP4" s="75"/>
+      <c r="CQ4" s="75"/>
+      <c r="CR4" s="75"/>
+      <c r="CS4" s="75"/>
+      <c r="CT4" s="75"/>
+      <c r="CU4" s="75"/>
+      <c r="CV4" s="75"/>
+      <c r="CW4" s="75"/>
+      <c r="CX4" s="75"/>
+      <c r="CY4" s="75"/>
+      <c r="CZ4" s="75"/>
+      <c r="DA4" s="75"/>
+      <c r="DB4" s="75"/>
+      <c r="DC4" s="75"/>
+      <c r="DD4" s="75"/>
+      <c r="DE4" s="75"/>
+      <c r="DF4" s="75"/>
+      <c r="DG4" s="75"/>
+      <c r="DH4" s="75"/>
+      <c r="DI4" s="75"/>
+      <c r="DJ4" s="75"/>
+      <c r="DK4" s="75"/>
+      <c r="DL4" s="75"/>
+      <c r="DM4" s="75"/>
+      <c r="DN4" s="75"/>
+      <c r="DO4" s="75"/>
+      <c r="DP4" s="75"/>
     </row>
     <row r="5" spans="1:120" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -2125,537 +2115,537 @@
       <c r="DP8" s="10"/>
     </row>
     <row r="9" spans="1:120" s="22" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="84"/>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="84"/>
-      <c r="BD9" s="84"/>
-      <c r="BE9" s="84"/>
-      <c r="BF9" s="84"/>
-      <c r="BG9" s="84"/>
-      <c r="BH9" s="84"/>
-      <c r="BI9" s="84"/>
-      <c r="BJ9" s="84"/>
-      <c r="BK9" s="84"/>
-      <c r="BL9" s="84"/>
-      <c r="BM9" s="84"/>
-      <c r="BN9" s="84"/>
-      <c r="BO9" s="84"/>
-      <c r="BP9" s="84"/>
-      <c r="BQ9" s="84"/>
-      <c r="BR9" s="84"/>
-      <c r="BS9" s="84"/>
-      <c r="BT9" s="84"/>
-      <c r="BU9" s="84"/>
-      <c r="BV9" s="84"/>
-      <c r="BW9" s="84"/>
-      <c r="BX9" s="84"/>
-      <c r="BY9" s="84"/>
-      <c r="BZ9" s="84"/>
-      <c r="CA9" s="84"/>
-      <c r="CB9" s="84"/>
-      <c r="CC9" s="84"/>
-      <c r="CD9" s="84"/>
-      <c r="CE9" s="84"/>
-      <c r="CF9" s="84"/>
-      <c r="CG9" s="84"/>
-      <c r="CH9" s="84"/>
-      <c r="CI9" s="84"/>
-      <c r="CJ9" s="84"/>
-      <c r="CK9" s="84"/>
-      <c r="CL9" s="84"/>
-      <c r="CM9" s="84"/>
-      <c r="CN9" s="84"/>
-      <c r="CO9" s="84"/>
-      <c r="CP9" s="84"/>
-      <c r="CQ9" s="84"/>
-      <c r="CR9" s="84"/>
-      <c r="CS9" s="84"/>
-      <c r="CT9" s="84"/>
-      <c r="CU9" s="84"/>
-      <c r="CV9" s="84"/>
-      <c r="CW9" s="84"/>
-      <c r="CX9" s="84"/>
-      <c r="CY9" s="84"/>
-      <c r="CZ9" s="84"/>
-      <c r="DA9" s="84"/>
-      <c r="DB9" s="84"/>
-      <c r="DC9" s="84"/>
-      <c r="DD9" s="84"/>
-      <c r="DE9" s="84"/>
-      <c r="DF9" s="84"/>
-      <c r="DG9" s="84"/>
-      <c r="DH9" s="84"/>
-      <c r="DI9" s="84"/>
-      <c r="DJ9" s="84"/>
-      <c r="DK9" s="84"/>
-      <c r="DL9" s="84"/>
-      <c r="DM9" s="84"/>
-      <c r="DN9" s="84"/>
-      <c r="DO9" s="84"/>
-      <c r="DP9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="85"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="85"/>
+      <c r="AQ9" s="85"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="85"/>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="85"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="85"/>
+      <c r="BB9" s="85"/>
+      <c r="BC9" s="85"/>
+      <c r="BD9" s="85"/>
+      <c r="BE9" s="85"/>
+      <c r="BF9" s="85"/>
+      <c r="BG9" s="85"/>
+      <c r="BH9" s="85"/>
+      <c r="BI9" s="85"/>
+      <c r="BJ9" s="85"/>
+      <c r="BK9" s="85"/>
+      <c r="BL9" s="85"/>
+      <c r="BM9" s="85"/>
+      <c r="BN9" s="85"/>
+      <c r="BO9" s="85"/>
+      <c r="BP9" s="85"/>
+      <c r="BQ9" s="85"/>
+      <c r="BR9" s="85"/>
+      <c r="BS9" s="85"/>
+      <c r="BT9" s="85"/>
+      <c r="BU9" s="85"/>
+      <c r="BV9" s="85"/>
+      <c r="BW9" s="85"/>
+      <c r="BX9" s="85"/>
+      <c r="BY9" s="85"/>
+      <c r="BZ9" s="85"/>
+      <c r="CA9" s="85"/>
+      <c r="CB9" s="85"/>
+      <c r="CC9" s="85"/>
+      <c r="CD9" s="85"/>
+      <c r="CE9" s="85"/>
+      <c r="CF9" s="85"/>
+      <c r="CG9" s="85"/>
+      <c r="CH9" s="85"/>
+      <c r="CI9" s="85"/>
+      <c r="CJ9" s="85"/>
+      <c r="CK9" s="85"/>
+      <c r="CL9" s="85"/>
+      <c r="CM9" s="85"/>
+      <c r="CN9" s="85"/>
+      <c r="CO9" s="85"/>
+      <c r="CP9" s="85"/>
+      <c r="CQ9" s="85"/>
+      <c r="CR9" s="85"/>
+      <c r="CS9" s="85"/>
+      <c r="CT9" s="85"/>
+      <c r="CU9" s="85"/>
+      <c r="CV9" s="85"/>
+      <c r="CW9" s="85"/>
+      <c r="CX9" s="85"/>
+      <c r="CY9" s="85"/>
+      <c r="CZ9" s="85"/>
+      <c r="DA9" s="85"/>
+      <c r="DB9" s="85"/>
+      <c r="DC9" s="85"/>
+      <c r="DD9" s="85"/>
+      <c r="DE9" s="85"/>
+      <c r="DF9" s="85"/>
+      <c r="DG9" s="85"/>
+      <c r="DH9" s="85"/>
+      <c r="DI9" s="85"/>
+      <c r="DJ9" s="85"/>
+      <c r="DK9" s="85"/>
+      <c r="DL9" s="85"/>
+      <c r="DM9" s="85"/>
+      <c r="DN9" s="85"/>
+      <c r="DO9" s="85"/>
+      <c r="DP9" s="85"/>
     </row>
     <row r="10" spans="1:120" s="22" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="84"/>
-      <c r="BD10" s="84"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="84"/>
-      <c r="BG10" s="84"/>
-      <c r="BH10" s="84"/>
-      <c r="BI10" s="84"/>
-      <c r="BJ10" s="84"/>
-      <c r="BK10" s="84"/>
-      <c r="BL10" s="84"/>
-      <c r="BM10" s="84"/>
-      <c r="BN10" s="84"/>
-      <c r="BO10" s="84"/>
-      <c r="BP10" s="84"/>
-      <c r="BQ10" s="84"/>
-      <c r="BR10" s="84"/>
-      <c r="BS10" s="84"/>
-      <c r="BT10" s="84"/>
-      <c r="BU10" s="84"/>
-      <c r="BV10" s="84"/>
-      <c r="BW10" s="84"/>
-      <c r="BX10" s="84"/>
-      <c r="BY10" s="84"/>
-      <c r="BZ10" s="84"/>
-      <c r="CA10" s="84"/>
-      <c r="CB10" s="84"/>
-      <c r="CC10" s="84"/>
-      <c r="CD10" s="84"/>
-      <c r="CE10" s="84"/>
-      <c r="CF10" s="84"/>
-      <c r="CG10" s="84"/>
-      <c r="CH10" s="84"/>
-      <c r="CI10" s="84"/>
-      <c r="CJ10" s="84"/>
-      <c r="CK10" s="84"/>
-      <c r="CL10" s="84"/>
-      <c r="CM10" s="84"/>
-      <c r="CN10" s="84"/>
-      <c r="CO10" s="84"/>
-      <c r="CP10" s="84"/>
-      <c r="CQ10" s="84"/>
-      <c r="CR10" s="84"/>
-      <c r="CS10" s="84"/>
-      <c r="CT10" s="84"/>
-      <c r="CU10" s="84"/>
-      <c r="CV10" s="84"/>
-      <c r="CW10" s="84"/>
-      <c r="CX10" s="84"/>
-      <c r="CY10" s="84"/>
-      <c r="CZ10" s="84"/>
-      <c r="DA10" s="84"/>
-      <c r="DB10" s="84"/>
-      <c r="DC10" s="84"/>
-      <c r="DD10" s="84"/>
-      <c r="DE10" s="84"/>
-      <c r="DF10" s="84"/>
-      <c r="DG10" s="84"/>
-      <c r="DH10" s="84"/>
-      <c r="DI10" s="84"/>
-      <c r="DJ10" s="84"/>
-      <c r="DK10" s="84"/>
-      <c r="DL10" s="84"/>
-      <c r="DM10" s="84"/>
-      <c r="DN10" s="84"/>
-      <c r="DO10" s="84"/>
-      <c r="DP10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="85"/>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="85"/>
+      <c r="AN10" s="85"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="85"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="85"/>
+      <c r="AT10" s="85"/>
+      <c r="AU10" s="85"/>
+      <c r="AV10" s="85"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="85"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="85"/>
+      <c r="BB10" s="85"/>
+      <c r="BC10" s="85"/>
+      <c r="BD10" s="85"/>
+      <c r="BE10" s="85"/>
+      <c r="BF10" s="85"/>
+      <c r="BG10" s="85"/>
+      <c r="BH10" s="85"/>
+      <c r="BI10" s="85"/>
+      <c r="BJ10" s="85"/>
+      <c r="BK10" s="85"/>
+      <c r="BL10" s="85"/>
+      <c r="BM10" s="85"/>
+      <c r="BN10" s="85"/>
+      <c r="BO10" s="85"/>
+      <c r="BP10" s="85"/>
+      <c r="BQ10" s="85"/>
+      <c r="BR10" s="85"/>
+      <c r="BS10" s="85"/>
+      <c r="BT10" s="85"/>
+      <c r="BU10" s="85"/>
+      <c r="BV10" s="85"/>
+      <c r="BW10" s="85"/>
+      <c r="BX10" s="85"/>
+      <c r="BY10" s="85"/>
+      <c r="BZ10" s="85"/>
+      <c r="CA10" s="85"/>
+      <c r="CB10" s="85"/>
+      <c r="CC10" s="85"/>
+      <c r="CD10" s="85"/>
+      <c r="CE10" s="85"/>
+      <c r="CF10" s="85"/>
+      <c r="CG10" s="85"/>
+      <c r="CH10" s="85"/>
+      <c r="CI10" s="85"/>
+      <c r="CJ10" s="85"/>
+      <c r="CK10" s="85"/>
+      <c r="CL10" s="85"/>
+      <c r="CM10" s="85"/>
+      <c r="CN10" s="85"/>
+      <c r="CO10" s="85"/>
+      <c r="CP10" s="85"/>
+      <c r="CQ10" s="85"/>
+      <c r="CR10" s="85"/>
+      <c r="CS10" s="85"/>
+      <c r="CT10" s="85"/>
+      <c r="CU10" s="85"/>
+      <c r="CV10" s="85"/>
+      <c r="CW10" s="85"/>
+      <c r="CX10" s="85"/>
+      <c r="CY10" s="85"/>
+      <c r="CZ10" s="85"/>
+      <c r="DA10" s="85"/>
+      <c r="DB10" s="85"/>
+      <c r="DC10" s="85"/>
+      <c r="DD10" s="85"/>
+      <c r="DE10" s="85"/>
+      <c r="DF10" s="85"/>
+      <c r="DG10" s="85"/>
+      <c r="DH10" s="85"/>
+      <c r="DI10" s="85"/>
+      <c r="DJ10" s="85"/>
+      <c r="DK10" s="85"/>
+      <c r="DL10" s="85"/>
+      <c r="DM10" s="85"/>
+      <c r="DN10" s="85"/>
+      <c r="DO10" s="85"/>
+      <c r="DP10" s="85"/>
     </row>
     <row r="11" spans="1:120" s="22" customFormat="1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="84"/>
-      <c r="AX11" s="84"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="84"/>
-      <c r="BD11" s="84"/>
-      <c r="BE11" s="84"/>
-      <c r="BF11" s="84"/>
-      <c r="BG11" s="84"/>
-      <c r="BH11" s="84"/>
-      <c r="BI11" s="84"/>
-      <c r="BJ11" s="84"/>
-      <c r="BK11" s="84"/>
-      <c r="BL11" s="84"/>
-      <c r="BM11" s="84"/>
-      <c r="BN11" s="84"/>
-      <c r="BO11" s="84"/>
-      <c r="BP11" s="84"/>
-      <c r="BQ11" s="84"/>
-      <c r="BR11" s="84"/>
-      <c r="BS11" s="84"/>
-      <c r="BT11" s="84"/>
-      <c r="BU11" s="84"/>
-      <c r="BV11" s="84"/>
-      <c r="BW11" s="84"/>
-      <c r="BX11" s="84"/>
-      <c r="BY11" s="84"/>
-      <c r="BZ11" s="84"/>
-      <c r="CA11" s="84"/>
-      <c r="CB11" s="84"/>
-      <c r="CC11" s="84"/>
-      <c r="CD11" s="84"/>
-      <c r="CE11" s="84"/>
-      <c r="CF11" s="84"/>
-      <c r="CG11" s="84"/>
-      <c r="CH11" s="84"/>
-      <c r="CI11" s="84"/>
-      <c r="CJ11" s="84"/>
-      <c r="CK11" s="84"/>
-      <c r="CL11" s="84"/>
-      <c r="CM11" s="84"/>
-      <c r="CN11" s="84"/>
-      <c r="CO11" s="84"/>
-      <c r="CP11" s="84"/>
-      <c r="CQ11" s="84"/>
-      <c r="CR11" s="84"/>
-      <c r="CS11" s="84"/>
-      <c r="CT11" s="84"/>
-      <c r="CU11" s="84"/>
-      <c r="CV11" s="84"/>
-      <c r="CW11" s="84"/>
-      <c r="CX11" s="84"/>
-      <c r="CY11" s="84"/>
-      <c r="CZ11" s="84"/>
-      <c r="DA11" s="84"/>
-      <c r="DB11" s="84"/>
-      <c r="DC11" s="84"/>
-      <c r="DD11" s="84"/>
-      <c r="DE11" s="84"/>
-      <c r="DF11" s="84"/>
-      <c r="DG11" s="84"/>
-      <c r="DH11" s="84"/>
-      <c r="DI11" s="84"/>
-      <c r="DJ11" s="84"/>
-      <c r="DK11" s="84"/>
-      <c r="DL11" s="84"/>
-      <c r="DM11" s="84"/>
-      <c r="DN11" s="84"/>
-      <c r="DO11" s="84"/>
-      <c r="DP11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="85"/>
+      <c r="AE11" s="85"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="85"/>
+      <c r="AH11" s="85"/>
+      <c r="AI11" s="85"/>
+      <c r="AJ11" s="85"/>
+      <c r="AK11" s="85"/>
+      <c r="AL11" s="85"/>
+      <c r="AM11" s="85"/>
+      <c r="AN11" s="85"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="85"/>
+      <c r="AR11" s="85"/>
+      <c r="AS11" s="85"/>
+      <c r="AT11" s="85"/>
+      <c r="AU11" s="85"/>
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="85"/>
+      <c r="BD11" s="85"/>
+      <c r="BE11" s="85"/>
+      <c r="BF11" s="85"/>
+      <c r="BG11" s="85"/>
+      <c r="BH11" s="85"/>
+      <c r="BI11" s="85"/>
+      <c r="BJ11" s="85"/>
+      <c r="BK11" s="85"/>
+      <c r="BL11" s="85"/>
+      <c r="BM11" s="85"/>
+      <c r="BN11" s="85"/>
+      <c r="BO11" s="85"/>
+      <c r="BP11" s="85"/>
+      <c r="BQ11" s="85"/>
+      <c r="BR11" s="85"/>
+      <c r="BS11" s="85"/>
+      <c r="BT11" s="85"/>
+      <c r="BU11" s="85"/>
+      <c r="BV11" s="85"/>
+      <c r="BW11" s="85"/>
+      <c r="BX11" s="85"/>
+      <c r="BY11" s="85"/>
+      <c r="BZ11" s="85"/>
+      <c r="CA11" s="85"/>
+      <c r="CB11" s="85"/>
+      <c r="CC11" s="85"/>
+      <c r="CD11" s="85"/>
+      <c r="CE11" s="85"/>
+      <c r="CF11" s="85"/>
+      <c r="CG11" s="85"/>
+      <c r="CH11" s="85"/>
+      <c r="CI11" s="85"/>
+      <c r="CJ11" s="85"/>
+      <c r="CK11" s="85"/>
+      <c r="CL11" s="85"/>
+      <c r="CM11" s="85"/>
+      <c r="CN11" s="85"/>
+      <c r="CO11" s="85"/>
+      <c r="CP11" s="85"/>
+      <c r="CQ11" s="85"/>
+      <c r="CR11" s="85"/>
+      <c r="CS11" s="85"/>
+      <c r="CT11" s="85"/>
+      <c r="CU11" s="85"/>
+      <c r="CV11" s="85"/>
+      <c r="CW11" s="85"/>
+      <c r="CX11" s="85"/>
+      <c r="CY11" s="85"/>
+      <c r="CZ11" s="85"/>
+      <c r="DA11" s="85"/>
+      <c r="DB11" s="85"/>
+      <c r="DC11" s="85"/>
+      <c r="DD11" s="85"/>
+      <c r="DE11" s="85"/>
+      <c r="DF11" s="85"/>
+      <c r="DG11" s="85"/>
+      <c r="DH11" s="85"/>
+      <c r="DI11" s="85"/>
+      <c r="DJ11" s="85"/>
+      <c r="DK11" s="85"/>
+      <c r="DL11" s="85"/>
+      <c r="DM11" s="85"/>
+      <c r="DN11" s="85"/>
+      <c r="DO11" s="85"/>
+      <c r="DP11" s="85"/>
     </row>
     <row r="12" spans="1:120" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="CU12" s="110" t="s">
+      <c r="CU12" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="CV12" s="110"/>
-      <c r="CW12" s="110"/>
-      <c r="CX12" s="110"/>
-      <c r="CY12" s="110"/>
-      <c r="CZ12" s="110"/>
-      <c r="DA12" s="110"/>
-      <c r="DB12" s="110"/>
-      <c r="DC12" s="110"/>
-      <c r="DD12" s="110"/>
-      <c r="DE12" s="110"/>
-      <c r="DF12" s="110"/>
-      <c r="DG12" s="110"/>
-      <c r="DH12" s="110"/>
-      <c r="DI12" s="110"/>
-      <c r="DJ12" s="110"/>
-      <c r="DK12" s="110"/>
-      <c r="DL12" s="110"/>
-      <c r="DM12" s="110"/>
-      <c r="DN12" s="110"/>
-      <c r="DO12" s="110"/>
-      <c r="DP12" s="110"/>
+      <c r="CV12" s="78"/>
+      <c r="CW12" s="78"/>
+      <c r="CX12" s="78"/>
+      <c r="CY12" s="78"/>
+      <c r="CZ12" s="78"/>
+      <c r="DA12" s="78"/>
+      <c r="DB12" s="78"/>
+      <c r="DC12" s="78"/>
+      <c r="DD12" s="78"/>
+      <c r="DE12" s="78"/>
+      <c r="DF12" s="78"/>
+      <c r="DG12" s="78"/>
+      <c r="DH12" s="78"/>
+      <c r="DI12" s="78"/>
+      <c r="DJ12" s="78"/>
+      <c r="DK12" s="78"/>
+      <c r="DL12" s="78"/>
+      <c r="DM12" s="78"/>
+      <c r="DN12" s="78"/>
+      <c r="DO12" s="78"/>
+      <c r="DP12" s="78"/>
     </row>
     <row r="13" spans="1:120" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="122" t="s">
+      <c r="B13" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="122"/>
-      <c r="AI13" s="120" t="s">
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AJ13" s="120"/>
-      <c r="AK13" s="120"/>
-      <c r="AL13" s="120"/>
-      <c r="AM13" s="120"/>
-      <c r="AN13" s="121"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="73"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="73"/>
-      <c r="AZ13" s="73"/>
-      <c r="BS13" s="122" t="s">
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="74"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="89"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="77"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="77"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="77"/>
+      <c r="AZ13" s="77"/>
+      <c r="BS13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="BT13" s="122"/>
-      <c r="BU13" s="122"/>
-      <c r="BV13" s="122"/>
-      <c r="BW13" s="122"/>
-      <c r="BX13" s="122"/>
-      <c r="BY13" s="122"/>
-      <c r="BZ13" s="122"/>
-      <c r="CA13" s="122"/>
-      <c r="CB13" s="122"/>
-      <c r="CC13" s="122"/>
-      <c r="CD13" s="122"/>
-      <c r="CE13" s="122"/>
-      <c r="CF13" s="122"/>
-      <c r="CG13" s="122"/>
-      <c r="CH13" s="122"/>
-      <c r="CI13" s="122"/>
-      <c r="CJ13" s="122"/>
-      <c r="CK13" s="120" t="s">
+      <c r="BT13" s="73"/>
+      <c r="BU13" s="73"/>
+      <c r="BV13" s="73"/>
+      <c r="BW13" s="73"/>
+      <c r="BX13" s="73"/>
+      <c r="BY13" s="73"/>
+      <c r="BZ13" s="73"/>
+      <c r="CA13" s="73"/>
+      <c r="CB13" s="73"/>
+      <c r="CC13" s="73"/>
+      <c r="CD13" s="73"/>
+      <c r="CE13" s="73"/>
+      <c r="CF13" s="73"/>
+      <c r="CG13" s="73"/>
+      <c r="CH13" s="73"/>
+      <c r="CI13" s="73"/>
+      <c r="CJ13" s="73"/>
+      <c r="CK13" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="CL13" s="120"/>
-      <c r="CM13" s="120"/>
-      <c r="CN13" s="120"/>
-      <c r="CO13" s="120"/>
+      <c r="CL13" s="74"/>
+      <c r="CM13" s="74"/>
+      <c r="CN13" s="74"/>
+      <c r="CO13" s="74"/>
       <c r="CP13" s="72"/>
-      <c r="CQ13" s="73"/>
-      <c r="CR13" s="73"/>
-      <c r="CS13" s="73"/>
-      <c r="CU13" s="110"/>
-      <c r="CV13" s="110"/>
-      <c r="CW13" s="110"/>
-      <c r="CX13" s="110"/>
-      <c r="CY13" s="110"/>
-      <c r="CZ13" s="110"/>
-      <c r="DA13" s="110"/>
-      <c r="DB13" s="110"/>
-      <c r="DC13" s="110"/>
-      <c r="DD13" s="110"/>
-      <c r="DE13" s="110"/>
-      <c r="DF13" s="110"/>
-      <c r="DG13" s="110"/>
-      <c r="DH13" s="110"/>
-      <c r="DI13" s="110"/>
-      <c r="DJ13" s="110"/>
-      <c r="DK13" s="110"/>
-      <c r="DL13" s="110"/>
-      <c r="DM13" s="110"/>
-      <c r="DN13" s="110"/>
-      <c r="DO13" s="110"/>
-      <c r="DP13" s="110"/>
+      <c r="CQ13" s="77"/>
+      <c r="CR13" s="77"/>
+      <c r="CS13" s="77"/>
+      <c r="CU13" s="78"/>
+      <c r="CV13" s="78"/>
+      <c r="CW13" s="78"/>
+      <c r="CX13" s="78"/>
+      <c r="CY13" s="78"/>
+      <c r="CZ13" s="78"/>
+      <c r="DA13" s="78"/>
+      <c r="DB13" s="78"/>
+      <c r="DC13" s="78"/>
+      <c r="DD13" s="78"/>
+      <c r="DE13" s="78"/>
+      <c r="DF13" s="78"/>
+      <c r="DG13" s="78"/>
+      <c r="DH13" s="78"/>
+      <c r="DI13" s="78"/>
+      <c r="DJ13" s="78"/>
+      <c r="DK13" s="78"/>
+      <c r="DL13" s="78"/>
+      <c r="DM13" s="78"/>
+      <c r="DN13" s="78"/>
+      <c r="DO13" s="78"/>
+      <c r="DP13" s="78"/>
     </row>
     <row r="14" spans="1:120" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CP14" s="32"/>
-      <c r="CU14" s="110"/>
-      <c r="CV14" s="110"/>
-      <c r="CW14" s="110"/>
-      <c r="CX14" s="110"/>
-      <c r="CY14" s="110"/>
-      <c r="CZ14" s="110"/>
-      <c r="DA14" s="110"/>
-      <c r="DB14" s="110"/>
-      <c r="DC14" s="110"/>
-      <c r="DD14" s="110"/>
-      <c r="DE14" s="110"/>
-      <c r="DF14" s="110"/>
-      <c r="DG14" s="110"/>
-      <c r="DH14" s="110"/>
-      <c r="DI14" s="110"/>
-      <c r="DJ14" s="110"/>
-      <c r="DK14" s="110"/>
-      <c r="DL14" s="110"/>
-      <c r="DM14" s="110"/>
-      <c r="DN14" s="110"/>
-      <c r="DO14" s="110"/>
-      <c r="DP14" s="110"/>
+      <c r="CU14" s="78"/>
+      <c r="CV14" s="78"/>
+      <c r="CW14" s="78"/>
+      <c r="CX14" s="78"/>
+      <c r="CY14" s="78"/>
+      <c r="CZ14" s="78"/>
+      <c r="DA14" s="78"/>
+      <c r="DB14" s="78"/>
+      <c r="DC14" s="78"/>
+      <c r="DD14" s="78"/>
+      <c r="DE14" s="78"/>
+      <c r="DF14" s="78"/>
+      <c r="DG14" s="78"/>
+      <c r="DH14" s="78"/>
+      <c r="DI14" s="78"/>
+      <c r="DJ14" s="78"/>
+      <c r="DK14" s="78"/>
+      <c r="DL14" s="78"/>
+      <c r="DM14" s="78"/>
+      <c r="DN14" s="78"/>
+      <c r="DO14" s="78"/>
+      <c r="DP14" s="78"/>
     </row>
     <row r="15" spans="1:120" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
@@ -2783,126 +2773,126 @@
       <c r="CP16" s="33"/>
     </row>
     <row r="17" spans="1:120" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-      <c r="BC17" s="73"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="73"/>
-      <c r="BF17" s="73"/>
-      <c r="BG17" s="73"/>
-      <c r="BH17" s="73"/>
-      <c r="BI17" s="73"/>
-      <c r="BJ17" s="73"/>
-      <c r="BK17" s="73"/>
-      <c r="BL17" s="73"/>
-      <c r="BM17" s="73"/>
-      <c r="BN17" s="73"/>
-      <c r="BO17" s="73"/>
-      <c r="BP17" s="73"/>
-      <c r="BQ17" s="73"/>
-      <c r="BR17" s="73"/>
-      <c r="BS17" s="73"/>
-      <c r="BT17" s="73"/>
-      <c r="BU17" s="73"/>
-      <c r="BV17" s="73"/>
-      <c r="BW17" s="73"/>
-      <c r="BX17" s="73"/>
-      <c r="BY17" s="73"/>
-      <c r="BZ17" s="73"/>
-      <c r="CA17" s="73"/>
-      <c r="CB17" s="73"/>
-      <c r="CC17" s="73"/>
-      <c r="CD17" s="73"/>
-      <c r="CE17" s="73"/>
-      <c r="CF17" s="73"/>
-      <c r="CG17" s="73"/>
-      <c r="CH17" s="73"/>
-      <c r="CI17" s="73"/>
-      <c r="CJ17" s="73"/>
-      <c r="CK17" s="73"/>
-      <c r="CL17" s="73"/>
-      <c r="CM17" s="73"/>
-      <c r="CN17" s="73"/>
-      <c r="CO17" s="73"/>
-      <c r="CP17" s="73"/>
-      <c r="CQ17" s="73"/>
-      <c r="CR17" s="73"/>
-      <c r="CS17" s="73"/>
-      <c r="CT17" s="73"/>
-      <c r="CU17" s="73"/>
-      <c r="CV17" s="73"/>
-      <c r="CW17" s="73"/>
-      <c r="CX17" s="73"/>
-      <c r="CY17" s="73"/>
-      <c r="CZ17" s="73"/>
-      <c r="DA17" s="73"/>
-      <c r="DB17" s="73"/>
-      <c r="DC17" s="73"/>
-      <c r="DD17" s="73"/>
-      <c r="DE17" s="73"/>
-      <c r="DF17" s="73"/>
-      <c r="DG17" s="73"/>
-      <c r="DH17" s="73"/>
-      <c r="DI17" s="73"/>
-      <c r="DJ17" s="73"/>
-      <c r="DK17" s="73"/>
-      <c r="DL17" s="73"/>
-      <c r="DM17" s="73"/>
-      <c r="DN17" s="73"/>
-      <c r="DO17" s="73"/>
-      <c r="DP17" s="73"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="77"/>
+      <c r="AK17" s="77"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="77"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="77"/>
+      <c r="AT17" s="77"/>
+      <c r="AU17" s="77"/>
+      <c r="AV17" s="77"/>
+      <c r="AW17" s="77"/>
+      <c r="AX17" s="77"/>
+      <c r="AY17" s="77"/>
+      <c r="AZ17" s="77"/>
+      <c r="BA17" s="77"/>
+      <c r="BB17" s="77"/>
+      <c r="BC17" s="77"/>
+      <c r="BD17" s="77"/>
+      <c r="BE17" s="77"/>
+      <c r="BF17" s="77"/>
+      <c r="BG17" s="77"/>
+      <c r="BH17" s="77"/>
+      <c r="BI17" s="77"/>
+      <c r="BJ17" s="77"/>
+      <c r="BK17" s="77"/>
+      <c r="BL17" s="77"/>
+      <c r="BM17" s="77"/>
+      <c r="BN17" s="77"/>
+      <c r="BO17" s="77"/>
+      <c r="BP17" s="77"/>
+      <c r="BQ17" s="77"/>
+      <c r="BR17" s="77"/>
+      <c r="BS17" s="77"/>
+      <c r="BT17" s="77"/>
+      <c r="BU17" s="77"/>
+      <c r="BV17" s="77"/>
+      <c r="BW17" s="77"/>
+      <c r="BX17" s="77"/>
+      <c r="BY17" s="77"/>
+      <c r="BZ17" s="77"/>
+      <c r="CA17" s="77"/>
+      <c r="CB17" s="77"/>
+      <c r="CC17" s="77"/>
+      <c r="CD17" s="77"/>
+      <c r="CE17" s="77"/>
+      <c r="CF17" s="77"/>
+      <c r="CG17" s="77"/>
+      <c r="CH17" s="77"/>
+      <c r="CI17" s="77"/>
+      <c r="CJ17" s="77"/>
+      <c r="CK17" s="77"/>
+      <c r="CL17" s="77"/>
+      <c r="CM17" s="77"/>
+      <c r="CN17" s="77"/>
+      <c r="CO17" s="77"/>
+      <c r="CP17" s="77"/>
+      <c r="CQ17" s="77"/>
+      <c r="CR17" s="77"/>
+      <c r="CS17" s="77"/>
+      <c r="CT17" s="77"/>
+      <c r="CU17" s="77"/>
+      <c r="CV17" s="77"/>
+      <c r="CW17" s="77"/>
+      <c r="CX17" s="77"/>
+      <c r="CY17" s="77"/>
+      <c r="CZ17" s="77"/>
+      <c r="DA17" s="77"/>
+      <c r="DB17" s="77"/>
+      <c r="DC17" s="77"/>
+      <c r="DD17" s="77"/>
+      <c r="DE17" s="77"/>
+      <c r="DF17" s="77"/>
+      <c r="DG17" s="77"/>
+      <c r="DH17" s="77"/>
+      <c r="DI17" s="77"/>
+      <c r="DJ17" s="77"/>
+      <c r="DK17" s="77"/>
+      <c r="DL17" s="77"/>
+      <c r="DM17" s="77"/>
+      <c r="DN17" s="77"/>
+      <c r="DO17" s="77"/>
+      <c r="DP17" s="77"/>
     </row>
     <row r="18" spans="1:120" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -3027,126 +3017,126 @@
       <c r="DP18" s="13"/>
     </row>
     <row r="19" spans="1:120" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="73"/>
-      <c r="AC19" s="73"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
-      <c r="BC19" s="73"/>
-      <c r="BD19" s="73"/>
-      <c r="BE19" s="73"/>
-      <c r="BF19" s="73"/>
-      <c r="BG19" s="73"/>
-      <c r="BH19" s="73"/>
-      <c r="BI19" s="73"/>
-      <c r="BJ19" s="73"/>
-      <c r="BK19" s="73"/>
-      <c r="BL19" s="73"/>
-      <c r="BM19" s="73"/>
-      <c r="BN19" s="73"/>
-      <c r="BO19" s="73"/>
-      <c r="BP19" s="73"/>
-      <c r="BQ19" s="73"/>
-      <c r="BR19" s="73"/>
-      <c r="BS19" s="73"/>
-      <c r="BT19" s="73"/>
-      <c r="BU19" s="73"/>
-      <c r="BV19" s="73"/>
-      <c r="BW19" s="73"/>
-      <c r="BX19" s="73"/>
-      <c r="BY19" s="73"/>
-      <c r="BZ19" s="73"/>
-      <c r="CA19" s="73"/>
-      <c r="CB19" s="73"/>
-      <c r="CC19" s="73"/>
-      <c r="CD19" s="73"/>
-      <c r="CE19" s="73"/>
-      <c r="CF19" s="73"/>
-      <c r="CG19" s="73"/>
-      <c r="CH19" s="73"/>
-      <c r="CI19" s="73"/>
-      <c r="CJ19" s="73"/>
-      <c r="CK19" s="73"/>
-      <c r="CL19" s="73"/>
-      <c r="CM19" s="73"/>
-      <c r="CN19" s="73"/>
-      <c r="CO19" s="73"/>
-      <c r="CP19" s="73"/>
-      <c r="CQ19" s="73"/>
-      <c r="CR19" s="73"/>
-      <c r="CS19" s="73"/>
-      <c r="CT19" s="73"/>
-      <c r="CU19" s="73"/>
-      <c r="CV19" s="73"/>
-      <c r="CW19" s="73"/>
-      <c r="CX19" s="73"/>
-      <c r="CY19" s="73"/>
-      <c r="CZ19" s="73"/>
-      <c r="DA19" s="73"/>
-      <c r="DB19" s="73"/>
-      <c r="DC19" s="73"/>
-      <c r="DD19" s="73"/>
-      <c r="DE19" s="73"/>
-      <c r="DF19" s="73"/>
-      <c r="DG19" s="73"/>
-      <c r="DH19" s="73"/>
-      <c r="DI19" s="73"/>
-      <c r="DJ19" s="73"/>
-      <c r="DK19" s="73"/>
-      <c r="DL19" s="73"/>
-      <c r="DM19" s="73"/>
-      <c r="DN19" s="73"/>
-      <c r="DO19" s="73"/>
-      <c r="DP19" s="73"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="77"/>
+      <c r="AL19" s="77"/>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="77"/>
+      <c r="AT19" s="77"/>
+      <c r="AU19" s="77"/>
+      <c r="AV19" s="77"/>
+      <c r="AW19" s="77"/>
+      <c r="AX19" s="77"/>
+      <c r="AY19" s="77"/>
+      <c r="AZ19" s="77"/>
+      <c r="BA19" s="77"/>
+      <c r="BB19" s="77"/>
+      <c r="BC19" s="77"/>
+      <c r="BD19" s="77"/>
+      <c r="BE19" s="77"/>
+      <c r="BF19" s="77"/>
+      <c r="BG19" s="77"/>
+      <c r="BH19" s="77"/>
+      <c r="BI19" s="77"/>
+      <c r="BJ19" s="77"/>
+      <c r="BK19" s="77"/>
+      <c r="BL19" s="77"/>
+      <c r="BM19" s="77"/>
+      <c r="BN19" s="77"/>
+      <c r="BO19" s="77"/>
+      <c r="BP19" s="77"/>
+      <c r="BQ19" s="77"/>
+      <c r="BR19" s="77"/>
+      <c r="BS19" s="77"/>
+      <c r="BT19" s="77"/>
+      <c r="BU19" s="77"/>
+      <c r="BV19" s="77"/>
+      <c r="BW19" s="77"/>
+      <c r="BX19" s="77"/>
+      <c r="BY19" s="77"/>
+      <c r="BZ19" s="77"/>
+      <c r="CA19" s="77"/>
+      <c r="CB19" s="77"/>
+      <c r="CC19" s="77"/>
+      <c r="CD19" s="77"/>
+      <c r="CE19" s="77"/>
+      <c r="CF19" s="77"/>
+      <c r="CG19" s="77"/>
+      <c r="CH19" s="77"/>
+      <c r="CI19" s="77"/>
+      <c r="CJ19" s="77"/>
+      <c r="CK19" s="77"/>
+      <c r="CL19" s="77"/>
+      <c r="CM19" s="77"/>
+      <c r="CN19" s="77"/>
+      <c r="CO19" s="77"/>
+      <c r="CP19" s="77"/>
+      <c r="CQ19" s="77"/>
+      <c r="CR19" s="77"/>
+      <c r="CS19" s="77"/>
+      <c r="CT19" s="77"/>
+      <c r="CU19" s="77"/>
+      <c r="CV19" s="77"/>
+      <c r="CW19" s="77"/>
+      <c r="CX19" s="77"/>
+      <c r="CY19" s="77"/>
+      <c r="CZ19" s="77"/>
+      <c r="DA19" s="77"/>
+      <c r="DB19" s="77"/>
+      <c r="DC19" s="77"/>
+      <c r="DD19" s="77"/>
+      <c r="DE19" s="77"/>
+      <c r="DF19" s="77"/>
+      <c r="DG19" s="77"/>
+      <c r="DH19" s="77"/>
+      <c r="DI19" s="77"/>
+      <c r="DJ19" s="77"/>
+      <c r="DK19" s="77"/>
+      <c r="DL19" s="77"/>
+      <c r="DM19" s="77"/>
+      <c r="DN19" s="77"/>
+      <c r="DO19" s="77"/>
+      <c r="DP19" s="77"/>
     </row>
     <row r="20" spans="1:120" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
@@ -3271,126 +3261,126 @@
       <c r="DP20" s="13"/>
     </row>
     <row r="21" spans="1:120" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="73"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="73"/>
-      <c r="AG21" s="73"/>
-      <c r="AH21" s="73"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="73"/>
-      <c r="AK21" s="73"/>
-      <c r="AL21" s="73"/>
-      <c r="AM21" s="73"/>
-      <c r="AN21" s="73"/>
-      <c r="AO21" s="73"/>
-      <c r="AP21" s="73"/>
-      <c r="AQ21" s="73"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="73"/>
-      <c r="AX21" s="73"/>
-      <c r="AY21" s="73"/>
-      <c r="AZ21" s="73"/>
-      <c r="BA21" s="73"/>
-      <c r="BB21" s="73"/>
-      <c r="BC21" s="73"/>
-      <c r="BD21" s="73"/>
-      <c r="BE21" s="73"/>
-      <c r="BF21" s="73"/>
-      <c r="BG21" s="73"/>
-      <c r="BH21" s="73"/>
-      <c r="BI21" s="73"/>
-      <c r="BJ21" s="73"/>
-      <c r="BK21" s="73"/>
-      <c r="BL21" s="73"/>
-      <c r="BM21" s="73"/>
-      <c r="BN21" s="73"/>
-      <c r="BO21" s="73"/>
-      <c r="BP21" s="73"/>
-      <c r="BQ21" s="73"/>
-      <c r="BR21" s="73"/>
-      <c r="BS21" s="73"/>
-      <c r="BT21" s="73"/>
-      <c r="BU21" s="73"/>
-      <c r="BV21" s="73"/>
-      <c r="BW21" s="73"/>
-      <c r="BX21" s="73"/>
-      <c r="BY21" s="73"/>
-      <c r="BZ21" s="73"/>
-      <c r="CA21" s="73"/>
-      <c r="CB21" s="73"/>
-      <c r="CC21" s="73"/>
-      <c r="CD21" s="73"/>
-      <c r="CE21" s="73"/>
-      <c r="CF21" s="73"/>
-      <c r="CG21" s="73"/>
-      <c r="CH21" s="73"/>
-      <c r="CI21" s="73"/>
-      <c r="CJ21" s="73"/>
-      <c r="CK21" s="73"/>
-      <c r="CL21" s="73"/>
-      <c r="CM21" s="73"/>
-      <c r="CN21" s="73"/>
-      <c r="CO21" s="73"/>
-      <c r="CP21" s="73"/>
-      <c r="CQ21" s="73"/>
-      <c r="CR21" s="73"/>
-      <c r="CS21" s="73"/>
-      <c r="CT21" s="73"/>
-      <c r="CU21" s="73"/>
-      <c r="CV21" s="73"/>
-      <c r="CW21" s="73"/>
-      <c r="CX21" s="73"/>
-      <c r="CY21" s="73"/>
-      <c r="CZ21" s="73"/>
-      <c r="DA21" s="73"/>
-      <c r="DB21" s="73"/>
-      <c r="DC21" s="73"/>
-      <c r="DD21" s="73"/>
-      <c r="DE21" s="73"/>
-      <c r="DF21" s="73"/>
-      <c r="DG21" s="73"/>
-      <c r="DH21" s="73"/>
-      <c r="DI21" s="73"/>
-      <c r="DJ21" s="73"/>
-      <c r="DK21" s="73"/>
-      <c r="DL21" s="73"/>
-      <c r="DM21" s="73"/>
-      <c r="DN21" s="73"/>
-      <c r="DO21" s="73"/>
-      <c r="DP21" s="73"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="77"/>
+      <c r="AK21" s="77"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="77"/>
+      <c r="BA21" s="77"/>
+      <c r="BB21" s="77"/>
+      <c r="BC21" s="77"/>
+      <c r="BD21" s="77"/>
+      <c r="BE21" s="77"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="77"/>
+      <c r="BH21" s="77"/>
+      <c r="BI21" s="77"/>
+      <c r="BJ21" s="77"/>
+      <c r="BK21" s="77"/>
+      <c r="BL21" s="77"/>
+      <c r="BM21" s="77"/>
+      <c r="BN21" s="77"/>
+      <c r="BO21" s="77"/>
+      <c r="BP21" s="77"/>
+      <c r="BQ21" s="77"/>
+      <c r="BR21" s="77"/>
+      <c r="BS21" s="77"/>
+      <c r="BT21" s="77"/>
+      <c r="BU21" s="77"/>
+      <c r="BV21" s="77"/>
+      <c r="BW21" s="77"/>
+      <c r="BX21" s="77"/>
+      <c r="BY21" s="77"/>
+      <c r="BZ21" s="77"/>
+      <c r="CA21" s="77"/>
+      <c r="CB21" s="77"/>
+      <c r="CC21" s="77"/>
+      <c r="CD21" s="77"/>
+      <c r="CE21" s="77"/>
+      <c r="CF21" s="77"/>
+      <c r="CG21" s="77"/>
+      <c r="CH21" s="77"/>
+      <c r="CI21" s="77"/>
+      <c r="CJ21" s="77"/>
+      <c r="CK21" s="77"/>
+      <c r="CL21" s="77"/>
+      <c r="CM21" s="77"/>
+      <c r="CN21" s="77"/>
+      <c r="CO21" s="77"/>
+      <c r="CP21" s="77"/>
+      <c r="CQ21" s="77"/>
+      <c r="CR21" s="77"/>
+      <c r="CS21" s="77"/>
+      <c r="CT21" s="77"/>
+      <c r="CU21" s="77"/>
+      <c r="CV21" s="77"/>
+      <c r="CW21" s="77"/>
+      <c r="CX21" s="77"/>
+      <c r="CY21" s="77"/>
+      <c r="CZ21" s="77"/>
+      <c r="DA21" s="77"/>
+      <c r="DB21" s="77"/>
+      <c r="DC21" s="77"/>
+      <c r="DD21" s="77"/>
+      <c r="DE21" s="77"/>
+      <c r="DF21" s="77"/>
+      <c r="DG21" s="77"/>
+      <c r="DH21" s="77"/>
+      <c r="DI21" s="77"/>
+      <c r="DJ21" s="77"/>
+      <c r="DK21" s="77"/>
+      <c r="DL21" s="77"/>
+      <c r="DM21" s="77"/>
+      <c r="DN21" s="77"/>
+      <c r="DO21" s="77"/>
+      <c r="DP21" s="77"/>
     </row>
     <row r="22" spans="1:120" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
@@ -3515,250 +3505,250 @@
       <c r="DP22" s="13"/>
     </row>
     <row r="23" spans="1:120" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="73"/>
-      <c r="AK23" s="73"/>
-      <c r="AL23" s="73"/>
-      <c r="AM23" s="73"/>
-      <c r="AN23" s="73"/>
-      <c r="AO23" s="73"/>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="73"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="73"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="73"/>
-      <c r="AX23" s="73"/>
-      <c r="AY23" s="73"/>
-      <c r="AZ23" s="73"/>
-      <c r="BA23" s="73"/>
-      <c r="BB23" s="73"/>
-      <c r="BC23" s="73"/>
-      <c r="BD23" s="73"/>
-      <c r="BE23" s="73"/>
-      <c r="BF23" s="73"/>
-      <c r="BG23" s="73"/>
-      <c r="BH23" s="73"/>
-      <c r="BI23" s="73"/>
-      <c r="BJ23" s="73"/>
-      <c r="BK23" s="73"/>
-      <c r="BL23" s="73"/>
-      <c r="BM23" s="73"/>
-      <c r="BN23" s="73"/>
-      <c r="BO23" s="73"/>
-      <c r="BP23" s="73"/>
-      <c r="BQ23" s="73"/>
-      <c r="BR23" s="73"/>
-      <c r="BS23" s="73"/>
-      <c r="BT23" s="73"/>
-      <c r="BU23" s="73"/>
-      <c r="BV23" s="73"/>
-      <c r="BW23" s="73"/>
-      <c r="BX23" s="73"/>
-      <c r="BY23" s="73"/>
-      <c r="BZ23" s="73"/>
-      <c r="CA23" s="73"/>
-      <c r="CB23" s="73"/>
-      <c r="CC23" s="73"/>
-      <c r="CD23" s="73"/>
-      <c r="CE23" s="73"/>
-      <c r="CF23" s="73"/>
-      <c r="CG23" s="73"/>
-      <c r="CH23" s="73"/>
-      <c r="CI23" s="73"/>
-      <c r="CJ23" s="73"/>
-      <c r="CK23" s="73"/>
-      <c r="CL23" s="73"/>
-      <c r="CM23" s="73"/>
-      <c r="CN23" s="73"/>
-      <c r="CO23" s="73"/>
-      <c r="CP23" s="73"/>
-      <c r="CQ23" s="73"/>
-      <c r="CR23" s="73"/>
-      <c r="CS23" s="73"/>
-      <c r="CT23" s="73"/>
-      <c r="CU23" s="73"/>
-      <c r="CV23" s="73"/>
-      <c r="CW23" s="73"/>
-      <c r="CX23" s="73"/>
-      <c r="CY23" s="73"/>
-      <c r="CZ23" s="73"/>
-      <c r="DA23" s="73"/>
-      <c r="DB23" s="73"/>
-      <c r="DC23" s="73"/>
-      <c r="DD23" s="73"/>
-      <c r="DE23" s="73"/>
-      <c r="DF23" s="73"/>
-      <c r="DG23" s="73"/>
-      <c r="DH23" s="73"/>
-      <c r="DI23" s="73"/>
-      <c r="DJ23" s="73"/>
-      <c r="DK23" s="73"/>
-      <c r="DL23" s="73"/>
-      <c r="DM23" s="73"/>
-      <c r="DN23" s="73"/>
-      <c r="DO23" s="73"/>
-      <c r="DP23" s="73"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="77"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="77"/>
+      <c r="AJ23" s="77"/>
+      <c r="AK23" s="77"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="77"/>
+      <c r="AU23" s="77"/>
+      <c r="AV23" s="77"/>
+      <c r="AW23" s="77"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="77"/>
+      <c r="AZ23" s="77"/>
+      <c r="BA23" s="77"/>
+      <c r="BB23" s="77"/>
+      <c r="BC23" s="77"/>
+      <c r="BD23" s="77"/>
+      <c r="BE23" s="77"/>
+      <c r="BF23" s="77"/>
+      <c r="BG23" s="77"/>
+      <c r="BH23" s="77"/>
+      <c r="BI23" s="77"/>
+      <c r="BJ23" s="77"/>
+      <c r="BK23" s="77"/>
+      <c r="BL23" s="77"/>
+      <c r="BM23" s="77"/>
+      <c r="BN23" s="77"/>
+      <c r="BO23" s="77"/>
+      <c r="BP23" s="77"/>
+      <c r="BQ23" s="77"/>
+      <c r="BR23" s="77"/>
+      <c r="BS23" s="77"/>
+      <c r="BT23" s="77"/>
+      <c r="BU23" s="77"/>
+      <c r="BV23" s="77"/>
+      <c r="BW23" s="77"/>
+      <c r="BX23" s="77"/>
+      <c r="BY23" s="77"/>
+      <c r="BZ23" s="77"/>
+      <c r="CA23" s="77"/>
+      <c r="CB23" s="77"/>
+      <c r="CC23" s="77"/>
+      <c r="CD23" s="77"/>
+      <c r="CE23" s="77"/>
+      <c r="CF23" s="77"/>
+      <c r="CG23" s="77"/>
+      <c r="CH23" s="77"/>
+      <c r="CI23" s="77"/>
+      <c r="CJ23" s="77"/>
+      <c r="CK23" s="77"/>
+      <c r="CL23" s="77"/>
+      <c r="CM23" s="77"/>
+      <c r="CN23" s="77"/>
+      <c r="CO23" s="77"/>
+      <c r="CP23" s="77"/>
+      <c r="CQ23" s="77"/>
+      <c r="CR23" s="77"/>
+      <c r="CS23" s="77"/>
+      <c r="CT23" s="77"/>
+      <c r="CU23" s="77"/>
+      <c r="CV23" s="77"/>
+      <c r="CW23" s="77"/>
+      <c r="CX23" s="77"/>
+      <c r="CY23" s="77"/>
+      <c r="CZ23" s="77"/>
+      <c r="DA23" s="77"/>
+      <c r="DB23" s="77"/>
+      <c r="DC23" s="77"/>
+      <c r="DD23" s="77"/>
+      <c r="DE23" s="77"/>
+      <c r="DF23" s="77"/>
+      <c r="DG23" s="77"/>
+      <c r="DH23" s="77"/>
+      <c r="DI23" s="77"/>
+      <c r="DJ23" s="77"/>
+      <c r="DK23" s="77"/>
+      <c r="DL23" s="77"/>
+      <c r="DM23" s="77"/>
+      <c r="DN23" s="77"/>
+      <c r="DO23" s="77"/>
+      <c r="DP23" s="77"/>
     </row>
     <row r="24" spans="1:120" s="71" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="123"/>
-      <c r="X24" s="123"/>
-      <c r="Y24" s="123"/>
-      <c r="Z24" s="123"/>
-      <c r="AA24" s="123"/>
-      <c r="AB24" s="123"/>
-      <c r="AC24" s="123"/>
-      <c r="AD24" s="123"/>
-      <c r="AE24" s="123"/>
-      <c r="AF24" s="123"/>
-      <c r="AG24" s="123"/>
-      <c r="AH24" s="123"/>
-      <c r="AI24" s="123"/>
-      <c r="AJ24" s="123"/>
-      <c r="AK24" s="123"/>
-      <c r="AL24" s="123"/>
-      <c r="AM24" s="123"/>
-      <c r="AN24" s="123"/>
-      <c r="AO24" s="123"/>
-      <c r="AP24" s="123"/>
-      <c r="AQ24" s="123"/>
-      <c r="AR24" s="123"/>
-      <c r="AS24" s="123"/>
-      <c r="AT24" s="123"/>
-      <c r="AU24" s="123"/>
-      <c r="AV24" s="123"/>
-      <c r="AW24" s="123"/>
-      <c r="AX24" s="123"/>
-      <c r="AY24" s="123"/>
-      <c r="AZ24" s="123"/>
-      <c r="BA24" s="123"/>
-      <c r="BB24" s="123"/>
-      <c r="BC24" s="123"/>
-      <c r="BD24" s="123"/>
-      <c r="BE24" s="123"/>
-      <c r="BF24" s="123"/>
-      <c r="BG24" s="123"/>
-      <c r="BH24" s="123"/>
-      <c r="BI24" s="123"/>
-      <c r="BJ24" s="123"/>
-      <c r="BK24" s="123"/>
-      <c r="BL24" s="123"/>
-      <c r="BM24" s="123"/>
-      <c r="BN24" s="123"/>
-      <c r="BO24" s="123"/>
-      <c r="BP24" s="123"/>
-      <c r="BQ24" s="123"/>
-      <c r="BR24" s="123"/>
-      <c r="BS24" s="123"/>
-      <c r="BT24" s="123"/>
-      <c r="BU24" s="123"/>
-      <c r="BV24" s="123"/>
-      <c r="BW24" s="123"/>
-      <c r="BX24" s="123"/>
-      <c r="BY24" s="123"/>
-      <c r="BZ24" s="123"/>
-      <c r="CA24" s="123"/>
-      <c r="CB24" s="123"/>
-      <c r="CC24" s="123"/>
-      <c r="CD24" s="123"/>
-      <c r="CE24" s="123"/>
-      <c r="CF24" s="123"/>
-      <c r="CG24" s="123"/>
-      <c r="CH24" s="123"/>
-      <c r="CI24" s="123"/>
-      <c r="CJ24" s="123"/>
-      <c r="CK24" s="123"/>
-      <c r="CL24" s="123"/>
-      <c r="CM24" s="123"/>
-      <c r="CN24" s="123"/>
-      <c r="CO24" s="123"/>
-      <c r="CP24" s="123"/>
-      <c r="CQ24" s="123"/>
-      <c r="CR24" s="123"/>
-      <c r="CS24" s="123"/>
-      <c r="CT24" s="123"/>
-      <c r="CU24" s="123"/>
-      <c r="CV24" s="123"/>
-      <c r="CW24" s="123"/>
-      <c r="CX24" s="123"/>
-      <c r="CY24" s="123"/>
-      <c r="CZ24" s="123"/>
-      <c r="DA24" s="123"/>
-      <c r="DB24" s="123"/>
-      <c r="DC24" s="123"/>
-      <c r="DD24" s="123"/>
-      <c r="DE24" s="123"/>
-      <c r="DF24" s="123"/>
-      <c r="DG24" s="123"/>
-      <c r="DH24" s="123"/>
-      <c r="DI24" s="123"/>
-      <c r="DJ24" s="123"/>
-      <c r="DK24" s="123"/>
-      <c r="DL24" s="123"/>
-      <c r="DM24" s="123"/>
-      <c r="DN24" s="123"/>
-      <c r="DO24" s="123"/>
-      <c r="DP24" s="123"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="90"/>
+      <c r="AM24" s="90"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="90"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="90"/>
+      <c r="AY24" s="90"/>
+      <c r="AZ24" s="90"/>
+      <c r="BA24" s="90"/>
+      <c r="BB24" s="90"/>
+      <c r="BC24" s="90"/>
+      <c r="BD24" s="90"/>
+      <c r="BE24" s="90"/>
+      <c r="BF24" s="90"/>
+      <c r="BG24" s="90"/>
+      <c r="BH24" s="90"/>
+      <c r="BI24" s="90"/>
+      <c r="BJ24" s="90"/>
+      <c r="BK24" s="90"/>
+      <c r="BL24" s="90"/>
+      <c r="BM24" s="90"/>
+      <c r="BN24" s="90"/>
+      <c r="BO24" s="90"/>
+      <c r="BP24" s="90"/>
+      <c r="BQ24" s="90"/>
+      <c r="BR24" s="90"/>
+      <c r="BS24" s="90"/>
+      <c r="BT24" s="90"/>
+      <c r="BU24" s="90"/>
+      <c r="BV24" s="90"/>
+      <c r="BW24" s="90"/>
+      <c r="BX24" s="90"/>
+      <c r="BY24" s="90"/>
+      <c r="BZ24" s="90"/>
+      <c r="CA24" s="90"/>
+      <c r="CB24" s="90"/>
+      <c r="CC24" s="90"/>
+      <c r="CD24" s="90"/>
+      <c r="CE24" s="90"/>
+      <c r="CF24" s="90"/>
+      <c r="CG24" s="90"/>
+      <c r="CH24" s="90"/>
+      <c r="CI24" s="90"/>
+      <c r="CJ24" s="90"/>
+      <c r="CK24" s="90"/>
+      <c r="CL24" s="90"/>
+      <c r="CM24" s="90"/>
+      <c r="CN24" s="90"/>
+      <c r="CO24" s="90"/>
+      <c r="CP24" s="90"/>
+      <c r="CQ24" s="90"/>
+      <c r="CR24" s="90"/>
+      <c r="CS24" s="90"/>
+      <c r="CT24" s="90"/>
+      <c r="CU24" s="90"/>
+      <c r="CV24" s="90"/>
+      <c r="CW24" s="90"/>
+      <c r="CX24" s="90"/>
+      <c r="CY24" s="90"/>
+      <c r="CZ24" s="90"/>
+      <c r="DA24" s="90"/>
+      <c r="DB24" s="90"/>
+      <c r="DC24" s="90"/>
+      <c r="DD24" s="90"/>
+      <c r="DE24" s="90"/>
+      <c r="DF24" s="90"/>
+      <c r="DG24" s="90"/>
+      <c r="DH24" s="90"/>
+      <c r="DI24" s="90"/>
+      <c r="DJ24" s="90"/>
+      <c r="DK24" s="90"/>
+      <c r="DL24" s="90"/>
+      <c r="DM24" s="90"/>
+      <c r="DN24" s="90"/>
+      <c r="DO24" s="90"/>
+      <c r="DP24" s="90"/>
     </row>
     <row r="25" spans="1:120" s="27" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
@@ -3884,96 +3874,96 @@
     </row>
     <row r="26" spans="1:120" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="117"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="117"/>
-      <c r="AO26" s="117"/>
-      <c r="AP26" s="117"/>
-      <c r="AQ26" s="117"/>
-      <c r="AR26" s="117"/>
-      <c r="AS26" s="117"/>
-      <c r="AT26" s="117"/>
-      <c r="AU26" s="117"/>
-      <c r="AV26" s="117"/>
-      <c r="AW26" s="117"/>
-      <c r="AX26" s="117"/>
-      <c r="AY26" s="117"/>
-      <c r="AZ26" s="117"/>
-      <c r="BA26" s="117"/>
-      <c r="BB26" s="117"/>
-      <c r="BC26" s="117"/>
-      <c r="BD26" s="117"/>
-      <c r="BE26" s="117"/>
-      <c r="BF26" s="117"/>
-      <c r="BG26" s="117"/>
-      <c r="BH26" s="117"/>
-      <c r="BI26" s="117"/>
-      <c r="BJ26" s="117"/>
-      <c r="BK26" s="117"/>
-      <c r="BL26" s="117"/>
-      <c r="BM26" s="117"/>
-      <c r="BN26" s="117"/>
-      <c r="BO26" s="117"/>
-      <c r="BP26" s="117"/>
-      <c r="BQ26" s="117"/>
-      <c r="BR26" s="117"/>
-      <c r="BS26" s="117"/>
-      <c r="BT26" s="117"/>
-      <c r="BU26" s="117"/>
-      <c r="BV26" s="117"/>
-      <c r="BW26" s="117"/>
-      <c r="BX26" s="117"/>
-      <c r="BY26" s="117"/>
-      <c r="BZ26" s="117"/>
-      <c r="CA26" s="117"/>
-      <c r="CB26" s="117"/>
-      <c r="CC26" s="117"/>
-      <c r="CD26" s="117"/>
-      <c r="CE26" s="117"/>
-      <c r="CF26" s="117"/>
-      <c r="CG26" s="117"/>
-      <c r="CH26" s="118"/>
-      <c r="CI26" s="73"/>
-      <c r="CJ26" s="73"/>
-      <c r="CK26" s="73"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="76"/>
+      <c r="AJ26" s="76"/>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="76"/>
+      <c r="AN26" s="76"/>
+      <c r="AO26" s="76"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="76"/>
+      <c r="AR26" s="76"/>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="76"/>
+      <c r="AV26" s="76"/>
+      <c r="AW26" s="76"/>
+      <c r="AX26" s="76"/>
+      <c r="AY26" s="76"/>
+      <c r="AZ26" s="76"/>
+      <c r="BA26" s="76"/>
+      <c r="BB26" s="76"/>
+      <c r="BC26" s="76"/>
+      <c r="BD26" s="76"/>
+      <c r="BE26" s="76"/>
+      <c r="BF26" s="76"/>
+      <c r="BG26" s="76"/>
+      <c r="BH26" s="76"/>
+      <c r="BI26" s="76"/>
+      <c r="BJ26" s="76"/>
+      <c r="BK26" s="76"/>
+      <c r="BL26" s="76"/>
+      <c r="BM26" s="76"/>
+      <c r="BN26" s="76"/>
+      <c r="BO26" s="76"/>
+      <c r="BP26" s="76"/>
+      <c r="BQ26" s="76"/>
+      <c r="BR26" s="76"/>
+      <c r="BS26" s="76"/>
+      <c r="BT26" s="76"/>
+      <c r="BU26" s="76"/>
+      <c r="BV26" s="76"/>
+      <c r="BW26" s="76"/>
+      <c r="BX26" s="76"/>
+      <c r="BY26" s="76"/>
+      <c r="BZ26" s="76"/>
+      <c r="CA26" s="76"/>
+      <c r="CB26" s="76"/>
+      <c r="CC26" s="76"/>
+      <c r="CD26" s="76"/>
+      <c r="CE26" s="76"/>
+      <c r="CF26" s="76"/>
+      <c r="CG26" s="76"/>
+      <c r="CH26" s="91"/>
+      <c r="CI26" s="77"/>
+      <c r="CJ26" s="77"/>
+      <c r="CK26" s="77"/>
       <c r="CL26" s="38"/>
       <c r="CM26" s="12" t="s">
         <v>11</v>
@@ -4136,106 +4126,106 @@
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="117" t="s">
+      <c r="F28" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="117" t="s">
+      <c r="L28" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="117"/>
-      <c r="Y28" s="117"/>
-      <c r="Z28" s="117"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
       <c r="AA28" s="57"/>
-      <c r="AB28" s="73" t="s">
+      <c r="AB28" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73" t="s">
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73" t="s">
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="73"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="77"/>
+      <c r="AK28" s="77"/>
+      <c r="AL28" s="77"/>
+      <c r="AM28" s="77"/>
       <c r="AN28" s="12"/>
-      <c r="AO28" s="117" t="s">
+      <c r="AO28" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AP28" s="117"/>
-      <c r="AQ28" s="117"/>
-      <c r="AR28" s="117"/>
-      <c r="AS28" s="117"/>
-      <c r="AT28" s="117"/>
-      <c r="AU28" s="117"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
       <c r="AV28" s="12"/>
-      <c r="AW28" s="117" t="s">
+      <c r="AW28" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="AX28" s="117"/>
-      <c r="AY28" s="117"/>
-      <c r="AZ28" s="117"/>
-      <c r="BA28" s="117"/>
-      <c r="BB28" s="117"/>
-      <c r="BC28" s="117"/>
-      <c r="BD28" s="117"/>
-      <c r="BE28" s="117"/>
-      <c r="BF28" s="117"/>
-      <c r="BG28" s="117"/>
-      <c r="BH28" s="117"/>
-      <c r="BI28" s="117"/>
-      <c r="BJ28" s="117"/>
-      <c r="BK28" s="117"/>
-      <c r="BL28" s="117"/>
-      <c r="BM28" s="117"/>
-      <c r="BN28" s="117"/>
-      <c r="BO28" s="117"/>
-      <c r="BP28" s="117"/>
-      <c r="BQ28" s="117"/>
-      <c r="BR28" s="117"/>
-      <c r="BS28" s="117"/>
-      <c r="BT28" s="117"/>
-      <c r="BU28" s="117"/>
-      <c r="BV28" s="117"/>
-      <c r="BW28" s="117"/>
-      <c r="BX28" s="117"/>
-      <c r="BY28" s="117"/>
-      <c r="BZ28" s="117"/>
-      <c r="CA28" s="117"/>
-      <c r="CB28" s="117"/>
-      <c r="CC28" s="117"/>
-      <c r="CD28" s="117"/>
-      <c r="CE28" s="117"/>
-      <c r="CF28" s="117"/>
-      <c r="CG28" s="117"/>
-      <c r="CH28" s="117"/>
-      <c r="CI28" s="117"/>
-      <c r="CJ28" s="117"/>
-      <c r="CK28" s="117"/>
-      <c r="CL28" s="117"/>
-      <c r="CM28" s="117"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="76"/>
+      <c r="BC28" s="76"/>
+      <c r="BD28" s="76"/>
+      <c r="BE28" s="76"/>
+      <c r="BF28" s="76"/>
+      <c r="BG28" s="76"/>
+      <c r="BH28" s="76"/>
+      <c r="BI28" s="76"/>
+      <c r="BJ28" s="76"/>
+      <c r="BK28" s="76"/>
+      <c r="BL28" s="76"/>
+      <c r="BM28" s="76"/>
+      <c r="BN28" s="76"/>
+      <c r="BO28" s="76"/>
+      <c r="BP28" s="76"/>
+      <c r="BQ28" s="76"/>
+      <c r="BR28" s="76"/>
+      <c r="BS28" s="76"/>
+      <c r="BT28" s="76"/>
+      <c r="BU28" s="76"/>
+      <c r="BV28" s="76"/>
+      <c r="BW28" s="76"/>
+      <c r="BX28" s="76"/>
+      <c r="BY28" s="76"/>
+      <c r="BZ28" s="76"/>
+      <c r="CA28" s="76"/>
+      <c r="CB28" s="76"/>
+      <c r="CC28" s="76"/>
+      <c r="CD28" s="76"/>
+      <c r="CE28" s="76"/>
+      <c r="CF28" s="76"/>
+      <c r="CG28" s="76"/>
+      <c r="CH28" s="76"/>
+      <c r="CI28" s="76"/>
+      <c r="CJ28" s="76"/>
+      <c r="CK28" s="76"/>
+      <c r="CL28" s="76"/>
+      <c r="CM28" s="76"/>
       <c r="CN28" s="12"/>
       <c r="CO28" s="12"/>
       <c r="CP28" s="12"/>
@@ -4758,104 +4748,104 @@
     </row>
     <row r="33" spans="1:120" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12"/>
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="117"/>
-      <c r="R33" s="117"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="117"/>
-      <c r="Y33" s="117"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="117"/>
-      <c r="AF33" s="117"/>
-      <c r="AG33" s="117"/>
-      <c r="AH33" s="117"/>
-      <c r="AI33" s="117"/>
-      <c r="AJ33" s="117"/>
-      <c r="AK33" s="117"/>
-      <c r="AL33" s="117"/>
-      <c r="AM33" s="117"/>
-      <c r="AN33" s="117"/>
-      <c r="AO33" s="117"/>
-      <c r="AP33" s="117"/>
-      <c r="AQ33" s="117"/>
-      <c r="AR33" s="117"/>
-      <c r="AS33" s="117"/>
-      <c r="AT33" s="117"/>
-      <c r="AU33" s="117"/>
-      <c r="AV33" s="118"/>
-      <c r="AW33" s="73"/>
-      <c r="AX33" s="73"/>
-      <c r="AY33" s="73"/>
-      <c r="AZ33" s="73"/>
-      <c r="BA33" s="73"/>
-      <c r="BB33" s="73"/>
-      <c r="BC33" s="73"/>
-      <c r="BD33" s="73"/>
-      <c r="BE33" s="73"/>
-      <c r="BF33" s="92" t="s">
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="76"/>
+      <c r="AD33" s="76"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="76"/>
+      <c r="AI33" s="76"/>
+      <c r="AJ33" s="76"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="76"/>
+      <c r="AM33" s="76"/>
+      <c r="AN33" s="76"/>
+      <c r="AO33" s="76"/>
+      <c r="AP33" s="76"/>
+      <c r="AQ33" s="76"/>
+      <c r="AR33" s="76"/>
+      <c r="AS33" s="76"/>
+      <c r="AT33" s="76"/>
+      <c r="AU33" s="76"/>
+      <c r="AV33" s="91"/>
+      <c r="AW33" s="77"/>
+      <c r="AX33" s="77"/>
+      <c r="AY33" s="77"/>
+      <c r="AZ33" s="77"/>
+      <c r="BA33" s="77"/>
+      <c r="BB33" s="77"/>
+      <c r="BC33" s="77"/>
+      <c r="BD33" s="77"/>
+      <c r="BE33" s="77"/>
+      <c r="BF33" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="BG33" s="92"/>
-      <c r="BH33" s="93"/>
-      <c r="BI33" s="73"/>
-      <c r="BJ33" s="73"/>
-      <c r="BK33" s="73"/>
-      <c r="BL33" s="73"/>
-      <c r="BM33" s="73"/>
-      <c r="BN33" s="73"/>
-      <c r="BO33" s="101" t="s">
+      <c r="BG33" s="100"/>
+      <c r="BH33" s="101"/>
+      <c r="BI33" s="77"/>
+      <c r="BJ33" s="77"/>
+      <c r="BK33" s="77"/>
+      <c r="BL33" s="77"/>
+      <c r="BM33" s="77"/>
+      <c r="BN33" s="77"/>
+      <c r="BO33" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="BP33" s="102"/>
-      <c r="BQ33" s="102"/>
-      <c r="BR33" s="102"/>
-      <c r="BS33" s="102"/>
-      <c r="BT33" s="102"/>
-      <c r="BU33" s="102"/>
-      <c r="BV33" s="102"/>
-      <c r="BW33" s="102"/>
-      <c r="BX33" s="102"/>
-      <c r="BY33" s="102"/>
-      <c r="BZ33" s="102"/>
-      <c r="CA33" s="102"/>
-      <c r="CB33" s="102"/>
-      <c r="CC33" s="102"/>
-      <c r="CD33" s="102"/>
-      <c r="CE33" s="102"/>
-      <c r="CF33" s="102"/>
-      <c r="CG33" s="102"/>
-      <c r="CH33" s="102"/>
-      <c r="CI33" s="102"/>
-      <c r="CJ33" s="102"/>
-      <c r="CK33" s="102"/>
-      <c r="CL33" s="103"/>
-      <c r="CM33" s="73"/>
-      <c r="CN33" s="73"/>
-      <c r="CO33" s="73"/>
+      <c r="BP33" s="116"/>
+      <c r="BQ33" s="116"/>
+      <c r="BR33" s="116"/>
+      <c r="BS33" s="116"/>
+      <c r="BT33" s="116"/>
+      <c r="BU33" s="116"/>
+      <c r="BV33" s="116"/>
+      <c r="BW33" s="116"/>
+      <c r="BX33" s="116"/>
+      <c r="BY33" s="116"/>
+      <c r="BZ33" s="116"/>
+      <c r="CA33" s="116"/>
+      <c r="CB33" s="116"/>
+      <c r="CC33" s="116"/>
+      <c r="CD33" s="116"/>
+      <c r="CE33" s="116"/>
+      <c r="CF33" s="116"/>
+      <c r="CG33" s="116"/>
+      <c r="CH33" s="116"/>
+      <c r="CI33" s="116"/>
+      <c r="CJ33" s="116"/>
+      <c r="CK33" s="116"/>
+      <c r="CL33" s="117"/>
+      <c r="CM33" s="77"/>
+      <c r="CN33" s="77"/>
+      <c r="CO33" s="77"/>
       <c r="CP33" s="12"/>
       <c r="CQ33" s="12" t="s">
         <v>11</v>
@@ -6132,97 +6122,97 @@
     </row>
     <row r="44" spans="1:120" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="B44" s="117" t="s">
+      <c r="B44" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="117"/>
-      <c r="M44" s="117"/>
-      <c r="N44" s="117"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="117"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="117"/>
-      <c r="S44" s="117"/>
-      <c r="T44" s="117"/>
-      <c r="U44" s="117"/>
-      <c r="V44" s="117"/>
-      <c r="W44" s="117"/>
-      <c r="X44" s="117"/>
-      <c r="Y44" s="117"/>
-      <c r="Z44" s="117"/>
-      <c r="AA44" s="117"/>
-      <c r="AB44" s="117"/>
-      <c r="AC44" s="117"/>
-      <c r="AD44" s="118"/>
-      <c r="AE44" s="73"/>
-      <c r="AF44" s="73"/>
-      <c r="AG44" s="73"/>
-      <c r="AH44" s="73"/>
-      <c r="AI44" s="73"/>
-      <c r="AJ44" s="73"/>
-      <c r="AK44" s="73"/>
-      <c r="AL44" s="73"/>
-      <c r="AM44" s="73"/>
-      <c r="AN44" s="73"/>
-      <c r="AO44" s="73"/>
-      <c r="AP44" s="73"/>
-      <c r="AQ44" s="73"/>
-      <c r="AR44" s="73"/>
-      <c r="AS44" s="73"/>
-      <c r="AT44" s="73"/>
-      <c r="AU44" s="73"/>
-      <c r="AV44" s="73"/>
-      <c r="AW44" s="73"/>
-      <c r="AX44" s="73"/>
-      <c r="AY44" s="73"/>
-      <c r="AZ44" s="73"/>
-      <c r="BA44" s="73"/>
-      <c r="BB44" s="73"/>
-      <c r="BC44" s="73"/>
-      <c r="BD44" s="73"/>
-      <c r="BE44" s="73"/>
-      <c r="BF44" s="73"/>
-      <c r="BG44" s="73"/>
-      <c r="BH44" s="73"/>
-      <c r="BI44" s="73"/>
-      <c r="BJ44" s="73"/>
-      <c r="BK44" s="73"/>
-      <c r="BL44" s="73"/>
-      <c r="BM44" s="73"/>
-      <c r="BN44" s="73"/>
-      <c r="BO44" s="73"/>
-      <c r="BP44" s="73"/>
-      <c r="BQ44" s="73"/>
-      <c r="BR44" s="73"/>
-      <c r="BS44" s="73"/>
-      <c r="BT44" s="73"/>
-      <c r="BU44" s="73"/>
-      <c r="BV44" s="73"/>
-      <c r="BW44" s="73"/>
-      <c r="BX44" s="73"/>
-      <c r="BY44" s="73"/>
-      <c r="BZ44" s="73"/>
-      <c r="CA44" s="73"/>
-      <c r="CB44" s="73"/>
-      <c r="CC44" s="73"/>
-      <c r="CD44" s="73"/>
-      <c r="CE44" s="73"/>
-      <c r="CF44" s="73"/>
-      <c r="CG44" s="73"/>
-      <c r="CH44" s="73"/>
-      <c r="CI44" s="73"/>
-      <c r="CJ44" s="73"/>
-      <c r="CK44" s="73"/>
-      <c r="CL44" s="73"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="76"/>
+      <c r="AB44" s="76"/>
+      <c r="AC44" s="76"/>
+      <c r="AD44" s="91"/>
+      <c r="AE44" s="77"/>
+      <c r="AF44" s="77"/>
+      <c r="AG44" s="77"/>
+      <c r="AH44" s="77"/>
+      <c r="AI44" s="77"/>
+      <c r="AJ44" s="77"/>
+      <c r="AK44" s="77"/>
+      <c r="AL44" s="77"/>
+      <c r="AM44" s="77"/>
+      <c r="AN44" s="77"/>
+      <c r="AO44" s="77"/>
+      <c r="AP44" s="77"/>
+      <c r="AQ44" s="77"/>
+      <c r="AR44" s="77"/>
+      <c r="AS44" s="77"/>
+      <c r="AT44" s="77"/>
+      <c r="AU44" s="77"/>
+      <c r="AV44" s="77"/>
+      <c r="AW44" s="77"/>
+      <c r="AX44" s="77"/>
+      <c r="AY44" s="77"/>
+      <c r="AZ44" s="77"/>
+      <c r="BA44" s="77"/>
+      <c r="BB44" s="77"/>
+      <c r="BC44" s="77"/>
+      <c r="BD44" s="77"/>
+      <c r="BE44" s="77"/>
+      <c r="BF44" s="77"/>
+      <c r="BG44" s="77"/>
+      <c r="BH44" s="77"/>
+      <c r="BI44" s="77"/>
+      <c r="BJ44" s="77"/>
+      <c r="BK44" s="77"/>
+      <c r="BL44" s="77"/>
+      <c r="BM44" s="77"/>
+      <c r="BN44" s="77"/>
+      <c r="BO44" s="77"/>
+      <c r="BP44" s="77"/>
+      <c r="BQ44" s="77"/>
+      <c r="BR44" s="77"/>
+      <c r="BS44" s="77"/>
+      <c r="BT44" s="77"/>
+      <c r="BU44" s="77"/>
+      <c r="BV44" s="77"/>
+      <c r="BW44" s="77"/>
+      <c r="BX44" s="77"/>
+      <c r="BY44" s="77"/>
+      <c r="BZ44" s="77"/>
+      <c r="CA44" s="77"/>
+      <c r="CB44" s="77"/>
+      <c r="CC44" s="77"/>
+      <c r="CD44" s="77"/>
+      <c r="CE44" s="77"/>
+      <c r="CF44" s="77"/>
+      <c r="CG44" s="77"/>
+      <c r="CH44" s="77"/>
+      <c r="CI44" s="77"/>
+      <c r="CJ44" s="77"/>
+      <c r="CK44" s="77"/>
+      <c r="CL44" s="77"/>
       <c r="CM44" s="37"/>
       <c r="CN44" s="37"/>
       <c r="CO44" s="37"/>
@@ -6440,107 +6430,107 @@
       <c r="BI46" s="43"/>
       <c r="BJ46" s="43"/>
       <c r="BK46" s="44"/>
-      <c r="BL46" s="106" t="s">
+      <c r="BL46" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="BM46" s="107"/>
-      <c r="BN46" s="107"/>
-      <c r="BO46" s="107"/>
-      <c r="BP46" s="107"/>
-      <c r="BQ46" s="107"/>
-      <c r="BR46" s="107"/>
-      <c r="BS46" s="107"/>
-      <c r="BT46" s="107"/>
-      <c r="BU46" s="107"/>
-      <c r="BV46" s="107"/>
-      <c r="BW46" s="107"/>
-      <c r="BX46" s="107"/>
-      <c r="BY46" s="107"/>
-      <c r="BZ46" s="107"/>
-      <c r="CA46" s="107"/>
-      <c r="CB46" s="107"/>
-      <c r="CC46" s="107"/>
-      <c r="CD46" s="107"/>
-      <c r="CE46" s="107"/>
-      <c r="CF46" s="107"/>
-      <c r="CG46" s="107"/>
-      <c r="CH46" s="107"/>
-      <c r="CI46" s="107"/>
-      <c r="CJ46" s="107"/>
-      <c r="CK46" s="107"/>
-      <c r="CL46" s="107"/>
-      <c r="CM46" s="107"/>
-      <c r="CN46" s="107"/>
-      <c r="CO46" s="107"/>
-      <c r="CP46" s="107"/>
-      <c r="CQ46" s="107"/>
-      <c r="CR46" s="107"/>
-      <c r="CS46" s="107"/>
-      <c r="CT46" s="107"/>
-      <c r="CU46" s="107"/>
-      <c r="CV46" s="107"/>
-      <c r="CW46" s="107"/>
-      <c r="CX46" s="107"/>
-      <c r="CY46" s="107"/>
-      <c r="CZ46" s="107"/>
-      <c r="DA46" s="107"/>
-      <c r="DB46" s="107"/>
-      <c r="DC46" s="107"/>
-      <c r="DD46" s="107"/>
-      <c r="DE46" s="107"/>
-      <c r="DF46" s="107"/>
-      <c r="DG46" s="107"/>
-      <c r="DH46" s="107"/>
-      <c r="DI46" s="107"/>
-      <c r="DJ46" s="107"/>
-      <c r="DK46" s="107"/>
-      <c r="DL46" s="107"/>
-      <c r="DM46" s="107"/>
-      <c r="DN46" s="107"/>
-      <c r="DO46" s="107"/>
-      <c r="DP46" s="107"/>
+      <c r="BM46" s="94"/>
+      <c r="BN46" s="94"/>
+      <c r="BO46" s="94"/>
+      <c r="BP46" s="94"/>
+      <c r="BQ46" s="94"/>
+      <c r="BR46" s="94"/>
+      <c r="BS46" s="94"/>
+      <c r="BT46" s="94"/>
+      <c r="BU46" s="94"/>
+      <c r="BV46" s="94"/>
+      <c r="BW46" s="94"/>
+      <c r="BX46" s="94"/>
+      <c r="BY46" s="94"/>
+      <c r="BZ46" s="94"/>
+      <c r="CA46" s="94"/>
+      <c r="CB46" s="94"/>
+      <c r="CC46" s="94"/>
+      <c r="CD46" s="94"/>
+      <c r="CE46" s="94"/>
+      <c r="CF46" s="94"/>
+      <c r="CG46" s="94"/>
+      <c r="CH46" s="94"/>
+      <c r="CI46" s="94"/>
+      <c r="CJ46" s="94"/>
+      <c r="CK46" s="94"/>
+      <c r="CL46" s="94"/>
+      <c r="CM46" s="94"/>
+      <c r="CN46" s="94"/>
+      <c r="CO46" s="94"/>
+      <c r="CP46" s="94"/>
+      <c r="CQ46" s="94"/>
+      <c r="CR46" s="94"/>
+      <c r="CS46" s="94"/>
+      <c r="CT46" s="94"/>
+      <c r="CU46" s="94"/>
+      <c r="CV46" s="94"/>
+      <c r="CW46" s="94"/>
+      <c r="CX46" s="94"/>
+      <c r="CY46" s="94"/>
+      <c r="CZ46" s="94"/>
+      <c r="DA46" s="94"/>
+      <c r="DB46" s="94"/>
+      <c r="DC46" s="94"/>
+      <c r="DD46" s="94"/>
+      <c r="DE46" s="94"/>
+      <c r="DF46" s="94"/>
+      <c r="DG46" s="94"/>
+      <c r="DH46" s="94"/>
+      <c r="DI46" s="94"/>
+      <c r="DJ46" s="94"/>
+      <c r="DK46" s="94"/>
+      <c r="DL46" s="94"/>
+      <c r="DM46" s="94"/>
+      <c r="DN46" s="94"/>
+      <c r="DO46" s="94"/>
+      <c r="DP46" s="94"/>
     </row>
     <row r="47" spans="1:120" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
       <c r="H47" s="42"/>
-      <c r="I47" s="110" t="s">
+      <c r="I47" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="110"/>
-      <c r="P47" s="110"/>
-      <c r="Q47" s="110"/>
-      <c r="R47" s="110"/>
-      <c r="S47" s="110"/>
-      <c r="T47" s="110"/>
-      <c r="U47" s="110"/>
-      <c r="V47" s="110"/>
-      <c r="W47" s="110"/>
-      <c r="X47" s="110"/>
-      <c r="Y47" s="110"/>
-      <c r="Z47" s="110"/>
-      <c r="AA47" s="110"/>
-      <c r="AB47" s="110"/>
-      <c r="AC47" s="110"/>
-      <c r="AD47" s="110"/>
-      <c r="AE47" s="110"/>
-      <c r="AF47" s="110"/>
-      <c r="AG47" s="110"/>
-      <c r="AH47" s="110"/>
-      <c r="AI47" s="110"/>
-      <c r="AJ47" s="110"/>
-      <c r="AK47" s="110"/>
-      <c r="AL47" s="110"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="78"/>
+      <c r="S47" s="78"/>
+      <c r="T47" s="78"/>
+      <c r="U47" s="78"/>
+      <c r="V47" s="78"/>
+      <c r="W47" s="78"/>
+      <c r="X47" s="78"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="78"/>
+      <c r="AA47" s="78"/>
+      <c r="AB47" s="78"/>
+      <c r="AC47" s="78"/>
+      <c r="AD47" s="78"/>
+      <c r="AE47" s="78"/>
+      <c r="AF47" s="78"/>
+      <c r="AG47" s="78"/>
+      <c r="AH47" s="78"/>
+      <c r="AI47" s="78"/>
+      <c r="AJ47" s="78"/>
+      <c r="AK47" s="78"/>
+      <c r="AL47" s="78"/>
       <c r="AM47" s="42"/>
       <c r="AN47" s="42"/>
       <c r="AO47" s="42"/>
@@ -6566,63 +6556,63 @@
       <c r="BI47" s="42"/>
       <c r="BJ47" s="42"/>
       <c r="BK47" s="45"/>
-      <c r="BL47" s="108"/>
-      <c r="BM47" s="109"/>
-      <c r="BN47" s="109"/>
-      <c r="BO47" s="109"/>
-      <c r="BP47" s="109"/>
-      <c r="BQ47" s="109"/>
-      <c r="BR47" s="109"/>
-      <c r="BS47" s="109"/>
-      <c r="BT47" s="109"/>
-      <c r="BU47" s="109"/>
-      <c r="BV47" s="109"/>
-      <c r="BW47" s="109"/>
-      <c r="BX47" s="109"/>
-      <c r="BY47" s="109"/>
-      <c r="BZ47" s="109"/>
-      <c r="CA47" s="109"/>
-      <c r="CB47" s="109"/>
-      <c r="CC47" s="109"/>
-      <c r="CD47" s="109"/>
-      <c r="CE47" s="109"/>
-      <c r="CF47" s="109"/>
-      <c r="CG47" s="109"/>
-      <c r="CH47" s="109"/>
-      <c r="CI47" s="109"/>
-      <c r="CJ47" s="109"/>
-      <c r="CK47" s="109"/>
-      <c r="CL47" s="109"/>
-      <c r="CM47" s="109"/>
-      <c r="CN47" s="109"/>
-      <c r="CO47" s="109"/>
-      <c r="CP47" s="109"/>
-      <c r="CQ47" s="109"/>
-      <c r="CR47" s="109"/>
-      <c r="CS47" s="109"/>
-      <c r="CT47" s="109"/>
-      <c r="CU47" s="109"/>
-      <c r="CV47" s="109"/>
-      <c r="CW47" s="109"/>
-      <c r="CX47" s="109"/>
-      <c r="CY47" s="109"/>
-      <c r="CZ47" s="109"/>
-      <c r="DA47" s="109"/>
-      <c r="DB47" s="109"/>
-      <c r="DC47" s="109"/>
-      <c r="DD47" s="109"/>
-      <c r="DE47" s="109"/>
-      <c r="DF47" s="109"/>
-      <c r="DG47" s="109"/>
-      <c r="DH47" s="109"/>
-      <c r="DI47" s="109"/>
-      <c r="DJ47" s="109"/>
-      <c r="DK47" s="109"/>
-      <c r="DL47" s="109"/>
-      <c r="DM47" s="109"/>
-      <c r="DN47" s="109"/>
-      <c r="DO47" s="109"/>
-      <c r="DP47" s="109"/>
+      <c r="BL47" s="95"/>
+      <c r="BM47" s="96"/>
+      <c r="BN47" s="96"/>
+      <c r="BO47" s="96"/>
+      <c r="BP47" s="96"/>
+      <c r="BQ47" s="96"/>
+      <c r="BR47" s="96"/>
+      <c r="BS47" s="96"/>
+      <c r="BT47" s="96"/>
+      <c r="BU47" s="96"/>
+      <c r="BV47" s="96"/>
+      <c r="BW47" s="96"/>
+      <c r="BX47" s="96"/>
+      <c r="BY47" s="96"/>
+      <c r="BZ47" s="96"/>
+      <c r="CA47" s="96"/>
+      <c r="CB47" s="96"/>
+      <c r="CC47" s="96"/>
+      <c r="CD47" s="96"/>
+      <c r="CE47" s="96"/>
+      <c r="CF47" s="96"/>
+      <c r="CG47" s="96"/>
+      <c r="CH47" s="96"/>
+      <c r="CI47" s="96"/>
+      <c r="CJ47" s="96"/>
+      <c r="CK47" s="96"/>
+      <c r="CL47" s="96"/>
+      <c r="CM47" s="96"/>
+      <c r="CN47" s="96"/>
+      <c r="CO47" s="96"/>
+      <c r="CP47" s="96"/>
+      <c r="CQ47" s="96"/>
+      <c r="CR47" s="96"/>
+      <c r="CS47" s="96"/>
+      <c r="CT47" s="96"/>
+      <c r="CU47" s="96"/>
+      <c r="CV47" s="96"/>
+      <c r="CW47" s="96"/>
+      <c r="CX47" s="96"/>
+      <c r="CY47" s="96"/>
+      <c r="CZ47" s="96"/>
+      <c r="DA47" s="96"/>
+      <c r="DB47" s="96"/>
+      <c r="DC47" s="96"/>
+      <c r="DD47" s="96"/>
+      <c r="DE47" s="96"/>
+      <c r="DF47" s="96"/>
+      <c r="DG47" s="96"/>
+      <c r="DH47" s="96"/>
+      <c r="DI47" s="96"/>
+      <c r="DJ47" s="96"/>
+      <c r="DK47" s="96"/>
+      <c r="DL47" s="96"/>
+      <c r="DM47" s="96"/>
+      <c r="DN47" s="96"/>
+      <c r="DO47" s="96"/>
+      <c r="DP47" s="96"/>
     </row>
     <row r="48" spans="1:120" s="27" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="40"/>
@@ -6748,66 +6738,66 @@
     </row>
     <row r="49" spans="1:120" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
-      <c r="T49" s="73"/>
-      <c r="U49" s="73"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="73"/>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="73"/>
-      <c r="AA49" s="73"/>
-      <c r="AB49" s="73"/>
-      <c r="AC49" s="73"/>
-      <c r="AD49" s="73"/>
-      <c r="AE49" s="73"/>
-      <c r="AF49" s="73"/>
-      <c r="AG49" s="73"/>
-      <c r="AH49" s="73"/>
-      <c r="AI49" s="73"/>
-      <c r="AJ49" s="73"/>
-      <c r="AK49" s="73"/>
-      <c r="AL49" s="73"/>
-      <c r="AM49" s="73"/>
-      <c r="AN49" s="73"/>
-      <c r="AO49" s="73"/>
-      <c r="AP49" s="73"/>
-      <c r="AQ49" s="73"/>
-      <c r="AR49" s="73"/>
-      <c r="AS49" s="73"/>
-      <c r="AT49" s="73"/>
-      <c r="AU49" s="73"/>
-      <c r="AV49" s="73"/>
-      <c r="AW49" s="73"/>
-      <c r="AX49" s="73"/>
-      <c r="AY49" s="73"/>
-      <c r="AZ49" s="73"/>
-      <c r="BA49" s="73"/>
-      <c r="BB49" s="73"/>
-      <c r="BC49" s="73"/>
-      <c r="BD49" s="73"/>
-      <c r="BE49" s="73"/>
-      <c r="BF49" s="73"/>
-      <c r="BG49" s="73"/>
-      <c r="BH49" s="73"/>
-      <c r="BI49" s="73"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
+      <c r="Y49" s="77"/>
+      <c r="Z49" s="77"/>
+      <c r="AA49" s="77"/>
+      <c r="AB49" s="77"/>
+      <c r="AC49" s="77"/>
+      <c r="AD49" s="77"/>
+      <c r="AE49" s="77"/>
+      <c r="AF49" s="77"/>
+      <c r="AG49" s="77"/>
+      <c r="AH49" s="77"/>
+      <c r="AI49" s="77"/>
+      <c r="AJ49" s="77"/>
+      <c r="AK49" s="77"/>
+      <c r="AL49" s="77"/>
+      <c r="AM49" s="77"/>
+      <c r="AN49" s="77"/>
+      <c r="AO49" s="77"/>
+      <c r="AP49" s="77"/>
+      <c r="AQ49" s="77"/>
+      <c r="AR49" s="77"/>
+      <c r="AS49" s="77"/>
+      <c r="AT49" s="77"/>
+      <c r="AU49" s="77"/>
+      <c r="AV49" s="77"/>
+      <c r="AW49" s="77"/>
+      <c r="AX49" s="77"/>
+      <c r="AY49" s="77"/>
+      <c r="AZ49" s="77"/>
+      <c r="BA49" s="77"/>
+      <c r="BB49" s="77"/>
+      <c r="BC49" s="77"/>
+      <c r="BD49" s="77"/>
+      <c r="BE49" s="77"/>
+      <c r="BF49" s="77"/>
+      <c r="BG49" s="77"/>
+      <c r="BH49" s="77"/>
+      <c r="BI49" s="77"/>
       <c r="BJ49" s="27"/>
       <c r="BK49" s="48"/>
       <c r="BM49" s="59"/>
@@ -6818,52 +6808,52 @@
       <c r="BR49" s="24"/>
       <c r="BS49" s="24"/>
       <c r="BT49" s="24"/>
-      <c r="BU49" s="119" t="s">
+      <c r="BU49" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="BV49" s="119"/>
-      <c r="BW49" s="119"/>
-      <c r="BX49" s="119"/>
-      <c r="BY49" s="119"/>
-      <c r="BZ49" s="119"/>
-      <c r="CA49" s="119"/>
-      <c r="CB49" s="119"/>
-      <c r="CC49" s="119"/>
-      <c r="CD49" s="119"/>
-      <c r="CE49" s="119"/>
-      <c r="CF49" s="119"/>
-      <c r="CG49" s="119"/>
-      <c r="CH49" s="119"/>
-      <c r="CI49" s="119"/>
-      <c r="CJ49" s="119"/>
-      <c r="CK49" s="119"/>
-      <c r="CL49" s="119"/>
-      <c r="CM49" s="119"/>
-      <c r="CN49" s="119"/>
-      <c r="CO49" s="119"/>
-      <c r="CP49" s="119"/>
-      <c r="CQ49" s="119"/>
-      <c r="CR49" s="119"/>
-      <c r="CS49" s="119"/>
-      <c r="CT49" s="119"/>
-      <c r="CU49" s="119"/>
-      <c r="CV49" s="119"/>
-      <c r="CW49" s="119"/>
-      <c r="CX49" s="119"/>
-      <c r="CY49" s="119"/>
-      <c r="CZ49" s="120" t="s">
+      <c r="BV49" s="92"/>
+      <c r="BW49" s="92"/>
+      <c r="BX49" s="92"/>
+      <c r="BY49" s="92"/>
+      <c r="BZ49" s="92"/>
+      <c r="CA49" s="92"/>
+      <c r="CB49" s="92"/>
+      <c r="CC49" s="92"/>
+      <c r="CD49" s="92"/>
+      <c r="CE49" s="92"/>
+      <c r="CF49" s="92"/>
+      <c r="CG49" s="92"/>
+      <c r="CH49" s="92"/>
+      <c r="CI49" s="92"/>
+      <c r="CJ49" s="92"/>
+      <c r="CK49" s="92"/>
+      <c r="CL49" s="92"/>
+      <c r="CM49" s="92"/>
+      <c r="CN49" s="92"/>
+      <c r="CO49" s="92"/>
+      <c r="CP49" s="92"/>
+      <c r="CQ49" s="92"/>
+      <c r="CR49" s="92"/>
+      <c r="CS49" s="92"/>
+      <c r="CT49" s="92"/>
+      <c r="CU49" s="92"/>
+      <c r="CV49" s="92"/>
+      <c r="CW49" s="92"/>
+      <c r="CX49" s="92"/>
+      <c r="CY49" s="92"/>
+      <c r="CZ49" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="DA49" s="120"/>
-      <c r="DB49" s="120"/>
-      <c r="DC49" s="120"/>
-      <c r="DD49" s="121"/>
-      <c r="DE49" s="73"/>
-      <c r="DF49" s="73"/>
-      <c r="DG49" s="73"/>
-      <c r="DH49" s="73"/>
-      <c r="DI49" s="73"/>
-      <c r="DJ49" s="73"/>
+      <c r="DA49" s="74"/>
+      <c r="DB49" s="74"/>
+      <c r="DC49" s="74"/>
+      <c r="DD49" s="89"/>
+      <c r="DE49" s="77"/>
+      <c r="DF49" s="77"/>
+      <c r="DG49" s="77"/>
+      <c r="DH49" s="77"/>
+      <c r="DI49" s="77"/>
+      <c r="DJ49" s="77"/>
       <c r="DK49" s="32"/>
       <c r="DL49" s="32"/>
       <c r="DM49" s="32"/>
@@ -6956,217 +6946,217 @@
     </row>
     <row r="51" spans="1:120" s="31" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="52"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="77"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="79"/>
-      <c r="T51" s="77"/>
-      <c r="U51" s="78"/>
-      <c r="V51" s="79"/>
-      <c r="W51" s="77"/>
-      <c r="X51" s="78"/>
-      <c r="Y51" s="79"/>
-      <c r="Z51" s="77"/>
-      <c r="AA51" s="78"/>
-      <c r="AB51" s="79"/>
-      <c r="AC51" s="77"/>
-      <c r="AD51" s="78"/>
-      <c r="AE51" s="79"/>
-      <c r="AF51" s="77"/>
-      <c r="AG51" s="78"/>
-      <c r="AH51" s="79"/>
-      <c r="AI51" s="77"/>
-      <c r="AJ51" s="78"/>
-      <c r="AK51" s="79"/>
-      <c r="AL51" s="77"/>
-      <c r="AM51" s="78"/>
-      <c r="AN51" s="79"/>
-      <c r="AO51" s="77"/>
-      <c r="AP51" s="78"/>
-      <c r="AQ51" s="79"/>
-      <c r="AR51" s="77"/>
-      <c r="AS51" s="78"/>
-      <c r="AT51" s="79"/>
-      <c r="AU51" s="77"/>
-      <c r="AV51" s="78"/>
-      <c r="AW51" s="79"/>
-      <c r="AX51" s="77"/>
-      <c r="AY51" s="78"/>
-      <c r="AZ51" s="79"/>
-      <c r="BA51" s="77"/>
-      <c r="BB51" s="78"/>
-      <c r="BC51" s="79"/>
-      <c r="BD51" s="77"/>
-      <c r="BE51" s="78"/>
-      <c r="BF51" s="79"/>
-      <c r="BG51" s="77"/>
-      <c r="BH51" s="78"/>
-      <c r="BI51" s="79"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="79"/>
+      <c r="R51" s="80"/>
+      <c r="S51" s="81"/>
+      <c r="T51" s="79"/>
+      <c r="U51" s="80"/>
+      <c r="V51" s="81"/>
+      <c r="W51" s="79"/>
+      <c r="X51" s="80"/>
+      <c r="Y51" s="81"/>
+      <c r="Z51" s="79"/>
+      <c r="AA51" s="80"/>
+      <c r="AB51" s="81"/>
+      <c r="AC51" s="79"/>
+      <c r="AD51" s="80"/>
+      <c r="AE51" s="81"/>
+      <c r="AF51" s="79"/>
+      <c r="AG51" s="80"/>
+      <c r="AH51" s="81"/>
+      <c r="AI51" s="79"/>
+      <c r="AJ51" s="80"/>
+      <c r="AK51" s="81"/>
+      <c r="AL51" s="79"/>
+      <c r="AM51" s="80"/>
+      <c r="AN51" s="81"/>
+      <c r="AO51" s="79"/>
+      <c r="AP51" s="80"/>
+      <c r="AQ51" s="81"/>
+      <c r="AR51" s="79"/>
+      <c r="AS51" s="80"/>
+      <c r="AT51" s="81"/>
+      <c r="AU51" s="79"/>
+      <c r="AV51" s="80"/>
+      <c r="AW51" s="81"/>
+      <c r="AX51" s="79"/>
+      <c r="AY51" s="80"/>
+      <c r="AZ51" s="81"/>
+      <c r="BA51" s="79"/>
+      <c r="BB51" s="80"/>
+      <c r="BC51" s="81"/>
+      <c r="BD51" s="79"/>
+      <c r="BE51" s="80"/>
+      <c r="BF51" s="81"/>
+      <c r="BG51" s="79"/>
+      <c r="BH51" s="80"/>
+      <c r="BI51" s="81"/>
       <c r="BK51" s="53"/>
-      <c r="BM51" s="74" t="s">
+      <c r="BM51" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="BN51" s="74"/>
-      <c r="BO51" s="74"/>
-      <c r="BP51" s="74"/>
-      <c r="BQ51" s="74"/>
-      <c r="BR51" s="74"/>
-      <c r="BS51" s="74"/>
-      <c r="BT51" s="74"/>
-      <c r="BU51" s="74"/>
-      <c r="BV51" s="74"/>
-      <c r="BW51" s="74"/>
-      <c r="BX51" s="74"/>
-      <c r="BY51" s="74"/>
-      <c r="BZ51" s="74"/>
-      <c r="CA51" s="74"/>
-      <c r="CB51" s="74"/>
-      <c r="CC51" s="74"/>
-      <c r="CD51" s="74"/>
-      <c r="CE51" s="74"/>
-      <c r="CF51" s="74"/>
-      <c r="CG51" s="74"/>
-      <c r="CH51" s="74"/>
-      <c r="CI51" s="74"/>
-      <c r="CJ51" s="74"/>
-      <c r="CK51" s="74"/>
+      <c r="BN51" s="122"/>
+      <c r="BO51" s="122"/>
+      <c r="BP51" s="122"/>
+      <c r="BQ51" s="122"/>
+      <c r="BR51" s="122"/>
+      <c r="BS51" s="122"/>
+      <c r="BT51" s="122"/>
+      <c r="BU51" s="122"/>
+      <c r="BV51" s="122"/>
+      <c r="BW51" s="122"/>
+      <c r="BX51" s="122"/>
+      <c r="BY51" s="122"/>
+      <c r="BZ51" s="122"/>
+      <c r="CA51" s="122"/>
+      <c r="CB51" s="122"/>
+      <c r="CC51" s="122"/>
+      <c r="CD51" s="122"/>
+      <c r="CE51" s="122"/>
+      <c r="CF51" s="122"/>
+      <c r="CG51" s="122"/>
+      <c r="CH51" s="122"/>
+      <c r="CI51" s="122"/>
+      <c r="CJ51" s="122"/>
+      <c r="CK51" s="122"/>
     </row>
     <row r="52" spans="1:120" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="52"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="80"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="80"/>
-      <c r="U52" s="81"/>
-      <c r="V52" s="82"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="81"/>
-      <c r="Y52" s="82"/>
-      <c r="Z52" s="80"/>
-      <c r="AA52" s="81"/>
-      <c r="AB52" s="82"/>
-      <c r="AC52" s="80"/>
-      <c r="AD52" s="81"/>
-      <c r="AE52" s="82"/>
-      <c r="AF52" s="80"/>
-      <c r="AG52" s="81"/>
-      <c r="AH52" s="82"/>
-      <c r="AI52" s="80"/>
-      <c r="AJ52" s="81"/>
-      <c r="AK52" s="82"/>
-      <c r="AL52" s="80"/>
-      <c r="AM52" s="81"/>
-      <c r="AN52" s="82"/>
-      <c r="AO52" s="80"/>
-      <c r="AP52" s="81"/>
-      <c r="AQ52" s="82"/>
-      <c r="AR52" s="80"/>
-      <c r="AS52" s="81"/>
-      <c r="AT52" s="82"/>
-      <c r="AU52" s="80"/>
-      <c r="AV52" s="81"/>
-      <c r="AW52" s="82"/>
-      <c r="AX52" s="80"/>
-      <c r="AY52" s="81"/>
-      <c r="AZ52" s="82"/>
-      <c r="BA52" s="80"/>
-      <c r="BB52" s="81"/>
-      <c r="BC52" s="82"/>
-      <c r="BD52" s="80"/>
-      <c r="BE52" s="81"/>
-      <c r="BF52" s="82"/>
-      <c r="BG52" s="80"/>
-      <c r="BH52" s="81"/>
-      <c r="BI52" s="82"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="82"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="84"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="83"/>
+      <c r="Y52" s="84"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="83"/>
+      <c r="AB52" s="84"/>
+      <c r="AC52" s="82"/>
+      <c r="AD52" s="83"/>
+      <c r="AE52" s="84"/>
+      <c r="AF52" s="82"/>
+      <c r="AG52" s="83"/>
+      <c r="AH52" s="84"/>
+      <c r="AI52" s="82"/>
+      <c r="AJ52" s="83"/>
+      <c r="AK52" s="84"/>
+      <c r="AL52" s="82"/>
+      <c r="AM52" s="83"/>
+      <c r="AN52" s="84"/>
+      <c r="AO52" s="82"/>
+      <c r="AP52" s="83"/>
+      <c r="AQ52" s="84"/>
+      <c r="AR52" s="82"/>
+      <c r="AS52" s="83"/>
+      <c r="AT52" s="84"/>
+      <c r="AU52" s="82"/>
+      <c r="AV52" s="83"/>
+      <c r="AW52" s="84"/>
+      <c r="AX52" s="82"/>
+      <c r="AY52" s="83"/>
+      <c r="AZ52" s="84"/>
+      <c r="BA52" s="82"/>
+      <c r="BB52" s="83"/>
+      <c r="BC52" s="84"/>
+      <c r="BD52" s="82"/>
+      <c r="BE52" s="83"/>
+      <c r="BF52" s="84"/>
+      <c r="BG52" s="82"/>
+      <c r="BH52" s="83"/>
+      <c r="BI52" s="84"/>
       <c r="BK52" s="53"/>
-      <c r="BM52" s="74"/>
-      <c r="BN52" s="74"/>
-      <c r="BO52" s="74"/>
-      <c r="BP52" s="74"/>
-      <c r="BQ52" s="74"/>
-      <c r="BR52" s="74"/>
-      <c r="BS52" s="74"/>
-      <c r="BT52" s="74"/>
-      <c r="BU52" s="74"/>
-      <c r="BV52" s="74"/>
-      <c r="BW52" s="74"/>
-      <c r="BX52" s="74"/>
-      <c r="BY52" s="74"/>
-      <c r="BZ52" s="74"/>
-      <c r="CA52" s="74"/>
-      <c r="CB52" s="74"/>
-      <c r="CC52" s="74"/>
-      <c r="CD52" s="74"/>
-      <c r="CE52" s="74"/>
-      <c r="CF52" s="74"/>
-      <c r="CG52" s="74"/>
-      <c r="CH52" s="74"/>
-      <c r="CI52" s="74"/>
-      <c r="CJ52" s="74"/>
-      <c r="CK52" s="74"/>
-      <c r="CM52" s="94"/>
-      <c r="CN52" s="95"/>
-      <c r="CO52" s="96"/>
-      <c r="CP52" s="94"/>
-      <c r="CQ52" s="95"/>
-      <c r="CR52" s="96"/>
-      <c r="CS52" s="100" t="s">
+      <c r="BM52" s="122"/>
+      <c r="BN52" s="122"/>
+      <c r="BO52" s="122"/>
+      <c r="BP52" s="122"/>
+      <c r="BQ52" s="122"/>
+      <c r="BR52" s="122"/>
+      <c r="BS52" s="122"/>
+      <c r="BT52" s="122"/>
+      <c r="BU52" s="122"/>
+      <c r="BV52" s="122"/>
+      <c r="BW52" s="122"/>
+      <c r="BX52" s="122"/>
+      <c r="BY52" s="122"/>
+      <c r="BZ52" s="122"/>
+      <c r="CA52" s="122"/>
+      <c r="CB52" s="122"/>
+      <c r="CC52" s="122"/>
+      <c r="CD52" s="122"/>
+      <c r="CE52" s="122"/>
+      <c r="CF52" s="122"/>
+      <c r="CG52" s="122"/>
+      <c r="CH52" s="122"/>
+      <c r="CI52" s="122"/>
+      <c r="CJ52" s="122"/>
+      <c r="CK52" s="122"/>
+      <c r="CM52" s="109"/>
+      <c r="CN52" s="110"/>
+      <c r="CO52" s="111"/>
+      <c r="CP52" s="109"/>
+      <c r="CQ52" s="110"/>
+      <c r="CR52" s="111"/>
+      <c r="CS52" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="CT52" s="92"/>
-      <c r="CU52" s="92"/>
-      <c r="CV52" s="94"/>
-      <c r="CW52" s="95"/>
-      <c r="CX52" s="96"/>
-      <c r="CY52" s="94"/>
-      <c r="CZ52" s="95"/>
-      <c r="DA52" s="96"/>
-      <c r="DB52" s="100" t="s">
+      <c r="CT52" s="100"/>
+      <c r="CU52" s="100"/>
+      <c r="CV52" s="109"/>
+      <c r="CW52" s="110"/>
+      <c r="CX52" s="111"/>
+      <c r="CY52" s="109"/>
+      <c r="CZ52" s="110"/>
+      <c r="DA52" s="111"/>
+      <c r="DB52" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="DC52" s="92"/>
-      <c r="DD52" s="92"/>
-      <c r="DE52" s="94"/>
-      <c r="DF52" s="95"/>
-      <c r="DG52" s="96"/>
-      <c r="DH52" s="94"/>
-      <c r="DI52" s="95"/>
-      <c r="DJ52" s="96"/>
-      <c r="DK52" s="94"/>
-      <c r="DL52" s="95"/>
-      <c r="DM52" s="96"/>
-      <c r="DN52" s="94"/>
-      <c r="DO52" s="95"/>
-      <c r="DP52" s="96"/>
+      <c r="DC52" s="100"/>
+      <c r="DD52" s="100"/>
+      <c r="DE52" s="109"/>
+      <c r="DF52" s="110"/>
+      <c r="DG52" s="111"/>
+      <c r="DH52" s="109"/>
+      <c r="DI52" s="110"/>
+      <c r="DJ52" s="111"/>
+      <c r="DK52" s="109"/>
+      <c r="DL52" s="110"/>
+      <c r="DM52" s="111"/>
+      <c r="DN52" s="109"/>
+      <c r="DO52" s="110"/>
+      <c r="DP52" s="111"/>
     </row>
     <row r="53" spans="1:120" s="31" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="52"/>
@@ -7230,233 +7220,233 @@
       <c r="BG53" s="37"/>
       <c r="BH53" s="37"/>
       <c r="BK53" s="53"/>
-      <c r="BM53" s="74"/>
-      <c r="BN53" s="74"/>
-      <c r="BO53" s="74"/>
-      <c r="BP53" s="74"/>
-      <c r="BQ53" s="74"/>
-      <c r="BR53" s="74"/>
-      <c r="BS53" s="74"/>
-      <c r="BT53" s="74"/>
-      <c r="BU53" s="74"/>
-      <c r="BV53" s="74"/>
-      <c r="BW53" s="74"/>
-      <c r="BX53" s="74"/>
-      <c r="BY53" s="74"/>
-      <c r="BZ53" s="74"/>
-      <c r="CA53" s="74"/>
-      <c r="CB53" s="74"/>
-      <c r="CC53" s="74"/>
-      <c r="CD53" s="74"/>
-      <c r="CE53" s="74"/>
-      <c r="CF53" s="74"/>
-      <c r="CG53" s="74"/>
-      <c r="CH53" s="74"/>
-      <c r="CI53" s="74"/>
-      <c r="CJ53" s="74"/>
-      <c r="CK53" s="74"/>
-      <c r="CM53" s="97"/>
-      <c r="CN53" s="98"/>
-      <c r="CO53" s="99"/>
-      <c r="CP53" s="97"/>
-      <c r="CQ53" s="98"/>
-      <c r="CR53" s="99"/>
-      <c r="CS53" s="100"/>
-      <c r="CT53" s="92"/>
-      <c r="CU53" s="92"/>
-      <c r="CV53" s="97"/>
-      <c r="CW53" s="98"/>
-      <c r="CX53" s="99"/>
-      <c r="CY53" s="97"/>
-      <c r="CZ53" s="98"/>
-      <c r="DA53" s="99"/>
-      <c r="DB53" s="100"/>
-      <c r="DC53" s="92"/>
-      <c r="DD53" s="92"/>
-      <c r="DE53" s="97"/>
-      <c r="DF53" s="98"/>
-      <c r="DG53" s="99"/>
-      <c r="DH53" s="97"/>
-      <c r="DI53" s="98"/>
-      <c r="DJ53" s="99"/>
-      <c r="DK53" s="97"/>
-      <c r="DL53" s="98"/>
-      <c r="DM53" s="99"/>
-      <c r="DN53" s="97"/>
-      <c r="DO53" s="98"/>
-      <c r="DP53" s="99"/>
+      <c r="BM53" s="122"/>
+      <c r="BN53" s="122"/>
+      <c r="BO53" s="122"/>
+      <c r="BP53" s="122"/>
+      <c r="BQ53" s="122"/>
+      <c r="BR53" s="122"/>
+      <c r="BS53" s="122"/>
+      <c r="BT53" s="122"/>
+      <c r="BU53" s="122"/>
+      <c r="BV53" s="122"/>
+      <c r="BW53" s="122"/>
+      <c r="BX53" s="122"/>
+      <c r="BY53" s="122"/>
+      <c r="BZ53" s="122"/>
+      <c r="CA53" s="122"/>
+      <c r="CB53" s="122"/>
+      <c r="CC53" s="122"/>
+      <c r="CD53" s="122"/>
+      <c r="CE53" s="122"/>
+      <c r="CF53" s="122"/>
+      <c r="CG53" s="122"/>
+      <c r="CH53" s="122"/>
+      <c r="CI53" s="122"/>
+      <c r="CJ53" s="122"/>
+      <c r="CK53" s="122"/>
+      <c r="CM53" s="112"/>
+      <c r="CN53" s="113"/>
+      <c r="CO53" s="114"/>
+      <c r="CP53" s="112"/>
+      <c r="CQ53" s="113"/>
+      <c r="CR53" s="114"/>
+      <c r="CS53" s="108"/>
+      <c r="CT53" s="100"/>
+      <c r="CU53" s="100"/>
+      <c r="CV53" s="112"/>
+      <c r="CW53" s="113"/>
+      <c r="CX53" s="114"/>
+      <c r="CY53" s="112"/>
+      <c r="CZ53" s="113"/>
+      <c r="DA53" s="114"/>
+      <c r="DB53" s="108"/>
+      <c r="DC53" s="100"/>
+      <c r="DD53" s="100"/>
+      <c r="DE53" s="112"/>
+      <c r="DF53" s="113"/>
+      <c r="DG53" s="114"/>
+      <c r="DH53" s="112"/>
+      <c r="DI53" s="113"/>
+      <c r="DJ53" s="114"/>
+      <c r="DK53" s="112"/>
+      <c r="DL53" s="113"/>
+      <c r="DM53" s="114"/>
+      <c r="DN53" s="112"/>
+      <c r="DO53" s="113"/>
+      <c r="DP53" s="114"/>
     </row>
     <row r="54" spans="1:120" s="31" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="78"/>
-      <c r="S54" s="79"/>
-      <c r="T54" s="77"/>
-      <c r="U54" s="78"/>
-      <c r="V54" s="79"/>
-      <c r="W54" s="77"/>
-      <c r="X54" s="78"/>
-      <c r="Y54" s="79"/>
-      <c r="Z54" s="77"/>
-      <c r="AA54" s="78"/>
-      <c r="AB54" s="79"/>
-      <c r="AC54" s="77"/>
-      <c r="AD54" s="78"/>
-      <c r="AE54" s="79"/>
-      <c r="AF54" s="77"/>
-      <c r="AG54" s="78"/>
-      <c r="AH54" s="79"/>
-      <c r="AI54" s="77"/>
-      <c r="AJ54" s="78"/>
-      <c r="AK54" s="79"/>
-      <c r="AL54" s="77"/>
-      <c r="AM54" s="78"/>
-      <c r="AN54" s="79"/>
-      <c r="AO54" s="77"/>
-      <c r="AP54" s="78"/>
-      <c r="AQ54" s="79"/>
-      <c r="AR54" s="77"/>
-      <c r="AS54" s="78"/>
-      <c r="AT54" s="79"/>
-      <c r="AU54" s="77"/>
-      <c r="AV54" s="78"/>
-      <c r="AW54" s="79"/>
-      <c r="AX54" s="77"/>
-      <c r="AY54" s="78"/>
-      <c r="AZ54" s="79"/>
-      <c r="BA54" s="77"/>
-      <c r="BB54" s="78"/>
-      <c r="BC54" s="79"/>
-      <c r="BD54" s="77"/>
-      <c r="BE54" s="78"/>
-      <c r="BF54" s="79"/>
-      <c r="BG54" s="77"/>
-      <c r="BH54" s="78"/>
-      <c r="BI54" s="79"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="81"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="79"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="81"/>
+      <c r="T54" s="79"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="81"/>
+      <c r="W54" s="79"/>
+      <c r="X54" s="80"/>
+      <c r="Y54" s="81"/>
+      <c r="Z54" s="79"/>
+      <c r="AA54" s="80"/>
+      <c r="AB54" s="81"/>
+      <c r="AC54" s="79"/>
+      <c r="AD54" s="80"/>
+      <c r="AE54" s="81"/>
+      <c r="AF54" s="79"/>
+      <c r="AG54" s="80"/>
+      <c r="AH54" s="81"/>
+      <c r="AI54" s="79"/>
+      <c r="AJ54" s="80"/>
+      <c r="AK54" s="81"/>
+      <c r="AL54" s="79"/>
+      <c r="AM54" s="80"/>
+      <c r="AN54" s="81"/>
+      <c r="AO54" s="79"/>
+      <c r="AP54" s="80"/>
+      <c r="AQ54" s="81"/>
+      <c r="AR54" s="79"/>
+      <c r="AS54" s="80"/>
+      <c r="AT54" s="81"/>
+      <c r="AU54" s="79"/>
+      <c r="AV54" s="80"/>
+      <c r="AW54" s="81"/>
+      <c r="AX54" s="79"/>
+      <c r="AY54" s="80"/>
+      <c r="AZ54" s="81"/>
+      <c r="BA54" s="79"/>
+      <c r="BB54" s="80"/>
+      <c r="BC54" s="81"/>
+      <c r="BD54" s="79"/>
+      <c r="BE54" s="80"/>
+      <c r="BF54" s="81"/>
+      <c r="BG54" s="79"/>
+      <c r="BH54" s="80"/>
+      <c r="BI54" s="81"/>
       <c r="BK54" s="53"/>
-      <c r="BM54" s="74"/>
-      <c r="BN54" s="74"/>
-      <c r="BO54" s="74"/>
-      <c r="BP54" s="74"/>
-      <c r="BQ54" s="74"/>
-      <c r="BR54" s="74"/>
-      <c r="BS54" s="74"/>
-      <c r="BT54" s="74"/>
-      <c r="BU54" s="74"/>
-      <c r="BV54" s="74"/>
-      <c r="BW54" s="74"/>
-      <c r="BX54" s="74"/>
-      <c r="BY54" s="74"/>
-      <c r="BZ54" s="74"/>
-      <c r="CA54" s="74"/>
-      <c r="CB54" s="74"/>
-      <c r="CC54" s="74"/>
-      <c r="CD54" s="74"/>
-      <c r="CE54" s="74"/>
-      <c r="CF54" s="74"/>
-      <c r="CG54" s="74"/>
-      <c r="CH54" s="74"/>
-      <c r="CI54" s="74"/>
-      <c r="CJ54" s="74"/>
-      <c r="CK54" s="74"/>
+      <c r="BM54" s="122"/>
+      <c r="BN54" s="122"/>
+      <c r="BO54" s="122"/>
+      <c r="BP54" s="122"/>
+      <c r="BQ54" s="122"/>
+      <c r="BR54" s="122"/>
+      <c r="BS54" s="122"/>
+      <c r="BT54" s="122"/>
+      <c r="BU54" s="122"/>
+      <c r="BV54" s="122"/>
+      <c r="BW54" s="122"/>
+      <c r="BX54" s="122"/>
+      <c r="BY54" s="122"/>
+      <c r="BZ54" s="122"/>
+      <c r="CA54" s="122"/>
+      <c r="CB54" s="122"/>
+      <c r="CC54" s="122"/>
+      <c r="CD54" s="122"/>
+      <c r="CE54" s="122"/>
+      <c r="CF54" s="122"/>
+      <c r="CG54" s="122"/>
+      <c r="CH54" s="122"/>
+      <c r="CI54" s="122"/>
+      <c r="CJ54" s="122"/>
+      <c r="CK54" s="122"/>
     </row>
     <row r="55" spans="1:120" s="31" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="90"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="89"/>
-      <c r="P55" s="90"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="89"/>
-      <c r="S55" s="90"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="89"/>
-      <c r="V55" s="90"/>
-      <c r="W55" s="88"/>
-      <c r="X55" s="89"/>
-      <c r="Y55" s="90"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="89"/>
-      <c r="AB55" s="90"/>
-      <c r="AC55" s="88"/>
-      <c r="AD55" s="89"/>
-      <c r="AE55" s="90"/>
-      <c r="AF55" s="88"/>
-      <c r="AG55" s="89"/>
-      <c r="AH55" s="90"/>
-      <c r="AI55" s="88"/>
-      <c r="AJ55" s="89"/>
-      <c r="AK55" s="90"/>
-      <c r="AL55" s="88"/>
-      <c r="AM55" s="89"/>
-      <c r="AN55" s="90"/>
-      <c r="AO55" s="88"/>
-      <c r="AP55" s="89"/>
-      <c r="AQ55" s="90"/>
-      <c r="AR55" s="88"/>
-      <c r="AS55" s="89"/>
-      <c r="AT55" s="90"/>
-      <c r="AU55" s="88"/>
-      <c r="AV55" s="89"/>
-      <c r="AW55" s="90"/>
-      <c r="AX55" s="88"/>
-      <c r="AY55" s="89"/>
-      <c r="AZ55" s="90"/>
-      <c r="BA55" s="88"/>
-      <c r="BB55" s="89"/>
-      <c r="BC55" s="90"/>
-      <c r="BD55" s="88"/>
-      <c r="BE55" s="89"/>
-      <c r="BF55" s="90"/>
-      <c r="BG55" s="88"/>
-      <c r="BH55" s="89"/>
-      <c r="BI55" s="90"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="106"/>
+      <c r="M55" s="107"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="106"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="105"/>
+      <c r="R55" s="106"/>
+      <c r="S55" s="107"/>
+      <c r="T55" s="105"/>
+      <c r="U55" s="106"/>
+      <c r="V55" s="107"/>
+      <c r="W55" s="105"/>
+      <c r="X55" s="106"/>
+      <c r="Y55" s="107"/>
+      <c r="Z55" s="105"/>
+      <c r="AA55" s="106"/>
+      <c r="AB55" s="107"/>
+      <c r="AC55" s="105"/>
+      <c r="AD55" s="106"/>
+      <c r="AE55" s="107"/>
+      <c r="AF55" s="105"/>
+      <c r="AG55" s="106"/>
+      <c r="AH55" s="107"/>
+      <c r="AI55" s="105"/>
+      <c r="AJ55" s="106"/>
+      <c r="AK55" s="107"/>
+      <c r="AL55" s="105"/>
+      <c r="AM55" s="106"/>
+      <c r="AN55" s="107"/>
+      <c r="AO55" s="105"/>
+      <c r="AP55" s="106"/>
+      <c r="AQ55" s="107"/>
+      <c r="AR55" s="105"/>
+      <c r="AS55" s="106"/>
+      <c r="AT55" s="107"/>
+      <c r="AU55" s="105"/>
+      <c r="AV55" s="106"/>
+      <c r="AW55" s="107"/>
+      <c r="AX55" s="105"/>
+      <c r="AY55" s="106"/>
+      <c r="AZ55" s="107"/>
+      <c r="BA55" s="105"/>
+      <c r="BB55" s="106"/>
+      <c r="BC55" s="107"/>
+      <c r="BD55" s="105"/>
+      <c r="BE55" s="106"/>
+      <c r="BF55" s="107"/>
+      <c r="BG55" s="105"/>
+      <c r="BH55" s="106"/>
+      <c r="BI55" s="107"/>
       <c r="BK55" s="53"/>
-      <c r="BM55" s="75" t="s">
+      <c r="BM55" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="BN55" s="75"/>
-      <c r="BO55" s="75"/>
-      <c r="BP55" s="75"/>
-      <c r="BQ55" s="75"/>
-      <c r="BR55" s="75"/>
-      <c r="BS55" s="75"/>
-      <c r="BT55" s="75"/>
-      <c r="BU55" s="75"/>
-      <c r="BV55" s="75"/>
-      <c r="BW55" s="75"/>
-      <c r="BX55" s="75"/>
-      <c r="BY55" s="75"/>
-      <c r="BZ55" s="75"/>
-      <c r="CA55" s="75"/>
-      <c r="CB55" s="75"/>
-      <c r="CC55" s="75"/>
+      <c r="BN55" s="123"/>
+      <c r="BO55" s="123"/>
+      <c r="BP55" s="123"/>
+      <c r="BQ55" s="123"/>
+      <c r="BR55" s="123"/>
+      <c r="BS55" s="123"/>
+      <c r="BT55" s="123"/>
+      <c r="BU55" s="123"/>
+      <c r="BV55" s="123"/>
+      <c r="BW55" s="123"/>
+      <c r="BX55" s="123"/>
+      <c r="BY55" s="123"/>
+      <c r="BZ55" s="123"/>
+      <c r="CA55" s="123"/>
+      <c r="CB55" s="123"/>
+      <c r="CC55" s="123"/>
       <c r="CD55" s="54"/>
       <c r="CE55" s="54"/>
       <c r="CF55" s="54"/>
@@ -7468,246 +7458,246 @@
     </row>
     <row r="56" spans="1:120" s="31" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="37"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="81"/>
-      <c r="P56" s="82"/>
-      <c r="Q56" s="80"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="82"/>
-      <c r="T56" s="80"/>
-      <c r="U56" s="81"/>
-      <c r="V56" s="82"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="81"/>
-      <c r="Y56" s="82"/>
-      <c r="Z56" s="80"/>
-      <c r="AA56" s="81"/>
-      <c r="AB56" s="82"/>
-      <c r="AC56" s="80"/>
-      <c r="AD56" s="81"/>
-      <c r="AE56" s="82"/>
-      <c r="AF56" s="80"/>
-      <c r="AG56" s="81"/>
-      <c r="AH56" s="82"/>
-      <c r="AI56" s="80"/>
-      <c r="AJ56" s="81"/>
-      <c r="AK56" s="82"/>
-      <c r="AL56" s="80"/>
-      <c r="AM56" s="81"/>
-      <c r="AN56" s="82"/>
-      <c r="AO56" s="80"/>
-      <c r="AP56" s="81"/>
-      <c r="AQ56" s="82"/>
-      <c r="AR56" s="80"/>
-      <c r="AS56" s="81"/>
-      <c r="AT56" s="82"/>
-      <c r="AU56" s="80"/>
-      <c r="AV56" s="81"/>
-      <c r="AW56" s="82"/>
-      <c r="AX56" s="80"/>
-      <c r="AY56" s="81"/>
-      <c r="AZ56" s="82"/>
-      <c r="BA56" s="80"/>
-      <c r="BB56" s="81"/>
-      <c r="BC56" s="82"/>
-      <c r="BD56" s="80"/>
-      <c r="BE56" s="81"/>
-      <c r="BF56" s="82"/>
-      <c r="BG56" s="80"/>
-      <c r="BH56" s="81"/>
-      <c r="BI56" s="82"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="82"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="82"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="82"/>
+      <c r="U56" s="83"/>
+      <c r="V56" s="84"/>
+      <c r="W56" s="82"/>
+      <c r="X56" s="83"/>
+      <c r="Y56" s="84"/>
+      <c r="Z56" s="82"/>
+      <c r="AA56" s="83"/>
+      <c r="AB56" s="84"/>
+      <c r="AC56" s="82"/>
+      <c r="AD56" s="83"/>
+      <c r="AE56" s="84"/>
+      <c r="AF56" s="82"/>
+      <c r="AG56" s="83"/>
+      <c r="AH56" s="84"/>
+      <c r="AI56" s="82"/>
+      <c r="AJ56" s="83"/>
+      <c r="AK56" s="84"/>
+      <c r="AL56" s="82"/>
+      <c r="AM56" s="83"/>
+      <c r="AN56" s="84"/>
+      <c r="AO56" s="82"/>
+      <c r="AP56" s="83"/>
+      <c r="AQ56" s="84"/>
+      <c r="AR56" s="82"/>
+      <c r="AS56" s="83"/>
+      <c r="AT56" s="84"/>
+      <c r="AU56" s="82"/>
+      <c r="AV56" s="83"/>
+      <c r="AW56" s="84"/>
+      <c r="AX56" s="82"/>
+      <c r="AY56" s="83"/>
+      <c r="AZ56" s="84"/>
+      <c r="BA56" s="82"/>
+      <c r="BB56" s="83"/>
+      <c r="BC56" s="84"/>
+      <c r="BD56" s="82"/>
+      <c r="BE56" s="83"/>
+      <c r="BF56" s="84"/>
+      <c r="BG56" s="82"/>
+      <c r="BH56" s="83"/>
+      <c r="BI56" s="84"/>
       <c r="BK56" s="53"/>
-      <c r="BM56" s="75"/>
-      <c r="BN56" s="75"/>
-      <c r="BO56" s="75"/>
-      <c r="BP56" s="75"/>
-      <c r="BQ56" s="75"/>
-      <c r="BR56" s="75"/>
-      <c r="BS56" s="75"/>
-      <c r="BT56" s="75"/>
-      <c r="BU56" s="75"/>
-      <c r="BV56" s="75"/>
-      <c r="BW56" s="75"/>
-      <c r="BX56" s="75"/>
-      <c r="BY56" s="75"/>
-      <c r="BZ56" s="75"/>
-      <c r="CA56" s="75"/>
-      <c r="CB56" s="75"/>
-      <c r="CC56" s="75"/>
-      <c r="CD56" s="77"/>
-      <c r="CE56" s="78"/>
-      <c r="CF56" s="79"/>
-      <c r="CG56" s="77"/>
-      <c r="CH56" s="78"/>
-      <c r="CI56" s="79"/>
-      <c r="CJ56" s="77"/>
-      <c r="CK56" s="78"/>
-      <c r="CL56" s="79"/>
-      <c r="CM56" s="77"/>
-      <c r="CN56" s="78"/>
-      <c r="CO56" s="79"/>
-      <c r="CP56" s="77"/>
-      <c r="CQ56" s="78"/>
-      <c r="CR56" s="79"/>
-      <c r="CS56" s="77"/>
-      <c r="CT56" s="78"/>
-      <c r="CU56" s="79"/>
-      <c r="CV56" s="77"/>
-      <c r="CW56" s="78"/>
-      <c r="CX56" s="79"/>
-      <c r="CY56" s="77"/>
-      <c r="CZ56" s="78"/>
-      <c r="DA56" s="79"/>
-      <c r="DB56" s="77"/>
-      <c r="DC56" s="78"/>
-      <c r="DD56" s="79"/>
-      <c r="DE56" s="77"/>
-      <c r="DF56" s="78"/>
-      <c r="DG56" s="79"/>
-      <c r="DH56" s="77"/>
-      <c r="DI56" s="78"/>
-      <c r="DJ56" s="79"/>
-      <c r="DK56" s="77"/>
-      <c r="DL56" s="78"/>
-      <c r="DM56" s="79"/>
-      <c r="DN56" s="77"/>
-      <c r="DO56" s="78"/>
-      <c r="DP56" s="79"/>
+      <c r="BM56" s="123"/>
+      <c r="BN56" s="123"/>
+      <c r="BO56" s="123"/>
+      <c r="BP56" s="123"/>
+      <c r="BQ56" s="123"/>
+      <c r="BR56" s="123"/>
+      <c r="BS56" s="123"/>
+      <c r="BT56" s="123"/>
+      <c r="BU56" s="123"/>
+      <c r="BV56" s="123"/>
+      <c r="BW56" s="123"/>
+      <c r="BX56" s="123"/>
+      <c r="BY56" s="123"/>
+      <c r="BZ56" s="123"/>
+      <c r="CA56" s="123"/>
+      <c r="CB56" s="123"/>
+      <c r="CC56" s="123"/>
+      <c r="CD56" s="79"/>
+      <c r="CE56" s="80"/>
+      <c r="CF56" s="81"/>
+      <c r="CG56" s="79"/>
+      <c r="CH56" s="80"/>
+      <c r="CI56" s="81"/>
+      <c r="CJ56" s="79"/>
+      <c r="CK56" s="80"/>
+      <c r="CL56" s="81"/>
+      <c r="CM56" s="79"/>
+      <c r="CN56" s="80"/>
+      <c r="CO56" s="81"/>
+      <c r="CP56" s="79"/>
+      <c r="CQ56" s="80"/>
+      <c r="CR56" s="81"/>
+      <c r="CS56" s="79"/>
+      <c r="CT56" s="80"/>
+      <c r="CU56" s="81"/>
+      <c r="CV56" s="79"/>
+      <c r="CW56" s="80"/>
+      <c r="CX56" s="81"/>
+      <c r="CY56" s="79"/>
+      <c r="CZ56" s="80"/>
+      <c r="DA56" s="81"/>
+      <c r="DB56" s="79"/>
+      <c r="DC56" s="80"/>
+      <c r="DD56" s="81"/>
+      <c r="DE56" s="79"/>
+      <c r="DF56" s="80"/>
+      <c r="DG56" s="81"/>
+      <c r="DH56" s="79"/>
+      <c r="DI56" s="80"/>
+      <c r="DJ56" s="81"/>
+      <c r="DK56" s="79"/>
+      <c r="DL56" s="80"/>
+      <c r="DM56" s="81"/>
+      <c r="DN56" s="79"/>
+      <c r="DO56" s="80"/>
+      <c r="DP56" s="81"/>
     </row>
     <row r="57" spans="1:120" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="76" t="s">
+      <c r="A57" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="76"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="76"/>
-      <c r="U57" s="76"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="76"/>
-      <c r="X57" s="76"/>
-      <c r="Y57" s="76"/>
-      <c r="Z57" s="76"/>
-      <c r="AA57" s="76"/>
-      <c r="AB57" s="76"/>
-      <c r="AC57" s="76"/>
-      <c r="AD57" s="76"/>
-      <c r="AE57" s="76"/>
-      <c r="AF57" s="76"/>
-      <c r="AG57" s="76"/>
-      <c r="AH57" s="76"/>
-      <c r="AI57" s="76"/>
-      <c r="AJ57" s="76"/>
-      <c r="AK57" s="76"/>
-      <c r="AL57" s="76"/>
-      <c r="AM57" s="76"/>
-      <c r="AN57" s="76"/>
-      <c r="AO57" s="76"/>
-      <c r="AP57" s="76"/>
-      <c r="AQ57" s="76"/>
-      <c r="AR57" s="76"/>
-      <c r="AS57" s="76"/>
-      <c r="AT57" s="76"/>
-      <c r="AU57" s="76"/>
-      <c r="AV57" s="76"/>
-      <c r="AW57" s="76"/>
-      <c r="AX57" s="76"/>
-      <c r="AY57" s="76"/>
-      <c r="AZ57" s="76"/>
-      <c r="BA57" s="76"/>
-      <c r="BB57" s="76"/>
-      <c r="BC57" s="76"/>
-      <c r="BD57" s="76"/>
-      <c r="BE57" s="76"/>
-      <c r="BF57" s="76"/>
-      <c r="BG57" s="76"/>
-      <c r="BH57" s="76"/>
-      <c r="BI57" s="76"/>
-      <c r="BJ57" s="76"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="124"/>
+      <c r="P57" s="124"/>
+      <c r="Q57" s="124"/>
+      <c r="R57" s="124"/>
+      <c r="S57" s="124"/>
+      <c r="T57" s="124"/>
+      <c r="U57" s="124"/>
+      <c r="V57" s="124"/>
+      <c r="W57" s="124"/>
+      <c r="X57" s="124"/>
+      <c r="Y57" s="124"/>
+      <c r="Z57" s="124"/>
+      <c r="AA57" s="124"/>
+      <c r="AB57" s="124"/>
+      <c r="AC57" s="124"/>
+      <c r="AD57" s="124"/>
+      <c r="AE57" s="124"/>
+      <c r="AF57" s="124"/>
+      <c r="AG57" s="124"/>
+      <c r="AH57" s="124"/>
+      <c r="AI57" s="124"/>
+      <c r="AJ57" s="124"/>
+      <c r="AK57" s="124"/>
+      <c r="AL57" s="124"/>
+      <c r="AM57" s="124"/>
+      <c r="AN57" s="124"/>
+      <c r="AO57" s="124"/>
+      <c r="AP57" s="124"/>
+      <c r="AQ57" s="124"/>
+      <c r="AR57" s="124"/>
+      <c r="AS57" s="124"/>
+      <c r="AT57" s="124"/>
+      <c r="AU57" s="124"/>
+      <c r="AV57" s="124"/>
+      <c r="AW57" s="124"/>
+      <c r="AX57" s="124"/>
+      <c r="AY57" s="124"/>
+      <c r="AZ57" s="124"/>
+      <c r="BA57" s="124"/>
+      <c r="BB57" s="124"/>
+      <c r="BC57" s="124"/>
+      <c r="BD57" s="124"/>
+      <c r="BE57" s="124"/>
+      <c r="BF57" s="124"/>
+      <c r="BG57" s="124"/>
+      <c r="BH57" s="124"/>
+      <c r="BI57" s="124"/>
+      <c r="BJ57" s="124"/>
       <c r="BK57" s="53"/>
-      <c r="BM57" s="75"/>
-      <c r="BN57" s="75"/>
-      <c r="BO57" s="75"/>
-      <c r="BP57" s="75"/>
-      <c r="BQ57" s="75"/>
-      <c r="BR57" s="75"/>
-      <c r="BS57" s="75"/>
-      <c r="BT57" s="75"/>
-      <c r="BU57" s="75"/>
-      <c r="BV57" s="75"/>
-      <c r="BW57" s="75"/>
-      <c r="BX57" s="75"/>
-      <c r="BY57" s="75"/>
-      <c r="BZ57" s="75"/>
-      <c r="CA57" s="75"/>
-      <c r="CB57" s="75"/>
-      <c r="CC57" s="75"/>
-      <c r="CD57" s="80"/>
-      <c r="CE57" s="81"/>
-      <c r="CF57" s="82"/>
-      <c r="CG57" s="80"/>
-      <c r="CH57" s="81"/>
-      <c r="CI57" s="82"/>
-      <c r="CJ57" s="80"/>
-      <c r="CK57" s="81"/>
-      <c r="CL57" s="82"/>
-      <c r="CM57" s="80"/>
-      <c r="CN57" s="81"/>
-      <c r="CO57" s="82"/>
-      <c r="CP57" s="80"/>
-      <c r="CQ57" s="81"/>
-      <c r="CR57" s="82"/>
-      <c r="CS57" s="80"/>
-      <c r="CT57" s="81"/>
-      <c r="CU57" s="82"/>
-      <c r="CV57" s="80"/>
-      <c r="CW57" s="81"/>
-      <c r="CX57" s="82"/>
-      <c r="CY57" s="80"/>
-      <c r="CZ57" s="81"/>
-      <c r="DA57" s="82"/>
-      <c r="DB57" s="80"/>
-      <c r="DC57" s="81"/>
-      <c r="DD57" s="82"/>
-      <c r="DE57" s="80"/>
-      <c r="DF57" s="81"/>
-      <c r="DG57" s="82"/>
-      <c r="DH57" s="80"/>
-      <c r="DI57" s="81"/>
-      <c r="DJ57" s="82"/>
-      <c r="DK57" s="80"/>
-      <c r="DL57" s="81"/>
-      <c r="DM57" s="82"/>
-      <c r="DN57" s="80"/>
-      <c r="DO57" s="81"/>
-      <c r="DP57" s="82"/>
+      <c r="BM57" s="123"/>
+      <c r="BN57" s="123"/>
+      <c r="BO57" s="123"/>
+      <c r="BP57" s="123"/>
+      <c r="BQ57" s="123"/>
+      <c r="BR57" s="123"/>
+      <c r="BS57" s="123"/>
+      <c r="BT57" s="123"/>
+      <c r="BU57" s="123"/>
+      <c r="BV57" s="123"/>
+      <c r="BW57" s="123"/>
+      <c r="BX57" s="123"/>
+      <c r="BY57" s="123"/>
+      <c r="BZ57" s="123"/>
+      <c r="CA57" s="123"/>
+      <c r="CB57" s="123"/>
+      <c r="CC57" s="123"/>
+      <c r="CD57" s="82"/>
+      <c r="CE57" s="83"/>
+      <c r="CF57" s="84"/>
+      <c r="CG57" s="82"/>
+      <c r="CH57" s="83"/>
+      <c r="CI57" s="84"/>
+      <c r="CJ57" s="82"/>
+      <c r="CK57" s="83"/>
+      <c r="CL57" s="84"/>
+      <c r="CM57" s="82"/>
+      <c r="CN57" s="83"/>
+      <c r="CO57" s="84"/>
+      <c r="CP57" s="82"/>
+      <c r="CQ57" s="83"/>
+      <c r="CR57" s="84"/>
+      <c r="CS57" s="82"/>
+      <c r="CT57" s="83"/>
+      <c r="CU57" s="84"/>
+      <c r="CV57" s="82"/>
+      <c r="CW57" s="83"/>
+      <c r="CX57" s="84"/>
+      <c r="CY57" s="82"/>
+      <c r="CZ57" s="83"/>
+      <c r="DA57" s="84"/>
+      <c r="DB57" s="82"/>
+      <c r="DC57" s="83"/>
+      <c r="DD57" s="84"/>
+      <c r="DE57" s="82"/>
+      <c r="DF57" s="83"/>
+      <c r="DG57" s="84"/>
+      <c r="DH57" s="82"/>
+      <c r="DI57" s="83"/>
+      <c r="DJ57" s="84"/>
+      <c r="DK57" s="82"/>
+      <c r="DL57" s="83"/>
+      <c r="DM57" s="84"/>
+      <c r="DN57" s="82"/>
+      <c r="DO57" s="83"/>
+      <c r="DP57" s="84"/>
     </row>
     <row r="58" spans="1:120" s="31" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37"/>
@@ -7771,94 +7761,94 @@
       <c r="BG58" s="37"/>
       <c r="BH58" s="37"/>
       <c r="BK58" s="53"/>
-      <c r="BM58" s="75"/>
-      <c r="BN58" s="75"/>
-      <c r="BO58" s="75"/>
-      <c r="BP58" s="75"/>
-      <c r="BQ58" s="75"/>
-      <c r="BR58" s="75"/>
-      <c r="BS58" s="75"/>
-      <c r="BT58" s="75"/>
-      <c r="BU58" s="75"/>
-      <c r="BV58" s="75"/>
-      <c r="BW58" s="75"/>
-      <c r="BX58" s="75"/>
-      <c r="BY58" s="75"/>
-      <c r="BZ58" s="75"/>
-      <c r="CA58" s="75"/>
-      <c r="CB58" s="75"/>
-      <c r="CC58" s="75"/>
+      <c r="BM58" s="123"/>
+      <c r="BN58" s="123"/>
+      <c r="BO58" s="123"/>
+      <c r="BP58" s="123"/>
+      <c r="BQ58" s="123"/>
+      <c r="BR58" s="123"/>
+      <c r="BS58" s="123"/>
+      <c r="BT58" s="123"/>
+      <c r="BU58" s="123"/>
+      <c r="BV58" s="123"/>
+      <c r="BW58" s="123"/>
+      <c r="BX58" s="123"/>
+      <c r="BY58" s="123"/>
+      <c r="BZ58" s="123"/>
+      <c r="CA58" s="123"/>
+      <c r="CB58" s="123"/>
+      <c r="CC58" s="123"/>
     </row>
     <row r="59" spans="1:120" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="114" t="s">
+      <c r="A59" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="111"/>
-      <c r="K59" s="111"/>
-      <c r="L59" s="111"/>
-      <c r="M59" s="111"/>
-      <c r="N59" s="111"/>
-      <c r="O59" s="111"/>
-      <c r="P59" s="111"/>
-      <c r="Q59" s="111"/>
-      <c r="R59" s="111"/>
-      <c r="S59" s="111"/>
-      <c r="T59" s="111"/>
-      <c r="U59" s="111"/>
-      <c r="V59" s="111"/>
-      <c r="W59" s="111"/>
-      <c r="X59" s="111"/>
-      <c r="Y59" s="112" t="s">
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="99"/>
+      <c r="L59" s="99"/>
+      <c r="M59" s="99"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="99"/>
+      <c r="P59" s="99"/>
+      <c r="Q59" s="99"/>
+      <c r="R59" s="99"/>
+      <c r="S59" s="99"/>
+      <c r="T59" s="99"/>
+      <c r="U59" s="99"/>
+      <c r="V59" s="99"/>
+      <c r="W59" s="99"/>
+      <c r="X59" s="99"/>
+      <c r="Y59" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Z59" s="112"/>
-      <c r="AA59" s="112"/>
-      <c r="AB59" s="112"/>
-      <c r="AC59" s="112"/>
-      <c r="AD59" s="112"/>
-      <c r="AE59" s="113"/>
-      <c r="AF59" s="73"/>
-      <c r="AG59" s="73"/>
-      <c r="AH59" s="73"/>
-      <c r="AI59" s="73"/>
-      <c r="AJ59" s="73"/>
-      <c r="AK59" s="73"/>
-      <c r="AL59" s="92" t="s">
+      <c r="Z59" s="102"/>
+      <c r="AA59" s="102"/>
+      <c r="AB59" s="102"/>
+      <c r="AC59" s="102"/>
+      <c r="AD59" s="102"/>
+      <c r="AE59" s="103"/>
+      <c r="AF59" s="77"/>
+      <c r="AG59" s="77"/>
+      <c r="AH59" s="77"/>
+      <c r="AI59" s="77"/>
+      <c r="AJ59" s="77"/>
+      <c r="AK59" s="77"/>
+      <c r="AL59" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="AM59" s="92"/>
-      <c r="AN59" s="93"/>
-      <c r="AO59" s="73"/>
-      <c r="AP59" s="73"/>
-      <c r="AQ59" s="73"/>
-      <c r="AR59" s="73"/>
-      <c r="AS59" s="73"/>
-      <c r="AT59" s="73"/>
-      <c r="AU59" s="92" t="s">
+      <c r="AM59" s="100"/>
+      <c r="AN59" s="101"/>
+      <c r="AO59" s="77"/>
+      <c r="AP59" s="77"/>
+      <c r="AQ59" s="77"/>
+      <c r="AR59" s="77"/>
+      <c r="AS59" s="77"/>
+      <c r="AT59" s="77"/>
+      <c r="AU59" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="AV59" s="92"/>
-      <c r="AW59" s="93"/>
-      <c r="AX59" s="73"/>
-      <c r="AY59" s="73"/>
-      <c r="AZ59" s="73"/>
-      <c r="BA59" s="73"/>
-      <c r="BB59" s="73"/>
-      <c r="BC59" s="73"/>
-      <c r="BD59" s="73"/>
-      <c r="BE59" s="73"/>
-      <c r="BF59" s="73"/>
-      <c r="BG59" s="73"/>
-      <c r="BH59" s="73"/>
-      <c r="BI59" s="73"/>
+      <c r="AV59" s="100"/>
+      <c r="AW59" s="101"/>
+      <c r="AX59" s="77"/>
+      <c r="AY59" s="77"/>
+      <c r="AZ59" s="77"/>
+      <c r="BA59" s="77"/>
+      <c r="BB59" s="77"/>
+      <c r="BC59" s="77"/>
+      <c r="BD59" s="77"/>
+      <c r="BE59" s="77"/>
+      <c r="BF59" s="77"/>
+      <c r="BG59" s="77"/>
+      <c r="BH59" s="77"/>
+      <c r="BI59" s="77"/>
       <c r="BK59" s="53"/>
     </row>
     <row r="60" spans="1:120" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7871,23 +7861,23 @@
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
-      <c r="J60" s="115" t="s">
+      <c r="J60" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K60" s="115"/>
-      <c r="L60" s="115"/>
-      <c r="M60" s="115"/>
-      <c r="N60" s="115"/>
-      <c r="O60" s="115"/>
-      <c r="P60" s="115"/>
-      <c r="Q60" s="115"/>
-      <c r="R60" s="115"/>
-      <c r="S60" s="115"/>
-      <c r="T60" s="115"/>
-      <c r="U60" s="115"/>
-      <c r="V60" s="115"/>
-      <c r="W60" s="115"/>
-      <c r="X60" s="115"/>
+      <c r="K60" s="98"/>
+      <c r="L60" s="98"/>
+      <c r="M60" s="98"/>
+      <c r="N60" s="98"/>
+      <c r="O60" s="98"/>
+      <c r="P60" s="98"/>
+      <c r="Q60" s="98"/>
+      <c r="R60" s="98"/>
+      <c r="S60" s="98"/>
+      <c r="T60" s="98"/>
+      <c r="U60" s="98"/>
+      <c r="V60" s="98"/>
+      <c r="W60" s="98"/>
+      <c r="X60" s="98"/>
       <c r="Y60" s="37"/>
       <c r="Z60" s="37"/>
       <c r="AA60" s="37"/>
@@ -7897,247 +7887,247 @@
       <c r="AE60" s="37"/>
       <c r="AF60" s="37"/>
       <c r="BK60" s="53"/>
-      <c r="BN60" s="111"/>
-      <c r="BO60" s="111"/>
-      <c r="BP60" s="111"/>
-      <c r="BQ60" s="111"/>
-      <c r="BR60" s="111"/>
-      <c r="BS60" s="111"/>
-      <c r="BT60" s="111"/>
-      <c r="BU60" s="111"/>
-      <c r="BV60" s="111"/>
-      <c r="BW60" s="111"/>
-      <c r="BX60" s="111"/>
-      <c r="BY60" s="111"/>
-      <c r="BZ60" s="111"/>
-      <c r="CA60" s="111"/>
-      <c r="CB60" s="111"/>
-      <c r="CC60" s="111"/>
-      <c r="CD60" s="111"/>
-      <c r="CE60" s="111"/>
-      <c r="CF60" s="111"/>
-      <c r="CG60" s="111"/>
-      <c r="CH60" s="111"/>
-      <c r="CI60" s="111"/>
-      <c r="CJ60" s="111"/>
-      <c r="CK60" s="111"/>
-      <c r="CL60" s="111"/>
-      <c r="CM60" s="111"/>
-      <c r="CN60" s="111"/>
-      <c r="CO60" s="111"/>
-      <c r="CP60" s="111"/>
-      <c r="CQ60" s="111"/>
-      <c r="CT60" s="111"/>
-      <c r="CU60" s="111"/>
-      <c r="CV60" s="111"/>
-      <c r="CW60" s="111"/>
-      <c r="CX60" s="111"/>
-      <c r="CY60" s="111"/>
-      <c r="CZ60" s="111"/>
-      <c r="DA60" s="111"/>
-      <c r="DB60" s="111"/>
-      <c r="DC60" s="111"/>
-      <c r="DD60" s="111"/>
-      <c r="DE60" s="111"/>
-      <c r="DF60" s="111"/>
-      <c r="DG60" s="111"/>
-      <c r="DH60" s="111"/>
-      <c r="DI60" s="111"/>
-      <c r="DJ60" s="111"/>
-      <c r="DK60" s="111"/>
-      <c r="DL60" s="111"/>
-      <c r="DM60" s="111"/>
-      <c r="DN60" s="111"/>
+      <c r="BN60" s="99"/>
+      <c r="BO60" s="99"/>
+      <c r="BP60" s="99"/>
+      <c r="BQ60" s="99"/>
+      <c r="BR60" s="99"/>
+      <c r="BS60" s="99"/>
+      <c r="BT60" s="99"/>
+      <c r="BU60" s="99"/>
+      <c r="BV60" s="99"/>
+      <c r="BW60" s="99"/>
+      <c r="BX60" s="99"/>
+      <c r="BY60" s="99"/>
+      <c r="BZ60" s="99"/>
+      <c r="CA60" s="99"/>
+      <c r="CB60" s="99"/>
+      <c r="CC60" s="99"/>
+      <c r="CD60" s="99"/>
+      <c r="CE60" s="99"/>
+      <c r="CF60" s="99"/>
+      <c r="CG60" s="99"/>
+      <c r="CH60" s="99"/>
+      <c r="CI60" s="99"/>
+      <c r="CJ60" s="99"/>
+      <c r="CK60" s="99"/>
+      <c r="CL60" s="99"/>
+      <c r="CM60" s="99"/>
+      <c r="CN60" s="99"/>
+      <c r="CO60" s="99"/>
+      <c r="CP60" s="99"/>
+      <c r="CQ60" s="99"/>
+      <c r="CT60" s="99"/>
+      <c r="CU60" s="99"/>
+      <c r="CV60" s="99"/>
+      <c r="CW60" s="99"/>
+      <c r="CX60" s="99"/>
+      <c r="CY60" s="99"/>
+      <c r="CZ60" s="99"/>
+      <c r="DA60" s="99"/>
+      <c r="DB60" s="99"/>
+      <c r="DC60" s="99"/>
+      <c r="DD60" s="99"/>
+      <c r="DE60" s="99"/>
+      <c r="DF60" s="99"/>
+      <c r="DG60" s="99"/>
+      <c r="DH60" s="99"/>
+      <c r="DI60" s="99"/>
+      <c r="DJ60" s="99"/>
+      <c r="DK60" s="99"/>
+      <c r="DL60" s="99"/>
+      <c r="DM60" s="99"/>
+      <c r="DN60" s="99"/>
     </row>
     <row r="61" spans="1:120" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="34"/>
-      <c r="B61" s="116" t="s">
+      <c r="B61" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="116"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="116"/>
-      <c r="M61" s="116"/>
-      <c r="N61" s="116"/>
-      <c r="O61" s="116"/>
-      <c r="P61" s="116"/>
-      <c r="Q61" s="116"/>
-      <c r="R61" s="116"/>
-      <c r="S61" s="116"/>
-      <c r="T61" s="116"/>
-      <c r="U61" s="116"/>
-      <c r="V61" s="116"/>
-      <c r="W61" s="116"/>
-      <c r="X61" s="116"/>
-      <c r="Y61" s="116"/>
-      <c r="Z61" s="116"/>
-      <c r="AA61" s="116"/>
-      <c r="AB61" s="116"/>
-      <c r="AC61" s="116"/>
-      <c r="AD61" s="116"/>
-      <c r="AE61" s="116"/>
-      <c r="AF61" s="116"/>
-      <c r="AG61" s="116"/>
-      <c r="AH61" s="116"/>
-      <c r="AI61" s="116"/>
-      <c r="AJ61" s="116"/>
-      <c r="AK61" s="116"/>
-      <c r="AL61" s="116"/>
-      <c r="AM61" s="116"/>
-      <c r="AN61" s="116"/>
-      <c r="AO61" s="116"/>
-      <c r="AP61" s="116"/>
-      <c r="AQ61" s="116"/>
-      <c r="AR61" s="116"/>
-      <c r="AS61" s="116"/>
-      <c r="AT61" s="116"/>
-      <c r="AU61" s="116"/>
-      <c r="AV61" s="116"/>
-      <c r="AW61" s="116"/>
-      <c r="AX61" s="116"/>
-      <c r="AY61" s="116"/>
-      <c r="AZ61" s="116"/>
-      <c r="BA61" s="116"/>
-      <c r="BB61" s="116"/>
-      <c r="BC61" s="116"/>
-      <c r="BD61" s="116"/>
-      <c r="BE61" s="116"/>
-      <c r="BF61" s="116"/>
-      <c r="BG61" s="116"/>
-      <c r="BH61" s="116"/>
-      <c r="BI61" s="116"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="97"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="97"/>
+      <c r="L61" s="97"/>
+      <c r="M61" s="97"/>
+      <c r="N61" s="97"/>
+      <c r="O61" s="97"/>
+      <c r="P61" s="97"/>
+      <c r="Q61" s="97"/>
+      <c r="R61" s="97"/>
+      <c r="S61" s="97"/>
+      <c r="T61" s="97"/>
+      <c r="U61" s="97"/>
+      <c r="V61" s="97"/>
+      <c r="W61" s="97"/>
+      <c r="X61" s="97"/>
+      <c r="Y61" s="97"/>
+      <c r="Z61" s="97"/>
+      <c r="AA61" s="97"/>
+      <c r="AB61" s="97"/>
+      <c r="AC61" s="97"/>
+      <c r="AD61" s="97"/>
+      <c r="AE61" s="97"/>
+      <c r="AF61" s="97"/>
+      <c r="AG61" s="97"/>
+      <c r="AH61" s="97"/>
+      <c r="AI61" s="97"/>
+      <c r="AJ61" s="97"/>
+      <c r="AK61" s="97"/>
+      <c r="AL61" s="97"/>
+      <c r="AM61" s="97"/>
+      <c r="AN61" s="97"/>
+      <c r="AO61" s="97"/>
+      <c r="AP61" s="97"/>
+      <c r="AQ61" s="97"/>
+      <c r="AR61" s="97"/>
+      <c r="AS61" s="97"/>
+      <c r="AT61" s="97"/>
+      <c r="AU61" s="97"/>
+      <c r="AV61" s="97"/>
+      <c r="AW61" s="97"/>
+      <c r="AX61" s="97"/>
+      <c r="AY61" s="97"/>
+      <c r="AZ61" s="97"/>
+      <c r="BA61" s="97"/>
+      <c r="BB61" s="97"/>
+      <c r="BC61" s="97"/>
+      <c r="BD61" s="97"/>
+      <c r="BE61" s="97"/>
+      <c r="BF61" s="97"/>
+      <c r="BG61" s="97"/>
+      <c r="BH61" s="97"/>
+      <c r="BI61" s="97"/>
       <c r="BJ61" s="60"/>
       <c r="BK61" s="61"/>
       <c r="BM61" s="51"/>
-      <c r="BN61" s="91" t="s">
+      <c r="BN61" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="BO61" s="91"/>
-      <c r="BP61" s="91"/>
-      <c r="BQ61" s="91"/>
-      <c r="BR61" s="91"/>
-      <c r="BS61" s="91"/>
-      <c r="BT61" s="91"/>
-      <c r="BU61" s="91"/>
-      <c r="BV61" s="91"/>
-      <c r="BW61" s="91"/>
-      <c r="BX61" s="91"/>
-      <c r="BY61" s="91"/>
-      <c r="BZ61" s="91"/>
-      <c r="CA61" s="91"/>
-      <c r="CB61" s="91"/>
-      <c r="CC61" s="91"/>
-      <c r="CD61" s="91"/>
-      <c r="CE61" s="91"/>
-      <c r="CF61" s="91"/>
-      <c r="CG61" s="91"/>
-      <c r="CH61" s="91"/>
-      <c r="CI61" s="91"/>
-      <c r="CJ61" s="91"/>
-      <c r="CK61" s="91"/>
-      <c r="CL61" s="91"/>
-      <c r="CM61" s="91"/>
-      <c r="CN61" s="91"/>
-      <c r="CO61" s="91"/>
-      <c r="CP61" s="91"/>
-      <c r="CQ61" s="91"/>
+      <c r="BO61" s="119"/>
+      <c r="BP61" s="119"/>
+      <c r="BQ61" s="119"/>
+      <c r="BR61" s="119"/>
+      <c r="BS61" s="119"/>
+      <c r="BT61" s="119"/>
+      <c r="BU61" s="119"/>
+      <c r="BV61" s="119"/>
+      <c r="BW61" s="119"/>
+      <c r="BX61" s="119"/>
+      <c r="BY61" s="119"/>
+      <c r="BZ61" s="119"/>
+      <c r="CA61" s="119"/>
+      <c r="CB61" s="119"/>
+      <c r="CC61" s="119"/>
+      <c r="CD61" s="119"/>
+      <c r="CE61" s="119"/>
+      <c r="CF61" s="119"/>
+      <c r="CG61" s="119"/>
+      <c r="CH61" s="119"/>
+      <c r="CI61" s="119"/>
+      <c r="CJ61" s="119"/>
+      <c r="CK61" s="119"/>
+      <c r="CL61" s="119"/>
+      <c r="CM61" s="119"/>
+      <c r="CN61" s="119"/>
+      <c r="CO61" s="119"/>
+      <c r="CP61" s="119"/>
+      <c r="CQ61" s="119"/>
       <c r="CR61" s="25"/>
       <c r="CS61" s="25"/>
-      <c r="CT61" s="91" t="s">
+      <c r="CT61" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="CU61" s="91"/>
-      <c r="CV61" s="91"/>
-      <c r="CW61" s="91"/>
-      <c r="CX61" s="91"/>
-      <c r="CY61" s="91"/>
-      <c r="CZ61" s="91"/>
-      <c r="DA61" s="91"/>
-      <c r="DB61" s="91"/>
-      <c r="DC61" s="91"/>
-      <c r="DD61" s="91"/>
-      <c r="DE61" s="91"/>
-      <c r="DF61" s="91"/>
-      <c r="DG61" s="91"/>
-      <c r="DH61" s="91"/>
-      <c r="DI61" s="91"/>
-      <c r="DJ61" s="91"/>
-      <c r="DK61" s="91"/>
-      <c r="DL61" s="91"/>
-      <c r="DM61" s="91"/>
-      <c r="DN61" s="91"/>
+      <c r="CU61" s="119"/>
+      <c r="CV61" s="119"/>
+      <c r="CW61" s="119"/>
+      <c r="CX61" s="119"/>
+      <c r="CY61" s="119"/>
+      <c r="CZ61" s="119"/>
+      <c r="DA61" s="119"/>
+      <c r="DB61" s="119"/>
+      <c r="DC61" s="119"/>
+      <c r="DD61" s="119"/>
+      <c r="DE61" s="119"/>
+      <c r="DF61" s="119"/>
+      <c r="DG61" s="119"/>
+      <c r="DH61" s="119"/>
+      <c r="DI61" s="119"/>
+      <c r="DJ61" s="119"/>
+      <c r="DK61" s="119"/>
+      <c r="DL61" s="119"/>
+      <c r="DM61" s="119"/>
+      <c r="DN61" s="119"/>
     </row>
     <row r="62" spans="1:120" s="27" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="34"/>
-      <c r="B62" s="116" t="s">
+      <c r="B62" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="116"/>
-      <c r="K62" s="116"/>
-      <c r="L62" s="116"/>
-      <c r="M62" s="116"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116"/>
-      <c r="P62" s="116"/>
-      <c r="Q62" s="116"/>
-      <c r="R62" s="116"/>
-      <c r="S62" s="116"/>
-      <c r="T62" s="116"/>
-      <c r="U62" s="116"/>
-      <c r="V62" s="116"/>
-      <c r="W62" s="116"/>
-      <c r="X62" s="116"/>
-      <c r="Y62" s="116"/>
-      <c r="Z62" s="116"/>
-      <c r="AA62" s="116"/>
-      <c r="AB62" s="116"/>
-      <c r="AC62" s="116"/>
-      <c r="AD62" s="116"/>
-      <c r="AE62" s="116"/>
-      <c r="AF62" s="116"/>
-      <c r="AG62" s="116"/>
-      <c r="AH62" s="116"/>
-      <c r="AI62" s="116"/>
-      <c r="AJ62" s="116"/>
-      <c r="AK62" s="116"/>
-      <c r="AL62" s="116"/>
-      <c r="AM62" s="116"/>
-      <c r="AN62" s="116"/>
-      <c r="AO62" s="116"/>
-      <c r="AP62" s="116"/>
-      <c r="AQ62" s="116"/>
-      <c r="AR62" s="116"/>
-      <c r="AS62" s="116"/>
-      <c r="AT62" s="116"/>
-      <c r="AU62" s="116"/>
-      <c r="AV62" s="116"/>
-      <c r="AW62" s="116"/>
-      <c r="AX62" s="116"/>
-      <c r="AY62" s="116"/>
-      <c r="AZ62" s="116"/>
-      <c r="BA62" s="116"/>
-      <c r="BB62" s="116"/>
-      <c r="BC62" s="116"/>
-      <c r="BD62" s="116"/>
-      <c r="BE62" s="116"/>
-      <c r="BF62" s="116"/>
-      <c r="BG62" s="116"/>
-      <c r="BH62" s="116"/>
-      <c r="BI62" s="116"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="97"/>
+      <c r="M62" s="97"/>
+      <c r="N62" s="97"/>
+      <c r="O62" s="97"/>
+      <c r="P62" s="97"/>
+      <c r="Q62" s="97"/>
+      <c r="R62" s="97"/>
+      <c r="S62" s="97"/>
+      <c r="T62" s="97"/>
+      <c r="U62" s="97"/>
+      <c r="V62" s="97"/>
+      <c r="W62" s="97"/>
+      <c r="X62" s="97"/>
+      <c r="Y62" s="97"/>
+      <c r="Z62" s="97"/>
+      <c r="AA62" s="97"/>
+      <c r="AB62" s="97"/>
+      <c r="AC62" s="97"/>
+      <c r="AD62" s="97"/>
+      <c r="AE62" s="97"/>
+      <c r="AF62" s="97"/>
+      <c r="AG62" s="97"/>
+      <c r="AH62" s="97"/>
+      <c r="AI62" s="97"/>
+      <c r="AJ62" s="97"/>
+      <c r="AK62" s="97"/>
+      <c r="AL62" s="97"/>
+      <c r="AM62" s="97"/>
+      <c r="AN62" s="97"/>
+      <c r="AO62" s="97"/>
+      <c r="AP62" s="97"/>
+      <c r="AQ62" s="97"/>
+      <c r="AR62" s="97"/>
+      <c r="AS62" s="97"/>
+      <c r="AT62" s="97"/>
+      <c r="AU62" s="97"/>
+      <c r="AV62" s="97"/>
+      <c r="AW62" s="97"/>
+      <c r="AX62" s="97"/>
+      <c r="AY62" s="97"/>
+      <c r="AZ62" s="97"/>
+      <c r="BA62" s="97"/>
+      <c r="BB62" s="97"/>
+      <c r="BC62" s="97"/>
+      <c r="BD62" s="97"/>
+      <c r="BE62" s="97"/>
+      <c r="BF62" s="97"/>
+      <c r="BG62" s="97"/>
+      <c r="BH62" s="97"/>
+      <c r="BI62" s="97"/>
       <c r="BJ62" s="60"/>
       <c r="BK62" s="61"/>
       <c r="BM62" s="51"/>
@@ -8195,66 +8185,66 @@
       <c r="CF63" s="26"/>
     </row>
     <row r="64" spans="1:120" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="73"/>
-      <c r="O64" s="73"/>
-      <c r="P64" s="73"/>
-      <c r="Q64" s="73"/>
-      <c r="R64" s="73"/>
-      <c r="S64" s="73"/>
-      <c r="T64" s="73"/>
-      <c r="U64" s="73"/>
-      <c r="V64" s="73"/>
-      <c r="W64" s="73"/>
-      <c r="X64" s="73"/>
-      <c r="Y64" s="73"/>
-      <c r="Z64" s="73"/>
-      <c r="AA64" s="73"/>
-      <c r="AB64" s="73"/>
-      <c r="AC64" s="73"/>
-      <c r="AD64" s="73"/>
-      <c r="AE64" s="73"/>
-      <c r="AF64" s="73"/>
-      <c r="AG64" s="73"/>
-      <c r="AH64" s="73"/>
-      <c r="AI64" s="73"/>
-      <c r="AJ64" s="73"/>
-      <c r="AK64" s="73"/>
-      <c r="AL64" s="73"/>
-      <c r="AM64" s="73"/>
-      <c r="AN64" s="73"/>
-      <c r="AO64" s="73"/>
-      <c r="AP64" s="73"/>
-      <c r="AQ64" s="73"/>
-      <c r="AR64" s="73"/>
-      <c r="AS64" s="73"/>
-      <c r="AT64" s="73"/>
-      <c r="AU64" s="73"/>
-      <c r="AV64" s="73"/>
-      <c r="AW64" s="73"/>
-      <c r="AX64" s="73"/>
-      <c r="AY64" s="73"/>
-      <c r="AZ64" s="73"/>
-      <c r="BA64" s="73"/>
-      <c r="BB64" s="73"/>
-      <c r="BC64" s="73"/>
-      <c r="BD64" s="73"/>
-      <c r="BE64" s="73"/>
-      <c r="BF64" s="73"/>
-      <c r="BG64" s="73"/>
-      <c r="BH64" s="73"/>
-      <c r="BI64" s="73"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="77"/>
+      <c r="O64" s="77"/>
+      <c r="P64" s="77"/>
+      <c r="Q64" s="77"/>
+      <c r="R64" s="77"/>
+      <c r="S64" s="77"/>
+      <c r="T64" s="77"/>
+      <c r="U64" s="77"/>
+      <c r="V64" s="77"/>
+      <c r="W64" s="77"/>
+      <c r="X64" s="77"/>
+      <c r="Y64" s="77"/>
+      <c r="Z64" s="77"/>
+      <c r="AA64" s="77"/>
+      <c r="AB64" s="77"/>
+      <c r="AC64" s="77"/>
+      <c r="AD64" s="77"/>
+      <c r="AE64" s="77"/>
+      <c r="AF64" s="77"/>
+      <c r="AG64" s="77"/>
+      <c r="AH64" s="77"/>
+      <c r="AI64" s="77"/>
+      <c r="AJ64" s="77"/>
+      <c r="AK64" s="77"/>
+      <c r="AL64" s="77"/>
+      <c r="AM64" s="77"/>
+      <c r="AN64" s="77"/>
+      <c r="AO64" s="77"/>
+      <c r="AP64" s="77"/>
+      <c r="AQ64" s="77"/>
+      <c r="AR64" s="77"/>
+      <c r="AS64" s="77"/>
+      <c r="AT64" s="77"/>
+      <c r="AU64" s="77"/>
+      <c r="AV64" s="77"/>
+      <c r="AW64" s="77"/>
+      <c r="AX64" s="77"/>
+      <c r="AY64" s="77"/>
+      <c r="AZ64" s="77"/>
+      <c r="BA64" s="77"/>
+      <c r="BB64" s="77"/>
+      <c r="BC64" s="77"/>
+      <c r="BD64" s="77"/>
+      <c r="BE64" s="77"/>
+      <c r="BF64" s="77"/>
+      <c r="BG64" s="77"/>
+      <c r="BH64" s="77"/>
+      <c r="BI64" s="77"/>
       <c r="BK64" s="48"/>
       <c r="BM64" s="28"/>
       <c r="BN64" s="28"/>
@@ -8301,66 +8291,66 @@
       <c r="CF65" s="26"/>
     </row>
     <row r="66" spans="1:120" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="73"/>
-      <c r="L66" s="73"/>
-      <c r="M66" s="73"/>
-      <c r="N66" s="73"/>
-      <c r="O66" s="73"/>
-      <c r="P66" s="73"/>
-      <c r="Q66" s="73"/>
-      <c r="R66" s="73"/>
-      <c r="S66" s="73"/>
-      <c r="T66" s="73"/>
-      <c r="U66" s="73"/>
-      <c r="V66" s="73"/>
-      <c r="W66" s="73"/>
-      <c r="X66" s="73"/>
-      <c r="Y66" s="73"/>
-      <c r="Z66" s="73"/>
-      <c r="AA66" s="73"/>
-      <c r="AB66" s="73"/>
-      <c r="AC66" s="73"/>
-      <c r="AD66" s="73"/>
-      <c r="AE66" s="73"/>
-      <c r="AF66" s="73"/>
-      <c r="AG66" s="73"/>
-      <c r="AH66" s="73"/>
-      <c r="AI66" s="73"/>
-      <c r="AJ66" s="73"/>
-      <c r="AK66" s="73"/>
-      <c r="AL66" s="73"/>
-      <c r="AM66" s="73"/>
-      <c r="AN66" s="73"/>
-      <c r="AO66" s="73"/>
-      <c r="AP66" s="73"/>
-      <c r="AQ66" s="73"/>
-      <c r="AR66" s="73"/>
-      <c r="AS66" s="73"/>
-      <c r="AT66" s="73"/>
-      <c r="AU66" s="73"/>
-      <c r="AV66" s="73"/>
-      <c r="AW66" s="73"/>
-      <c r="AX66" s="73"/>
-      <c r="AY66" s="73"/>
-      <c r="AZ66" s="73"/>
-      <c r="BA66" s="73"/>
-      <c r="BB66" s="73"/>
-      <c r="BC66" s="73"/>
-      <c r="BD66" s="73"/>
-      <c r="BE66" s="73"/>
-      <c r="BF66" s="73"/>
-      <c r="BG66" s="73"/>
-      <c r="BH66" s="73"/>
-      <c r="BI66" s="73"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="77"/>
+      <c r="N66" s="77"/>
+      <c r="O66" s="77"/>
+      <c r="P66" s="77"/>
+      <c r="Q66" s="77"/>
+      <c r="R66" s="77"/>
+      <c r="S66" s="77"/>
+      <c r="T66" s="77"/>
+      <c r="U66" s="77"/>
+      <c r="V66" s="77"/>
+      <c r="W66" s="77"/>
+      <c r="X66" s="77"/>
+      <c r="Y66" s="77"/>
+      <c r="Z66" s="77"/>
+      <c r="AA66" s="77"/>
+      <c r="AB66" s="77"/>
+      <c r="AC66" s="77"/>
+      <c r="AD66" s="77"/>
+      <c r="AE66" s="77"/>
+      <c r="AF66" s="77"/>
+      <c r="AG66" s="77"/>
+      <c r="AH66" s="77"/>
+      <c r="AI66" s="77"/>
+      <c r="AJ66" s="77"/>
+      <c r="AK66" s="77"/>
+      <c r="AL66" s="77"/>
+      <c r="AM66" s="77"/>
+      <c r="AN66" s="77"/>
+      <c r="AO66" s="77"/>
+      <c r="AP66" s="77"/>
+      <c r="AQ66" s="77"/>
+      <c r="AR66" s="77"/>
+      <c r="AS66" s="77"/>
+      <c r="AT66" s="77"/>
+      <c r="AU66" s="77"/>
+      <c r="AV66" s="77"/>
+      <c r="AW66" s="77"/>
+      <c r="AX66" s="77"/>
+      <c r="AY66" s="77"/>
+      <c r="AZ66" s="77"/>
+      <c r="BA66" s="77"/>
+      <c r="BB66" s="77"/>
+      <c r="BC66" s="77"/>
+      <c r="BD66" s="77"/>
+      <c r="BE66" s="77"/>
+      <c r="BF66" s="77"/>
+      <c r="BG66" s="77"/>
+      <c r="BH66" s="77"/>
+      <c r="BI66" s="77"/>
       <c r="BK66" s="48"/>
       <c r="BM66" s="28"/>
       <c r="BN66" s="28"/>
@@ -8975,9 +8965,9 @@
       <c r="BH77" s="66"/>
     </row>
     <row r="78" spans="1:120" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="87"/>
-      <c r="B78" s="87"/>
-      <c r="C78" s="87"/>
+      <c r="A78" s="118"/>
+      <c r="B78" s="118"/>
+      <c r="C78" s="118"/>
       <c r="F78" s="67"/>
       <c r="G78" s="67"/>
       <c r="H78" s="67"/>
@@ -9086,185 +9076,26 @@
       <c r="DG78" s="67"/>
       <c r="DH78" s="67"/>
       <c r="DI78" s="67"/>
-      <c r="DN78" s="87"/>
-      <c r="DO78" s="87"/>
-      <c r="DP78" s="87"/>
+      <c r="DN78" s="118"/>
+      <c r="DO78" s="118"/>
+      <c r="DP78" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="399">
-    <mergeCell ref="BS13:CJ13"/>
-    <mergeCell ref="CK13:CO13"/>
-    <mergeCell ref="CK1:DP4"/>
-    <mergeCell ref="L28:Z28"/>
-    <mergeCell ref="CQ13:CS13"/>
-    <mergeCell ref="CU12:DP14"/>
-    <mergeCell ref="AO13:AQ13"/>
-    <mergeCell ref="AR13:AT13"/>
-    <mergeCell ref="AU13:AW13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="AO28:AU28"/>
-    <mergeCell ref="AW28:CM28"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="B13:AH13"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="A24:DP24"/>
-    <mergeCell ref="B44:AD44"/>
-    <mergeCell ref="BU49:CY49"/>
-    <mergeCell ref="CZ49:DD49"/>
-    <mergeCell ref="B26:CH26"/>
-    <mergeCell ref="B33:AV33"/>
-    <mergeCell ref="BG49:BI49"/>
-    <mergeCell ref="AI49:AK49"/>
-    <mergeCell ref="AL49:AN49"/>
-    <mergeCell ref="AO49:AQ49"/>
-    <mergeCell ref="AR49:AT49"/>
-    <mergeCell ref="BG66:BI66"/>
-    <mergeCell ref="B61:BI61"/>
-    <mergeCell ref="B62:BI62"/>
-    <mergeCell ref="AR66:AT66"/>
-    <mergeCell ref="AU66:AW66"/>
-    <mergeCell ref="AX66:AZ66"/>
-    <mergeCell ref="BA66:BC66"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="AI66:AK66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="T66:V66"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="J60:X60"/>
-    <mergeCell ref="BN60:CQ60"/>
-    <mergeCell ref="BD59:BF59"/>
-    <mergeCell ref="BG59:BI59"/>
-    <mergeCell ref="J59:X59"/>
-    <mergeCell ref="AF59:AH59"/>
-    <mergeCell ref="AI59:AK59"/>
-    <mergeCell ref="AL59:AN59"/>
-    <mergeCell ref="AX59:AZ59"/>
-    <mergeCell ref="BA59:BC59"/>
-    <mergeCell ref="Y59:AE59"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="DH49:DJ49"/>
-    <mergeCell ref="BD51:BF52"/>
-    <mergeCell ref="CY56:DA57"/>
-    <mergeCell ref="CD56:CF57"/>
-    <mergeCell ref="CG56:CI57"/>
-    <mergeCell ref="CJ56:CL57"/>
-    <mergeCell ref="CM56:CO57"/>
-    <mergeCell ref="BG51:BI52"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="DB56:DD57"/>
-    <mergeCell ref="DE56:DG57"/>
-    <mergeCell ref="BA54:BC56"/>
-    <mergeCell ref="CS52:CU53"/>
-    <mergeCell ref="CV52:CX53"/>
-    <mergeCell ref="AR54:AT56"/>
-    <mergeCell ref="AC54:AE56"/>
-    <mergeCell ref="CT60:DN60"/>
-    <mergeCell ref="AU49:AW49"/>
-    <mergeCell ref="AX49:AZ49"/>
-    <mergeCell ref="BA49:BC49"/>
-    <mergeCell ref="BD49:BF49"/>
-    <mergeCell ref="CM52:CO53"/>
-    <mergeCell ref="CP52:CR53"/>
-    <mergeCell ref="DK52:DM53"/>
-    <mergeCell ref="DN52:DP53"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="I47:AL47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="AW44:AY44"/>
-    <mergeCell ref="AW33:AY33"/>
-    <mergeCell ref="BL46:DP47"/>
-    <mergeCell ref="BR44:BT44"/>
-    <mergeCell ref="BU44:BW44"/>
-    <mergeCell ref="BX44:BZ44"/>
-    <mergeCell ref="CA44:CC44"/>
-    <mergeCell ref="CD44:CF44"/>
-    <mergeCell ref="CG44:CI44"/>
-    <mergeCell ref="CJ44:CL44"/>
-    <mergeCell ref="AE44:AG44"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AK44:AM44"/>
-    <mergeCell ref="AN44:AP44"/>
-    <mergeCell ref="AQ44:AS44"/>
-    <mergeCell ref="AT44:AV44"/>
-    <mergeCell ref="BO44:BQ44"/>
-    <mergeCell ref="BI33:BK33"/>
-    <mergeCell ref="BL33:BN33"/>
-    <mergeCell ref="AZ44:BB44"/>
-    <mergeCell ref="BC44:BE44"/>
-    <mergeCell ref="BF44:BH44"/>
-    <mergeCell ref="BI44:BK44"/>
-    <mergeCell ref="BF33:BH33"/>
-    <mergeCell ref="BL44:BN44"/>
-    <mergeCell ref="AW1:AY2"/>
-    <mergeCell ref="BL1:BN2"/>
-    <mergeCell ref="AZ1:BB2"/>
-    <mergeCell ref="BC1:BE2"/>
-    <mergeCell ref="AZ33:BB33"/>
-    <mergeCell ref="BC33:BE33"/>
-    <mergeCell ref="DK56:DM57"/>
-    <mergeCell ref="DN56:DP57"/>
-    <mergeCell ref="DB52:DD53"/>
-    <mergeCell ref="DH52:DJ53"/>
-    <mergeCell ref="BO1:BQ2"/>
-    <mergeCell ref="BR1:BT2"/>
-    <mergeCell ref="CM33:CO33"/>
-    <mergeCell ref="BO33:CL33"/>
-    <mergeCell ref="DE52:DG53"/>
-    <mergeCell ref="DE49:DG49"/>
-    <mergeCell ref="AU59:AW59"/>
-    <mergeCell ref="CY52:DA53"/>
-    <mergeCell ref="BD54:BF56"/>
-    <mergeCell ref="CS56:CU57"/>
-    <mergeCell ref="CV56:CX57"/>
-    <mergeCell ref="DH56:DJ57"/>
-    <mergeCell ref="CP56:CR57"/>
-    <mergeCell ref="AU54:AW56"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="DN78:DP78"/>
-    <mergeCell ref="BG54:BI56"/>
-    <mergeCell ref="CT61:DN61"/>
-    <mergeCell ref="AO59:AQ59"/>
-    <mergeCell ref="AX54:AZ56"/>
-    <mergeCell ref="BN61:CQ61"/>
-    <mergeCell ref="AR59:AT59"/>
-    <mergeCell ref="W54:Y56"/>
-    <mergeCell ref="Z54:AB56"/>
-    <mergeCell ref="AF54:AH56"/>
-    <mergeCell ref="AI54:AK56"/>
-    <mergeCell ref="AL54:AN56"/>
-    <mergeCell ref="AU51:AW52"/>
-    <mergeCell ref="AX51:AZ52"/>
-    <mergeCell ref="BA51:BC52"/>
-    <mergeCell ref="AI51:AK52"/>
-    <mergeCell ref="AL51:AN52"/>
-    <mergeCell ref="AO51:AQ52"/>
-    <mergeCell ref="B54:D56"/>
-    <mergeCell ref="E54:G56"/>
-    <mergeCell ref="H54:J56"/>
-    <mergeCell ref="K54:M56"/>
-    <mergeCell ref="N54:P56"/>
-    <mergeCell ref="Q54:S56"/>
-    <mergeCell ref="T54:V56"/>
+    <mergeCell ref="AF64:AH64"/>
+    <mergeCell ref="BG64:BI64"/>
+    <mergeCell ref="CI26:CK26"/>
+    <mergeCell ref="BM51:CK54"/>
+    <mergeCell ref="BM55:CC58"/>
+    <mergeCell ref="A57:BJ57"/>
+    <mergeCell ref="N51:P52"/>
+    <mergeCell ref="Q51:S52"/>
+    <mergeCell ref="AC64:AE64"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="Z64:AB64"/>
     <mergeCell ref="AR51:AT52"/>
     <mergeCell ref="E51:G52"/>
     <mergeCell ref="H51:J52"/>
@@ -9274,127 +9105,69 @@
     <mergeCell ref="Z51:AB52"/>
     <mergeCell ref="AC51:AE52"/>
     <mergeCell ref="AF51:AH52"/>
-    <mergeCell ref="AI64:AK64"/>
-    <mergeCell ref="AL64:AN64"/>
-    <mergeCell ref="AO64:AQ64"/>
-    <mergeCell ref="AO54:AQ56"/>
-    <mergeCell ref="AL66:AN66"/>
-    <mergeCell ref="AO66:AQ66"/>
-    <mergeCell ref="AU64:AW64"/>
-    <mergeCell ref="AX64:AZ64"/>
-    <mergeCell ref="BA64:BC64"/>
-    <mergeCell ref="BD64:BF64"/>
-    <mergeCell ref="AR64:AT64"/>
-    <mergeCell ref="BD66:BF66"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BF1:BH2"/>
-    <mergeCell ref="BI1:BK2"/>
-    <mergeCell ref="AZ4:BB4"/>
-    <mergeCell ref="BC4:BE4"/>
-    <mergeCell ref="A10:DP10"/>
-    <mergeCell ref="A11:DP11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AK1:AM2"/>
-    <mergeCell ref="AN1:AP2"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AD1:AJ2"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AQ1:AS2"/>
-    <mergeCell ref="AT1:AV2"/>
-    <mergeCell ref="BU4:BW4"/>
-    <mergeCell ref="BX4:BZ4"/>
-    <mergeCell ref="BU17:BW17"/>
-    <mergeCell ref="BX17:BZ17"/>
-    <mergeCell ref="A9:DP9"/>
-    <mergeCell ref="BL4:BQ4"/>
-    <mergeCell ref="BR4:BT4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:AS4"/>
-    <mergeCell ref="DK17:DM17"/>
-    <mergeCell ref="DN17:DP17"/>
-    <mergeCell ref="DH17:DJ17"/>
-    <mergeCell ref="CM17:CO17"/>
-    <mergeCell ref="CP17:CR17"/>
-    <mergeCell ref="CS17:CU17"/>
-    <mergeCell ref="CV17:CX17"/>
-    <mergeCell ref="BL17:BN17"/>
-    <mergeCell ref="BO17:BQ17"/>
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BI17:BK17"/>
-    <mergeCell ref="BR17:BT17"/>
-    <mergeCell ref="DE17:DG17"/>
-    <mergeCell ref="CY17:DA17"/>
-    <mergeCell ref="DB17:DD17"/>
-    <mergeCell ref="CA17:CC17"/>
-    <mergeCell ref="CD17:CF17"/>
-    <mergeCell ref="CG17:CI17"/>
-    <mergeCell ref="CJ17:CL17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="AN17:AP17"/>
-    <mergeCell ref="AQ17:AS17"/>
-    <mergeCell ref="AT17:AV17"/>
-    <mergeCell ref="AW17:AY17"/>
-    <mergeCell ref="AZ17:BB17"/>
-    <mergeCell ref="BC17:BE17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="BI4:BK4"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="AW19:AY19"/>
-    <mergeCell ref="AZ19:BB19"/>
-    <mergeCell ref="BC19:BE19"/>
-    <mergeCell ref="BF19:BH19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="AN19:AP19"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AT19:AV19"/>
-    <mergeCell ref="BU19:BW19"/>
-    <mergeCell ref="BX19:BZ19"/>
-    <mergeCell ref="CA19:CC19"/>
-    <mergeCell ref="CD19:CF19"/>
-    <mergeCell ref="BI19:BK19"/>
-    <mergeCell ref="BL19:BN19"/>
-    <mergeCell ref="BO19:BQ19"/>
-    <mergeCell ref="BR19:BT19"/>
-    <mergeCell ref="DK19:DM19"/>
-    <mergeCell ref="DN19:DP19"/>
-    <mergeCell ref="CS19:CU19"/>
-    <mergeCell ref="CV19:CX19"/>
-    <mergeCell ref="CY19:DA19"/>
-    <mergeCell ref="DB19:DD19"/>
+    <mergeCell ref="AI51:AK52"/>
+    <mergeCell ref="DH23:DJ23"/>
+    <mergeCell ref="DK23:DM23"/>
+    <mergeCell ref="DN23:DP23"/>
+    <mergeCell ref="BX23:BZ23"/>
+    <mergeCell ref="CA23:CC23"/>
+    <mergeCell ref="CD23:CF23"/>
+    <mergeCell ref="CG23:CI23"/>
+    <mergeCell ref="DB23:DD23"/>
+    <mergeCell ref="DE23:DG23"/>
+    <mergeCell ref="CJ23:CL23"/>
+    <mergeCell ref="CP23:CR23"/>
+    <mergeCell ref="CS23:CU23"/>
+    <mergeCell ref="CV23:CX23"/>
+    <mergeCell ref="CY23:DA23"/>
+    <mergeCell ref="AW23:AY23"/>
+    <mergeCell ref="BR23:BT23"/>
+    <mergeCell ref="BU23:BW23"/>
+    <mergeCell ref="AZ23:BB23"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="BF23:BH23"/>
+    <mergeCell ref="BI23:BK23"/>
+    <mergeCell ref="BL23:BN23"/>
+    <mergeCell ref="BO23:BQ23"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="AN23:AP23"/>
+    <mergeCell ref="AQ23:AS23"/>
+    <mergeCell ref="AT23:AV23"/>
+    <mergeCell ref="CM23:CO23"/>
+    <mergeCell ref="DK21:DM21"/>
+    <mergeCell ref="DN21:DP21"/>
+    <mergeCell ref="CS21:CU21"/>
+    <mergeCell ref="CV21:CX21"/>
+    <mergeCell ref="CY21:DA21"/>
+    <mergeCell ref="DB21:DD21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="DE21:DG21"/>
+    <mergeCell ref="DH21:DJ21"/>
+    <mergeCell ref="CG21:CI21"/>
+    <mergeCell ref="CJ21:CL21"/>
+    <mergeCell ref="CM21:CO21"/>
+    <mergeCell ref="CP21:CR21"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="AQ21:AS21"/>
+    <mergeCell ref="AT21:AV21"/>
+    <mergeCell ref="BU21:BW21"/>
+    <mergeCell ref="BX21:BZ21"/>
+    <mergeCell ref="CA21:CC21"/>
+    <mergeCell ref="CD21:CF21"/>
+    <mergeCell ref="BI21:BK21"/>
+    <mergeCell ref="BL21:BN21"/>
+    <mergeCell ref="BO21:BQ21"/>
+    <mergeCell ref="BR21:BT21"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
@@ -9419,78 +9192,295 @@
     <mergeCell ref="BF21:BH21"/>
     <mergeCell ref="AK21:AM21"/>
     <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="AQ21:AS21"/>
-    <mergeCell ref="AT21:AV21"/>
-    <mergeCell ref="BU21:BW21"/>
-    <mergeCell ref="BX21:BZ21"/>
-    <mergeCell ref="CA21:CC21"/>
-    <mergeCell ref="CD21:CF21"/>
-    <mergeCell ref="BI21:BK21"/>
-    <mergeCell ref="BL21:BN21"/>
-    <mergeCell ref="BO21:BQ21"/>
-    <mergeCell ref="BR21:BT21"/>
-    <mergeCell ref="DK21:DM21"/>
-    <mergeCell ref="DN21:DP21"/>
-    <mergeCell ref="CS21:CU21"/>
-    <mergeCell ref="CV21:CX21"/>
-    <mergeCell ref="CY21:DA21"/>
-    <mergeCell ref="DB21:DD21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="DE21:DG21"/>
-    <mergeCell ref="DH21:DJ21"/>
-    <mergeCell ref="CG21:CI21"/>
-    <mergeCell ref="CJ21:CL21"/>
-    <mergeCell ref="CM21:CO21"/>
-    <mergeCell ref="CP21:CR21"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="BF23:BH23"/>
-    <mergeCell ref="BI23:BK23"/>
-    <mergeCell ref="BL23:BN23"/>
-    <mergeCell ref="BO23:BQ23"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="AN23:AP23"/>
-    <mergeCell ref="AQ23:AS23"/>
-    <mergeCell ref="AT23:AV23"/>
-    <mergeCell ref="CM23:CO23"/>
-    <mergeCell ref="CP23:CR23"/>
-    <mergeCell ref="CS23:CU23"/>
-    <mergeCell ref="CV23:CX23"/>
-    <mergeCell ref="CY23:DA23"/>
-    <mergeCell ref="AW23:AY23"/>
-    <mergeCell ref="BR23:BT23"/>
-    <mergeCell ref="BU23:BW23"/>
-    <mergeCell ref="AZ23:BB23"/>
-    <mergeCell ref="BC23:BE23"/>
-    <mergeCell ref="DH23:DJ23"/>
-    <mergeCell ref="DK23:DM23"/>
-    <mergeCell ref="DN23:DP23"/>
-    <mergeCell ref="BX23:BZ23"/>
-    <mergeCell ref="CA23:CC23"/>
-    <mergeCell ref="CD23:CF23"/>
-    <mergeCell ref="CG23:CI23"/>
-    <mergeCell ref="DB23:DD23"/>
-    <mergeCell ref="DE23:DG23"/>
-    <mergeCell ref="CJ23:CL23"/>
-    <mergeCell ref="AF64:AH64"/>
-    <mergeCell ref="BG64:BI64"/>
-    <mergeCell ref="CI26:CK26"/>
-    <mergeCell ref="BM51:CK54"/>
-    <mergeCell ref="BM55:CC58"/>
-    <mergeCell ref="A57:BJ57"/>
-    <mergeCell ref="N51:P52"/>
-    <mergeCell ref="Q51:S52"/>
-    <mergeCell ref="AC64:AE64"/>
-    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="BX19:BZ19"/>
+    <mergeCell ref="CA19:CC19"/>
+    <mergeCell ref="CD19:CF19"/>
+    <mergeCell ref="BI19:BK19"/>
+    <mergeCell ref="BL19:BN19"/>
+    <mergeCell ref="BO19:BQ19"/>
+    <mergeCell ref="BR19:BT19"/>
+    <mergeCell ref="DK19:DM19"/>
+    <mergeCell ref="DN19:DP19"/>
+    <mergeCell ref="CS19:CU19"/>
+    <mergeCell ref="CV19:CX19"/>
+    <mergeCell ref="CY19:DA19"/>
+    <mergeCell ref="DB19:DD19"/>
+    <mergeCell ref="BC19:BE19"/>
+    <mergeCell ref="BF19:BH19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="AN19:AP19"/>
+    <mergeCell ref="AQ19:AS19"/>
+    <mergeCell ref="AT19:AV19"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="BU19:BW19"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="CA17:CC17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="AW19:AY19"/>
+    <mergeCell ref="AZ19:BB19"/>
+    <mergeCell ref="CD17:CF17"/>
+    <mergeCell ref="CG17:CI17"/>
+    <mergeCell ref="CJ17:CL17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="AN17:AP17"/>
+    <mergeCell ref="AQ17:AS17"/>
+    <mergeCell ref="AT17:AV17"/>
+    <mergeCell ref="AW17:AY17"/>
+    <mergeCell ref="AZ17:BB17"/>
+    <mergeCell ref="BC17:BE17"/>
+    <mergeCell ref="BU17:BW17"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BF1:BH2"/>
+    <mergeCell ref="BI1:BK2"/>
+    <mergeCell ref="AZ4:BB4"/>
+    <mergeCell ref="BC4:BE4"/>
+    <mergeCell ref="A10:DP10"/>
+    <mergeCell ref="A11:DP11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AK1:AM2"/>
+    <mergeCell ref="AN1:AP2"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AD1:AJ2"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AQ1:AS2"/>
+    <mergeCell ref="AT1:AV2"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BX4:BZ4"/>
+    <mergeCell ref="BI4:BK4"/>
+    <mergeCell ref="AL51:AN52"/>
+    <mergeCell ref="AO51:AQ52"/>
+    <mergeCell ref="B54:D56"/>
+    <mergeCell ref="E54:G56"/>
+    <mergeCell ref="H54:J56"/>
+    <mergeCell ref="K54:M56"/>
+    <mergeCell ref="N54:P56"/>
+    <mergeCell ref="Q54:S56"/>
+    <mergeCell ref="T54:V56"/>
+    <mergeCell ref="AO54:AQ56"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="DN78:DP78"/>
+    <mergeCell ref="BG54:BI56"/>
+    <mergeCell ref="CT61:DN61"/>
+    <mergeCell ref="AO59:AQ59"/>
+    <mergeCell ref="AX54:AZ56"/>
+    <mergeCell ref="BN61:CQ61"/>
+    <mergeCell ref="AR59:AT59"/>
+    <mergeCell ref="W54:Y56"/>
+    <mergeCell ref="Z54:AB56"/>
+    <mergeCell ref="AF54:AH56"/>
+    <mergeCell ref="AI54:AK56"/>
+    <mergeCell ref="AL54:AN56"/>
+    <mergeCell ref="AI64:AK64"/>
+    <mergeCell ref="AL64:AN64"/>
+    <mergeCell ref="AO64:AQ64"/>
+    <mergeCell ref="AL66:AN66"/>
+    <mergeCell ref="AO66:AQ66"/>
+    <mergeCell ref="AU64:AW64"/>
+    <mergeCell ref="AX64:AZ64"/>
+    <mergeCell ref="BA64:BC64"/>
+    <mergeCell ref="BD64:BF64"/>
+    <mergeCell ref="AR64:AT64"/>
+    <mergeCell ref="BD66:BF66"/>
+    <mergeCell ref="CM33:CO33"/>
+    <mergeCell ref="BO33:CL33"/>
+    <mergeCell ref="DE52:DG53"/>
+    <mergeCell ref="DE49:DG49"/>
+    <mergeCell ref="AU59:AW59"/>
+    <mergeCell ref="CY52:DA53"/>
+    <mergeCell ref="BD54:BF56"/>
+    <mergeCell ref="CS56:CU57"/>
+    <mergeCell ref="CV56:CX57"/>
+    <mergeCell ref="CP56:CR57"/>
+    <mergeCell ref="AU54:AW56"/>
+    <mergeCell ref="AU51:AW52"/>
+    <mergeCell ref="AX51:AZ52"/>
+    <mergeCell ref="BA51:BC52"/>
+    <mergeCell ref="CJ44:CL44"/>
+    <mergeCell ref="AE44:AG44"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AK44:AM44"/>
+    <mergeCell ref="AN44:AP44"/>
+    <mergeCell ref="AQ44:AS44"/>
+    <mergeCell ref="AT44:AV44"/>
+    <mergeCell ref="BO44:BQ44"/>
+    <mergeCell ref="BI33:BK33"/>
+    <mergeCell ref="BL33:BN33"/>
+    <mergeCell ref="AZ44:BB44"/>
+    <mergeCell ref="BC44:BE44"/>
+    <mergeCell ref="BF44:BH44"/>
+    <mergeCell ref="BI44:BK44"/>
+    <mergeCell ref="BF33:BH33"/>
+    <mergeCell ref="BL44:BN44"/>
+    <mergeCell ref="AZ33:BB33"/>
+    <mergeCell ref="BC33:BE33"/>
+    <mergeCell ref="CT60:DN60"/>
+    <mergeCell ref="AU49:AW49"/>
+    <mergeCell ref="AX49:AZ49"/>
+    <mergeCell ref="BA49:BC49"/>
+    <mergeCell ref="BD49:BF49"/>
+    <mergeCell ref="CM52:CO53"/>
+    <mergeCell ref="CP52:CR53"/>
+    <mergeCell ref="DK52:DM53"/>
+    <mergeCell ref="DN52:DP53"/>
+    <mergeCell ref="DK56:DM57"/>
+    <mergeCell ref="DN56:DP57"/>
+    <mergeCell ref="DB52:DD53"/>
+    <mergeCell ref="DH52:DJ53"/>
+    <mergeCell ref="DH56:DJ57"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="DH49:DJ49"/>
+    <mergeCell ref="BD51:BF52"/>
+    <mergeCell ref="CY56:DA57"/>
+    <mergeCell ref="CD56:CF57"/>
+    <mergeCell ref="CG56:CI57"/>
+    <mergeCell ref="CJ56:CL57"/>
+    <mergeCell ref="CM56:CO57"/>
+    <mergeCell ref="BG51:BI52"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AH49"/>
+    <mergeCell ref="DB56:DD57"/>
+    <mergeCell ref="DE56:DG57"/>
+    <mergeCell ref="BA54:BC56"/>
+    <mergeCell ref="CS52:CU53"/>
+    <mergeCell ref="CV52:CX53"/>
+    <mergeCell ref="AR54:AT56"/>
+    <mergeCell ref="AC54:AE56"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="J60:X60"/>
+    <mergeCell ref="BN60:CQ60"/>
+    <mergeCell ref="BD59:BF59"/>
+    <mergeCell ref="BG59:BI59"/>
+    <mergeCell ref="J59:X59"/>
+    <mergeCell ref="AF59:AH59"/>
+    <mergeCell ref="AI59:AK59"/>
+    <mergeCell ref="AL59:AN59"/>
+    <mergeCell ref="AX59:AZ59"/>
+    <mergeCell ref="BA59:BC59"/>
+    <mergeCell ref="Y59:AE59"/>
+    <mergeCell ref="BG66:BI66"/>
+    <mergeCell ref="B61:BI61"/>
+    <mergeCell ref="B62:BI62"/>
+    <mergeCell ref="AR66:AT66"/>
+    <mergeCell ref="AU66:AW66"/>
+    <mergeCell ref="AX66:AZ66"/>
+    <mergeCell ref="BA66:BC66"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="AI66:AK66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="T66:V66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="B44:AD44"/>
+    <mergeCell ref="BU49:CY49"/>
+    <mergeCell ref="CZ49:DD49"/>
+    <mergeCell ref="B26:CH26"/>
+    <mergeCell ref="B33:AV33"/>
+    <mergeCell ref="BG49:BI49"/>
+    <mergeCell ref="AI49:AK49"/>
+    <mergeCell ref="AL49:AN49"/>
+    <mergeCell ref="AO49:AQ49"/>
+    <mergeCell ref="AR49:AT49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="I47:AL47"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="AW44:AY44"/>
+    <mergeCell ref="AW33:AY33"/>
+    <mergeCell ref="BL46:DP47"/>
+    <mergeCell ref="BR44:BT44"/>
+    <mergeCell ref="BU44:BW44"/>
+    <mergeCell ref="BX44:BZ44"/>
+    <mergeCell ref="CA44:CC44"/>
+    <mergeCell ref="CD44:CF44"/>
+    <mergeCell ref="CG44:CI44"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="AO28:AU28"/>
+    <mergeCell ref="AW28:CM28"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="B13:AH13"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="A24:DP24"/>
+    <mergeCell ref="BX17:BZ17"/>
+    <mergeCell ref="DK17:DM17"/>
+    <mergeCell ref="DN17:DP17"/>
+    <mergeCell ref="DH17:DJ17"/>
+    <mergeCell ref="CM17:CO17"/>
+    <mergeCell ref="CP17:CR17"/>
+    <mergeCell ref="CS17:CU17"/>
+    <mergeCell ref="CV17:CX17"/>
+    <mergeCell ref="BL17:BN17"/>
+    <mergeCell ref="BO17:BQ17"/>
+    <mergeCell ref="BF17:BH17"/>
+    <mergeCell ref="BI17:BK17"/>
+    <mergeCell ref="BR17:BT17"/>
+    <mergeCell ref="DE17:DG17"/>
+    <mergeCell ref="BS13:CJ13"/>
+    <mergeCell ref="CK13:CO13"/>
+    <mergeCell ref="CK1:DP4"/>
+    <mergeCell ref="L28:Z28"/>
+    <mergeCell ref="CQ13:CS13"/>
+    <mergeCell ref="CU12:DP14"/>
+    <mergeCell ref="AO13:AQ13"/>
+    <mergeCell ref="AR13:AT13"/>
+    <mergeCell ref="AU13:AW13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="AW1:AY2"/>
+    <mergeCell ref="BL1:BN2"/>
+    <mergeCell ref="AZ1:BB2"/>
+    <mergeCell ref="BC1:BE2"/>
+    <mergeCell ref="BO1:BQ2"/>
+    <mergeCell ref="BR1:BT2"/>
+    <mergeCell ref="A9:DP9"/>
+    <mergeCell ref="BL4:BQ4"/>
+    <mergeCell ref="BR4:BT4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="CY17:DA17"/>
+    <mergeCell ref="DB17:DD17"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -9511,10 +9501,10 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>30480</xdr:colOff>
+                <xdr:col>21</xdr:col>
+                <xdr:colOff>15240</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>213360</xdr:rowOff>
+                <xdr:rowOff>167640</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
